--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\underworld\trunk\sharedata\exceldata\excel\all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD10B7-4D45-324A-B4CC-78D6F8B779D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,24 @@
     <sheet name="情人对话表" sheetId="4" r:id="rId5"/>
     <sheet name="情人技能表" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="543">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3331,12 +3344,16 @@
     <t>未解锁</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>时装1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3754,19 +3771,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="1表头" xfId="5"/>
+    <cellStyle name="1表头" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - 着色 2" xfId="13" builtinId="34"/>
-    <cellStyle name="2填表文本" xfId="4"/>
-    <cellStyle name="百分比 2" xfId="12"/>
-    <cellStyle name="表头" xfId="2"/>
+    <cellStyle name="2填表文本" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="表头" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="常规 3" xfId="7"/>
-    <cellStyle name="常规 4" xfId="8"/>
-    <cellStyle name="常规 5" xfId="9"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 7" xfId="11"/>
-    <cellStyle name="普通数值" xfId="3"/>
+    <cellStyle name="常规 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 7" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通数值" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="着色 2" xfId="10" builtinId="33"/>
   </cellStyles>
   <dxfs count="2">
@@ -3804,7 +3821,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3879,6 +3896,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3914,6 +3948,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4089,51 +4140,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="28" customWidth="1"/>
     <col min="3" max="5" width="9" style="28"/>
     <col min="6" max="6" width="14.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="28" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="28" customWidth="1"/>
-    <col min="10" max="10" width="68.25" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="68.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="28" customWidth="1"/>
     <col min="13" max="13" width="16" style="28" customWidth="1"/>
-    <col min="14" max="14" width="21.875" style="28" customWidth="1"/>
-    <col min="15" max="16" width="15.875" style="28" customWidth="1"/>
-    <col min="17" max="17" width="15.125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="26.5" style="28" customWidth="1"/>
+    <col min="15" max="16" width="15.83203125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" style="28" customWidth="1"/>
     <col min="18" max="18" width="15" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.375" style="28" customWidth="1"/>
-    <col min="21" max="21" width="20.625" style="28" customWidth="1"/>
+    <col min="19" max="20" width="17.33203125" style="28" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" style="28" customWidth="1"/>
     <col min="22" max="22" width="18.5" style="28" customWidth="1"/>
     <col min="23" max="23" width="11.5" style="28" customWidth="1"/>
     <col min="24" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="M1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="E2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
@@ -4204,7 +4255,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23">
       <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
@@ -4275,7 +4326,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23">
       <c r="A5" s="29" t="s">
         <v>33</v>
       </c>
@@ -4346,7 +4397,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="29" t="s">
         <v>37</v>
       </c>
@@ -4405,7 +4456,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23">
       <c r="A7" s="37"/>
       <c r="B7" s="37">
         <v>21051</v>
@@ -4437,8 +4488,8 @@
       <c r="K7" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="L7" s="37" t="s">
-        <v>55</v>
+      <c r="L7" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>144</v>
@@ -4475,7 +4526,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" s="37"/>
       <c r="B8" s="37">
         <v>21021</v>
@@ -4545,7 +4596,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23">
       <c r="A9" s="37"/>
       <c r="B9" s="37">
         <v>22031</v>
@@ -4615,7 +4666,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23">
       <c r="A10" s="37"/>
       <c r="B10" s="37">
         <v>21011</v>
@@ -4685,7 +4736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23">
       <c r="B11" s="37">
         <v>21041</v>
       </c>
@@ -4754,7 +4805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23">
       <c r="B12" s="37">
         <v>22011</v>
       </c>
@@ -4823,7 +4874,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="B13" s="37">
         <v>22041</v>
       </c>
@@ -4892,7 +4943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="B14" s="37">
         <v>22051</v>
       </c>
@@ -4961,7 +5012,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="B15" s="37">
         <v>23011</v>
       </c>
@@ -5030,7 +5081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23">
       <c r="B16" s="37">
         <v>23041</v>
       </c>
@@ -5099,7 +5150,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23">
       <c r="B17" s="37">
         <v>21031</v>
       </c>
@@ -5168,7 +5219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23">
       <c r="B18" s="37">
         <v>23021</v>
       </c>
@@ -5237,7 +5288,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23">
       <c r="B19" s="37">
         <v>22021</v>
       </c>
@@ -5306,7 +5357,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23">
       <c r="B20" s="37">
         <v>23051</v>
       </c>
@@ -5375,7 +5426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23">
       <c r="B21" s="37">
         <v>23061</v>
       </c>
@@ -5406,8 +5457,8 @@
       <c r="K21" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="L21" s="37" t="s">
-        <v>50</v>
+      <c r="L21" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>149</v>
@@ -5444,7 +5495,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:23">
       <c r="B22" s="37">
         <v>24051</v>
       </c>
@@ -5513,7 +5564,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23">
       <c r="B23" s="37">
         <v>24011</v>
       </c>
@@ -5582,7 +5633,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23">
       <c r="B24" s="37">
         <v>24021</v>
       </c>
@@ -5651,7 +5702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23">
       <c r="B25" s="37">
         <v>24041</v>
       </c>
@@ -5720,7 +5771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23">
       <c r="B26" s="37">
         <v>24061</v>
       </c>
@@ -5789,7 +5840,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23">
       <c r="B27" s="37">
         <v>22061</v>
       </c>
@@ -5858,7 +5909,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23">
       <c r="B28" s="37">
         <v>24031</v>
       </c>
@@ -5927,7 +5978,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23">
       <c r="B29" s="37">
         <v>21061</v>
       </c>
@@ -5996,7 +6047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23">
       <c r="B30" s="37">
         <v>23031</v>
       </c>
@@ -6073,29 +6124,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="14" width="15.875" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="20.25" customWidth="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="12" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="D1" s="48" t="s">
         <v>500</v>
       </c>
@@ -6103,12 +6154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -6157,7 +6208,7 @@
       </c>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -6209,7 +6260,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -6261,7 +6312,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -6307,7 +6358,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>101</v>
@@ -6357,7 +6408,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>102</v>
@@ -6407,7 +6458,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>103</v>
@@ -6451,7 +6502,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>104</v>
@@ -6495,7 +6546,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>105</v>
@@ -6539,7 +6590,7 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="16"/>
@@ -6559,7 +6610,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6579,7 +6630,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="16"/>
@@ -6599,7 +6650,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6619,7 +6670,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="16"/>
@@ -6647,35 +6698,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="I2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -6710,7 +6761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -6745,7 +6796,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -6780,7 +6831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -6799,7 +6850,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>1</v>
@@ -6832,7 +6883,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -6865,7 +6916,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -6898,7 +6949,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -6931,7 +6982,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>5</v>
@@ -6964,7 +7015,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>6</v>
@@ -6997,7 +7048,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>7</v>
@@ -7030,7 +7081,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>8</v>
@@ -7063,7 +7114,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>9</v>
@@ -7096,7 +7147,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>10</v>
@@ -7129,7 +7180,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:11">
       <c r="B17" s="20">
         <v>11</v>
       </c>
@@ -7161,7 +7212,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11">
       <c r="B18" s="20">
         <v>12</v>
       </c>
@@ -7193,7 +7244,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:11">
       <c r="B19" s="20">
         <v>13</v>
       </c>
@@ -7225,7 +7276,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:11">
       <c r="B20" s="20">
         <v>14</v>
       </c>
@@ -7257,7 +7308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11">
       <c r="B21" s="20">
         <v>15</v>
       </c>
@@ -7289,7 +7340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11">
       <c r="B22" s="20">
         <v>16</v>
       </c>
@@ -7321,7 +7372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11">
       <c r="B23" s="20">
         <v>17</v>
       </c>
@@ -7353,7 +7404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11">
       <c r="B24" s="20">
         <v>18</v>
       </c>
@@ -7385,7 +7436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11">
       <c r="B25" s="20">
         <v>19</v>
       </c>
@@ -7417,7 +7468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:11">
       <c r="B26" s="20">
         <v>20</v>
       </c>
@@ -7449,7 +7500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:11">
       <c r="B27" s="20">
         <v>21</v>
       </c>
@@ -7481,7 +7532,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:11">
       <c r="B28" s="20">
         <v>22</v>
       </c>
@@ -7513,7 +7564,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:11">
       <c r="B29" s="20">
         <v>23</v>
       </c>
@@ -7545,7 +7596,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:11">
       <c r="B30" s="20">
         <v>24</v>
       </c>
@@ -7577,7 +7628,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:11">
       <c r="B31" s="20">
         <v>25</v>
       </c>
@@ -7609,7 +7660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:11">
       <c r="B32" s="20">
         <v>26</v>
       </c>
@@ -7641,7 +7692,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11">
       <c r="B33" s="20">
         <v>27</v>
       </c>
@@ -7673,7 +7724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:11">
       <c r="B34" s="20">
         <v>28</v>
       </c>
@@ -7705,7 +7756,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11">
       <c r="B35" s="20">
         <v>29</v>
       </c>
@@ -7737,7 +7788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:11">
       <c r="B36" s="20">
         <v>30</v>
       </c>
@@ -7769,7 +7820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:11">
       <c r="B37" s="20">
         <v>31</v>
       </c>
@@ -7801,7 +7852,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:11">
       <c r="B38" s="20">
         <v>32</v>
       </c>
@@ -7833,7 +7884,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:11">
       <c r="B39" s="20">
         <v>33</v>
       </c>
@@ -7865,7 +7916,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:11">
       <c r="B40" s="20">
         <v>34</v>
       </c>
@@ -7897,7 +7948,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:11">
       <c r="B41" s="20">
         <v>35</v>
       </c>
@@ -7929,7 +7980,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:11">
       <c r="B42" s="20">
         <v>36</v>
       </c>
@@ -7961,7 +8012,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:11">
       <c r="B43" s="20">
         <v>37</v>
       </c>
@@ -7993,7 +8044,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:11">
       <c r="B44" s="20">
         <v>38</v>
       </c>
@@ -8025,7 +8076,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:11">
       <c r="B45" s="20">
         <v>39</v>
       </c>
@@ -8057,7 +8108,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:11">
       <c r="B46" s="20">
         <v>40</v>
       </c>
@@ -8089,7 +8140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:11">
       <c r="B47" s="20">
         <v>41</v>
       </c>
@@ -8121,7 +8172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:11">
       <c r="B48" s="20">
         <v>42</v>
       </c>
@@ -8153,7 +8204,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11">
       <c r="B49" s="20">
         <v>43</v>
       </c>
@@ -8185,7 +8236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11">
       <c r="B50" s="20">
         <v>44</v>
       </c>
@@ -8217,7 +8268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11">
       <c r="B51" s="20">
         <v>45</v>
       </c>
@@ -8249,7 +8300,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11">
       <c r="B52" s="20">
         <v>46</v>
       </c>
@@ -8281,7 +8332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:11">
       <c r="B53" s="20">
         <v>47</v>
       </c>
@@ -8313,7 +8364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11">
       <c r="B54" s="20">
         <v>48</v>
       </c>
@@ -8345,7 +8396,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11">
       <c r="B55" s="20">
         <v>49</v>
       </c>
@@ -8377,7 +8428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11">
       <c r="B56" s="20">
         <v>50</v>
       </c>
@@ -8409,7 +8460,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11">
       <c r="B57" s="20">
         <v>51</v>
       </c>
@@ -8441,7 +8492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:11">
       <c r="B58" s="20">
         <v>52</v>
       </c>
@@ -8473,7 +8524,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11">
       <c r="B59" s="20">
         <v>53</v>
       </c>
@@ -8505,7 +8556,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11">
       <c r="B60" s="20">
         <v>54</v>
       </c>
@@ -8537,7 +8588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11">
       <c r="B61" s="20">
         <v>55</v>
       </c>
@@ -8569,7 +8620,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11">
       <c r="B62" s="20">
         <v>56</v>
       </c>
@@ -8601,7 +8652,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11">
       <c r="B63" s="20">
         <v>57</v>
       </c>
@@ -8633,7 +8684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11">
       <c r="B64" s="20">
         <v>58</v>
       </c>
@@ -8665,7 +8716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11">
       <c r="B65" s="20">
         <v>59</v>
       </c>
@@ -8697,7 +8748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11">
       <c r="B66" s="20">
         <v>60</v>
       </c>
@@ -8729,7 +8780,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11">
       <c r="B67" s="20">
         <v>61</v>
       </c>
@@ -8761,7 +8812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11">
       <c r="B68" s="20">
         <v>62</v>
       </c>
@@ -8793,7 +8844,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11">
       <c r="B69" s="20">
         <v>63</v>
       </c>
@@ -8825,7 +8876,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11">
       <c r="B70" s="20">
         <v>64</v>
       </c>
@@ -8857,7 +8908,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11">
       <c r="B71" s="20">
         <v>65</v>
       </c>
@@ -8889,7 +8940,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11">
       <c r="B72" s="20">
         <v>66</v>
       </c>
@@ -8921,7 +8972,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11">
       <c r="B73" s="20">
         <v>67</v>
       </c>
@@ -8953,7 +9004,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11">
       <c r="B74" s="20">
         <v>68</v>
       </c>
@@ -8985,7 +9036,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11">
       <c r="B75" s="20">
         <v>69</v>
       </c>
@@ -9017,7 +9068,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11">
       <c r="B76" s="20">
         <v>70</v>
       </c>
@@ -9049,7 +9100,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11">
       <c r="B77" s="20">
         <v>71</v>
       </c>
@@ -9081,7 +9132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:11">
       <c r="B78" s="20">
         <v>72</v>
       </c>
@@ -9113,7 +9164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:11">
       <c r="B79" s="20">
         <v>73</v>
       </c>
@@ -9145,7 +9196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11">
       <c r="B80" s="20">
         <v>74</v>
       </c>
@@ -9177,7 +9228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:11">
       <c r="B81" s="20">
         <v>75</v>
       </c>
@@ -9209,7 +9260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:11">
       <c r="B82" s="20">
         <v>76</v>
       </c>
@@ -9241,7 +9292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:11">
       <c r="B83" s="20">
         <v>77</v>
       </c>
@@ -9273,7 +9324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:11">
       <c r="B84" s="20">
         <v>78</v>
       </c>
@@ -9305,7 +9356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:11">
       <c r="B85" s="20">
         <v>79</v>
       </c>
@@ -9337,7 +9388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:11">
       <c r="B86" s="20">
         <v>80</v>
       </c>
@@ -9369,7 +9420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:11">
       <c r="B87" s="20">
         <v>81</v>
       </c>
@@ -9401,7 +9452,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:11">
       <c r="B88" s="20">
         <v>82</v>
       </c>
@@ -9433,7 +9484,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:11">
       <c r="B89" s="20">
         <v>83</v>
       </c>
@@ -9465,7 +9516,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:11">
       <c r="B90" s="20">
         <v>84</v>
       </c>
@@ -9497,7 +9548,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:11">
       <c r="B91" s="20">
         <v>85</v>
       </c>
@@ -9529,7 +9580,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:11">
       <c r="B92" s="20">
         <v>86</v>
       </c>
@@ -9561,7 +9612,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:11">
       <c r="B93" s="20">
         <v>87</v>
       </c>
@@ -9593,7 +9644,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:11">
       <c r="B94" s="20">
         <v>88</v>
       </c>
@@ -9625,7 +9676,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:11">
       <c r="B95" s="20">
         <v>89</v>
       </c>
@@ -9657,7 +9708,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:11">
       <c r="B96" s="20">
         <v>90</v>
       </c>
@@ -9689,7 +9740,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11">
       <c r="B97" s="20">
         <v>91</v>
       </c>
@@ -9721,7 +9772,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11">
       <c r="B98" s="20">
         <v>92</v>
       </c>
@@ -9753,7 +9804,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:11">
       <c r="B99" s="20">
         <v>93</v>
       </c>
@@ -9785,7 +9836,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11">
       <c r="B100" s="20">
         <v>94</v>
       </c>
@@ -9817,7 +9868,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11">
       <c r="B101" s="20">
         <v>95</v>
       </c>
@@ -9849,7 +9900,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11">
       <c r="B102" s="20">
         <v>96</v>
       </c>
@@ -9881,7 +9932,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11">
       <c r="B103" s="20">
         <v>97</v>
       </c>
@@ -9913,7 +9964,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11">
       <c r="B104" s="20">
         <v>98</v>
       </c>
@@ -9945,7 +9996,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11">
       <c r="B105" s="20">
         <v>99</v>
       </c>
@@ -9977,7 +10028,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11">
       <c r="B106" s="20">
         <v>100</v>
       </c>
@@ -10009,7 +10060,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11">
       <c r="B107" s="20">
         <v>101</v>
       </c>
@@ -10041,7 +10092,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11">
       <c r="B108" s="20">
         <v>102</v>
       </c>
@@ -10073,7 +10124,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:11">
       <c r="B109" s="20">
         <v>103</v>
       </c>
@@ -10105,7 +10156,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:11">
       <c r="B110" s="20">
         <v>104</v>
       </c>
@@ -10137,7 +10188,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:11">
       <c r="B111" s="20">
         <v>105</v>
       </c>
@@ -10169,7 +10220,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:11">
       <c r="B112" s="20">
         <v>106</v>
       </c>
@@ -10201,7 +10252,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:11">
       <c r="B113" s="20">
         <v>107</v>
       </c>
@@ -10233,7 +10284,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:11">
       <c r="B114" s="20">
         <v>108</v>
       </c>
@@ -10265,7 +10316,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:11">
       <c r="B115" s="20">
         <v>109</v>
       </c>
@@ -10297,7 +10348,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:11">
       <c r="B116" s="20">
         <v>110</v>
       </c>
@@ -10329,7 +10380,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:11">
       <c r="B117" s="20">
         <v>111</v>
       </c>
@@ -10361,7 +10412,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:11">
       <c r="B118" s="20">
         <v>112</v>
       </c>
@@ -10393,7 +10444,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:11">
       <c r="B119" s="20">
         <v>113</v>
       </c>
@@ -10425,7 +10476,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:11">
       <c r="B120" s="20">
         <v>114</v>
       </c>
@@ -10457,7 +10508,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:11">
       <c r="B121" s="20">
         <v>115</v>
       </c>
@@ -10489,7 +10540,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:11">
       <c r="B122" s="20">
         <v>116</v>
       </c>
@@ -10521,7 +10572,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:11">
       <c r="B123" s="20">
         <v>117</v>
       </c>
@@ -10553,7 +10604,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:11">
       <c r="B124" s="20">
         <v>118</v>
       </c>
@@ -10585,7 +10636,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:11">
       <c r="B125" s="20">
         <v>119</v>
       </c>
@@ -10617,7 +10668,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:11">
       <c r="B126" s="20">
         <v>120</v>
       </c>
@@ -10649,7 +10700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:11">
       <c r="B127" s="20">
         <v>121</v>
       </c>
@@ -10681,7 +10732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:11">
       <c r="B128" s="20">
         <v>122</v>
       </c>
@@ -10713,7 +10764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:11">
       <c r="B129" s="20">
         <v>123</v>
       </c>
@@ -10745,7 +10796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:11">
       <c r="B130" s="20">
         <v>124</v>
       </c>
@@ -10777,7 +10828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:11">
       <c r="B131" s="20">
         <v>125</v>
       </c>
@@ -10809,7 +10860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:11">
       <c r="B132" s="20">
         <v>126</v>
       </c>
@@ -10841,7 +10892,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:11">
       <c r="B133" s="20">
         <v>127</v>
       </c>
@@ -10873,7 +10924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:11">
       <c r="B134" s="20">
         <v>128</v>
       </c>
@@ -10905,7 +10956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:11">
       <c r="B135" s="20">
         <v>129</v>
       </c>
@@ -10937,7 +10988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:11">
       <c r="B136" s="20">
         <v>130</v>
       </c>
@@ -10969,7 +11020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:11">
       <c r="B137" s="20">
         <v>131</v>
       </c>
@@ -11001,7 +11052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:11">
       <c r="B138" s="20">
         <v>132</v>
       </c>
@@ -11033,7 +11084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:11">
       <c r="B139" s="20">
         <v>133</v>
       </c>
@@ -11065,7 +11116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:11">
       <c r="B140" s="20">
         <v>134</v>
       </c>
@@ -11097,7 +11148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:11">
       <c r="B141" s="20">
         <v>135</v>
       </c>
@@ -11129,7 +11180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:11">
       <c r="B142" s="20">
         <v>136</v>
       </c>
@@ -11161,7 +11212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:11">
       <c r="B143" s="20">
         <v>137</v>
       </c>
@@ -11193,7 +11244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:11">
       <c r="B144" s="20">
         <v>138</v>
       </c>
@@ -11225,7 +11276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:11">
       <c r="B145" s="20">
         <v>139</v>
       </c>
@@ -11257,7 +11308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:11">
       <c r="B146" s="20">
         <v>140</v>
       </c>
@@ -11289,7 +11340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:11">
       <c r="B147" s="20">
         <v>141</v>
       </c>
@@ -11321,7 +11372,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:11">
       <c r="B148" s="20">
         <v>142</v>
       </c>
@@ -11353,7 +11404,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:11">
       <c r="B149" s="20">
         <v>143</v>
       </c>
@@ -11385,7 +11436,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:11">
       <c r="B150" s="20">
         <v>144</v>
       </c>
@@ -11417,7 +11468,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:11">
       <c r="B151" s="20">
         <v>145</v>
       </c>
@@ -11449,7 +11500,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:11">
       <c r="B152" s="20">
         <v>146</v>
       </c>
@@ -11481,7 +11532,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:11">
       <c r="B153" s="20">
         <v>147</v>
       </c>
@@ -11513,7 +11564,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:11">
       <c r="B154" s="20">
         <v>148</v>
       </c>
@@ -11545,7 +11596,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:11">
       <c r="B155" s="20">
         <v>149</v>
       </c>
@@ -11577,7 +11628,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:11">
       <c r="B156" s="20">
         <v>150</v>
       </c>
@@ -11609,7 +11660,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:11">
       <c r="B157" s="20">
         <v>151</v>
       </c>
@@ -11641,7 +11692,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:11">
       <c r="B158" s="20">
         <v>152</v>
       </c>
@@ -11673,7 +11724,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:11">
       <c r="B159" s="20">
         <v>153</v>
       </c>
@@ -11705,7 +11756,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:11">
       <c r="B160" s="20">
         <v>154</v>
       </c>
@@ -11737,7 +11788,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:11">
       <c r="B161" s="20">
         <v>155</v>
       </c>
@@ -11769,7 +11820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:11">
       <c r="B162" s="20">
         <v>156</v>
       </c>
@@ -11801,7 +11852,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:11">
       <c r="B163" s="20">
         <v>157</v>
       </c>
@@ -11833,7 +11884,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:11">
       <c r="B164" s="20">
         <v>158</v>
       </c>
@@ -11865,7 +11916,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:11">
       <c r="B165" s="20">
         <v>159</v>
       </c>
@@ -11897,7 +11948,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:11">
       <c r="B166" s="20">
         <v>160</v>
       </c>
@@ -11929,7 +11980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:11">
       <c r="B167" s="20">
         <v>161</v>
       </c>
@@ -11961,7 +12012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:11">
       <c r="B168" s="20">
         <v>162</v>
       </c>
@@ -11993,7 +12044,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:11">
       <c r="B169" s="20">
         <v>163</v>
       </c>
@@ -12025,7 +12076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:11">
       <c r="B170" s="20">
         <v>164</v>
       </c>
@@ -12057,7 +12108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:11">
       <c r="B171" s="20">
         <v>165</v>
       </c>
@@ -12089,7 +12140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:11">
       <c r="B172" s="20">
         <v>166</v>
       </c>
@@ -12121,7 +12172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:11">
       <c r="B173" s="20">
         <v>167</v>
       </c>
@@ -12153,7 +12204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:11">
       <c r="B174" s="20">
         <v>168</v>
       </c>
@@ -12185,7 +12236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:11">
       <c r="B175" s="20">
         <v>169</v>
       </c>
@@ -12217,7 +12268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:11">
       <c r="B176" s="20">
         <v>170</v>
       </c>
@@ -12249,7 +12300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:11">
       <c r="B177" s="20">
         <v>171</v>
       </c>
@@ -12281,7 +12332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:11">
       <c r="B178" s="20">
         <v>172</v>
       </c>
@@ -12313,7 +12364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:11">
       <c r="B179" s="20">
         <v>173</v>
       </c>
@@ -12345,7 +12396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:11">
       <c r="B180" s="20">
         <v>174</v>
       </c>
@@ -12377,7 +12428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:11">
       <c r="B181" s="20">
         <v>175</v>
       </c>
@@ -12409,7 +12460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:11">
       <c r="B182" s="20">
         <v>176</v>
       </c>
@@ -12441,7 +12492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:11">
       <c r="B183" s="20">
         <v>177</v>
       </c>
@@ -12473,7 +12524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:11">
       <c r="B184" s="20">
         <v>178</v>
       </c>
@@ -12505,7 +12556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:11">
       <c r="B185" s="20">
         <v>179</v>
       </c>
@@ -12537,7 +12588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:11">
       <c r="B186" s="20">
         <v>180</v>
       </c>
@@ -12569,7 +12620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:11">
       <c r="B187" s="20">
         <v>181</v>
       </c>
@@ -12601,7 +12652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:11">
       <c r="B188" s="20">
         <v>182</v>
       </c>
@@ -12633,7 +12684,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:11">
       <c r="B189" s="20">
         <v>183</v>
       </c>
@@ -12665,7 +12716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:11">
       <c r="B190" s="20">
         <v>184</v>
       </c>
@@ -12697,7 +12748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:11">
       <c r="B191" s="20">
         <v>185</v>
       </c>
@@ -12729,7 +12780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:11">
       <c r="B192" s="20">
         <v>186</v>
       </c>
@@ -12761,7 +12812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:11">
       <c r="B193" s="20">
         <v>187</v>
       </c>
@@ -12793,7 +12844,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:11">
       <c r="B194" s="20">
         <v>188</v>
       </c>
@@ -12825,7 +12876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:11">
       <c r="B195" s="20">
         <v>189</v>
       </c>
@@ -12857,7 +12908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:11">
       <c r="B196" s="20">
         <v>190</v>
       </c>
@@ -12889,7 +12940,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:11">
       <c r="B197" s="20">
         <v>191</v>
       </c>
@@ -12921,7 +12972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:11">
       <c r="B198" s="20">
         <v>192</v>
       </c>
@@ -12953,7 +13004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:11">
       <c r="B199" s="20">
         <v>193</v>
       </c>
@@ -12985,7 +13036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:11">
       <c r="B200" s="20">
         <v>194</v>
       </c>
@@ -13017,7 +13068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:11">
       <c r="B201" s="20">
         <v>195</v>
       </c>
@@ -13049,7 +13100,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:11">
       <c r="B202" s="20">
         <v>196</v>
       </c>
@@ -13081,7 +13132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:11">
       <c r="B203" s="20">
         <v>197</v>
       </c>
@@ -13113,7 +13164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:11">
       <c r="B204" s="20">
         <v>198</v>
       </c>
@@ -13145,7 +13196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:11">
       <c r="B205" s="20">
         <v>199</v>
       </c>
@@ -13177,7 +13228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:11">
       <c r="B206" s="20">
         <v>200</v>
       </c>
@@ -13209,7 +13260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:11">
       <c r="B207" s="20">
         <v>201</v>
       </c>
@@ -13241,7 +13292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:11">
       <c r="B208" s="20">
         <v>202</v>
       </c>
@@ -13273,7 +13324,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:11">
       <c r="B209" s="20">
         <v>203</v>
       </c>
@@ -13305,7 +13356,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:11">
       <c r="B210" s="20">
         <v>204</v>
       </c>
@@ -13337,7 +13388,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:11">
       <c r="B211" s="20">
         <v>205</v>
       </c>
@@ -13369,7 +13420,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:11">
       <c r="B212" s="20">
         <v>206</v>
       </c>
@@ -13401,7 +13452,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:11">
       <c r="B213" s="20">
         <v>207</v>
       </c>
@@ -13433,7 +13484,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:11">
       <c r="B214" s="20">
         <v>208</v>
       </c>
@@ -13465,7 +13516,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:11">
       <c r="B215" s="20">
         <v>209</v>
       </c>
@@ -13497,7 +13548,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:11">
       <c r="B216" s="20">
         <v>210</v>
       </c>
@@ -13529,7 +13580,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:11">
       <c r="B217" s="20">
         <v>211</v>
       </c>
@@ -13561,7 +13612,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:11">
       <c r="B218" s="20">
         <v>212</v>
       </c>
@@ -13593,7 +13644,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:11">
       <c r="B219" s="20">
         <v>213</v>
       </c>
@@ -13625,7 +13676,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:11">
       <c r="B220" s="20">
         <v>214</v>
       </c>
@@ -13657,7 +13708,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:11">
       <c r="B221" s="20">
         <v>215</v>
       </c>
@@ -13689,7 +13740,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:11">
       <c r="B222" s="20">
         <v>216</v>
       </c>
@@ -13721,7 +13772,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:11">
       <c r="B223" s="20">
         <v>217</v>
       </c>
@@ -13753,7 +13804,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:11">
       <c r="B224" s="20">
         <v>218</v>
       </c>
@@ -13785,7 +13836,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:11">
       <c r="B225" s="20">
         <v>219</v>
       </c>
@@ -13817,7 +13868,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:11">
       <c r="B226" s="20">
         <v>220</v>
       </c>
@@ -13849,7 +13900,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:11">
       <c r="B227" s="20">
         <v>221</v>
       </c>
@@ -13881,7 +13932,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:11">
       <c r="B228" s="20">
         <v>222</v>
       </c>
@@ -13913,7 +13964,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:11">
       <c r="B229" s="20">
         <v>223</v>
       </c>
@@ -13945,7 +13996,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:11">
       <c r="B230" s="20">
         <v>224</v>
       </c>
@@ -13977,7 +14028,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:11">
       <c r="B231" s="20">
         <v>225</v>
       </c>
@@ -14009,7 +14060,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:11">
       <c r="B232" s="20">
         <v>226</v>
       </c>
@@ -14041,7 +14092,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:11">
       <c r="B233" s="20">
         <v>227</v>
       </c>
@@ -14073,7 +14124,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:11">
       <c r="B234" s="20">
         <v>228</v>
       </c>
@@ -14105,7 +14156,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:11">
       <c r="B235" s="20">
         <v>229</v>
       </c>
@@ -14137,7 +14188,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:11">
       <c r="B236" s="20">
         <v>230</v>
       </c>
@@ -14169,7 +14220,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:11">
       <c r="B237" s="20">
         <v>231</v>
       </c>
@@ -14201,7 +14252,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:11">
       <c r="B238" s="20">
         <v>232</v>
       </c>
@@ -14233,7 +14284,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:11">
       <c r="B239" s="20">
         <v>233</v>
       </c>
@@ -14265,7 +14316,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:11">
       <c r="B240" s="20">
         <v>234</v>
       </c>
@@ -14297,7 +14348,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:11">
       <c r="B241" s="20">
         <v>235</v>
       </c>
@@ -14329,7 +14380,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:11">
       <c r="B242" s="20">
         <v>236</v>
       </c>
@@ -14361,7 +14412,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:11">
       <c r="B243" s="20">
         <v>237</v>
       </c>
@@ -14393,7 +14444,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:11">
       <c r="B244" s="20">
         <v>238</v>
       </c>
@@ -14425,7 +14476,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:11">
       <c r="B245" s="20">
         <v>239</v>
       </c>
@@ -14457,7 +14508,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:11">
       <c r="B246" s="20">
         <v>240</v>
       </c>
@@ -14489,7 +14540,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:11">
       <c r="B247" s="20">
         <v>241</v>
       </c>
@@ -14521,7 +14572,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:11">
       <c r="B248" s="20">
         <v>242</v>
       </c>
@@ -14553,7 +14604,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:11">
       <c r="B249" s="20">
         <v>243</v>
       </c>
@@ -14585,7 +14636,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:11">
       <c r="B250" s="20">
         <v>244</v>
       </c>
@@ -14617,7 +14668,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:11">
       <c r="B251" s="20">
         <v>245</v>
       </c>
@@ -14649,7 +14700,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:11">
       <c r="B252" s="20">
         <v>246</v>
       </c>
@@ -14681,7 +14732,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:11">
       <c r="B253" s="20">
         <v>247</v>
       </c>
@@ -14713,7 +14764,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:11">
       <c r="B254" s="20">
         <v>248</v>
       </c>
@@ -14745,7 +14796,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:11">
       <c r="B255" s="20">
         <v>249</v>
       </c>
@@ -14777,7 +14828,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:11">
       <c r="B256" s="20">
         <v>250</v>
       </c>
@@ -14809,7 +14860,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="258" spans="3:3">
       <c r="C258" s="21"/>
     </row>
   </sheetData>
@@ -14820,32 +14871,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="27.25" customWidth="1"/>
-    <col min="11" max="11" width="35.625" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="23.875" customWidth="1"/>
-    <col min="14" max="15" width="21.75" customWidth="1"/>
-    <col min="16" max="16" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" customWidth="1"/>
+    <col min="14" max="15" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="I2" s="5" t="s">
         <v>154</v>
       </c>
@@ -14854,7 +14905,7 @@
       </c>
       <c r="M2" s="50"/>
     </row>
-    <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="30">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -14904,7 +14955,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>102</v>
       </c>
@@ -14954,7 +15005,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -15004,7 +15055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -15040,7 +15091,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>1</v>
@@ -15080,7 +15131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="16">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -15124,7 +15175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="16">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -15168,7 +15219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="16">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -15212,7 +15263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="16">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>5</v>
@@ -15256,7 +15307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="16">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>6</v>
@@ -15300,7 +15351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="16">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
         <v>7</v>
@@ -15344,7 +15395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="16">
       <c r="A14" s="5"/>
       <c r="B14" s="5">
         <v>8</v>
@@ -15388,7 +15439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="16">
       <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>9</v>
@@ -15432,7 +15483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="16">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
         <v>10</v>
@@ -15480,7 +15531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -15509,22 +15560,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="80.25" customWidth="1"/>
-    <col min="4" max="4" width="67.375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="80.1640625" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -15545,7 +15596,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17">
       <c r="A4" s="2" t="s">
         <v>139</v>
       </c>
@@ -15566,7 +15617,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -15587,7 +15638,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -15606,7 +15657,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>1</v>
@@ -15625,7 +15676,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -15644,7 +15695,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -15663,7 +15714,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -15682,7 +15733,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>5</v>
@@ -15701,7 +15752,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="20">
         <v>6</v>
@@ -15720,7 +15771,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="20">
         <v>7</v>
@@ -15739,7 +15790,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="20">
         <v>8</v>
@@ -15758,7 +15809,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="20">
         <v>9</v>
@@ -15777,7 +15828,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="20">
         <v>10</v>
@@ -15796,7 +15847,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="20">
         <v>11</v>
@@ -15815,7 +15866,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="20">
         <v>12</v>
@@ -15834,7 +15885,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="20">
         <v>13</v>
@@ -15853,7 +15904,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="20">
         <v>14</v>
@@ -15872,7 +15923,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="20">
         <v>15</v>
@@ -15891,7 +15942,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="20">
         <v>16</v>
@@ -15910,7 +15961,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="5"/>
       <c r="B23" s="20">
         <v>17</v>
@@ -15929,7 +15980,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="16" t="s">
@@ -15946,7 +15997,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="16" t="s">
@@ -15963,7 +16014,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="16" t="s">
@@ -15980,7 +16031,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="16" t="s">
@@ -15997,7 +16048,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="16" t="s">
@@ -16014,7 +16065,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="16" t="s">
@@ -16031,7 +16082,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="16" t="s">
@@ -16065,29 +16116,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="H1" t="s">
         <v>254</v>
       </c>
@@ -16098,7 +16149,7 @@
       <c r="K1" s="51"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -16139,7 +16190,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="19" t="s">
         <v>313</v>
       </c>
@@ -16180,7 +16231,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
@@ -16221,7 +16272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -16246,7 +16297,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>1</v>
       </c>
@@ -16284,7 +16335,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>2</v>
       </c>
@@ -16322,7 +16373,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>3</v>
       </c>
@@ -16360,7 +16411,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>4</v>
       </c>
@@ -16398,7 +16449,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="B11">
         <v>5</v>
       </c>
@@ -16436,7 +16487,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12">
         <v>6</v>
       </c>
@@ -16474,7 +16525,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13">
         <v>7</v>
       </c>
@@ -16512,7 +16563,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="B14">
         <v>8</v>
       </c>
@@ -16550,7 +16601,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="B15">
         <v>9</v>
       </c>
@@ -16588,7 +16639,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="B16">
         <v>10</v>
       </c>
@@ -16626,7 +16677,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>11</v>
       </c>
@@ -16664,7 +16715,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>12</v>
       </c>
@@ -16702,7 +16753,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>13</v>
       </c>
@@ -16740,7 +16791,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>14</v>
       </c>
@@ -16778,7 +16829,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>15</v>
       </c>
@@ -16816,7 +16867,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>16</v>
       </c>
@@ -16854,7 +16905,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>17</v>
       </c>
@@ -16892,7 +16943,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>18</v>
       </c>
@@ -16930,7 +16981,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>19</v>
       </c>
@@ -16968,7 +17019,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13">
       <c r="B26">
         <v>20</v>
       </c>
@@ -17006,7 +17057,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13">
       <c r="B27">
         <v>21</v>
       </c>
@@ -17044,7 +17095,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13">
       <c r="B28">
         <v>22</v>
       </c>
@@ -17082,7 +17133,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>23</v>
       </c>
@@ -17120,7 +17171,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>24</v>
       </c>
@@ -17158,7 +17209,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>25</v>
       </c>
@@ -17196,7 +17247,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>26</v>
       </c>
@@ -17234,7 +17285,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13">
       <c r="B33">
         <v>27</v>
       </c>
@@ -17272,7 +17323,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13">
       <c r="B34">
         <v>28</v>
       </c>
@@ -17310,7 +17361,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13">
       <c r="B35">
         <v>29</v>
       </c>
@@ -17348,7 +17399,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13">
       <c r="B36">
         <v>30</v>
       </c>
@@ -17386,7 +17437,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13">
       <c r="B37">
         <v>31</v>
       </c>
@@ -17424,7 +17475,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13">
       <c r="B38">
         <v>32</v>
       </c>
@@ -17462,7 +17513,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13">
       <c r="B39">
         <v>33</v>
       </c>
@@ -17500,7 +17551,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13">
       <c r="B40">
         <v>34</v>
       </c>
@@ -17538,7 +17589,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>35</v>
       </c>
@@ -17576,7 +17627,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13">
       <c r="B42">
         <v>36</v>
       </c>
@@ -17614,7 +17665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13">
       <c r="B43">
         <v>37</v>
       </c>
@@ -17652,7 +17703,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>38</v>
       </c>
@@ -17690,7 +17741,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13">
       <c r="B45">
         <v>39</v>
       </c>
@@ -17728,7 +17779,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13">
       <c r="B46">
         <v>40</v>
       </c>
@@ -17766,7 +17817,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13">
       <c r="B47">
         <v>41</v>
       </c>
@@ -17804,7 +17855,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13">
       <c r="B48">
         <v>42</v>
       </c>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD10B7-4D45-324A-B4CC-78D6F8B779D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1906863-CCD3-354F-AB86-0FEA4C87A0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="548">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -959,10 +959,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>时装3//时装4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>势力6</t>
@@ -3345,7 +3341,31 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装1</t>
+    <t>时装1//时装2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装7//时装8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装5//时装6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装9//时装10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装11//时装12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装13//时装14</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装15//时装16</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4144,10 +4164,10 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4201,10 +4221,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>7</v>
@@ -4234,25 +4254,25 @@
         <v>15</v>
       </c>
       <c r="Q3" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>321</v>
-      </c>
       <c r="T3" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4272,10 +4292,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>22</v>
@@ -4308,22 +4328,22 @@
         <v>153</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4337,16 +4357,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>33</v>
@@ -4388,13 +4408,13 @@
         <v>33</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4410,10 +4430,10 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>40</v>
@@ -4447,10 +4467,10 @@
         <v>42</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
@@ -4471,26 +4491,24 @@
         <v>2</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>475</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>542</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="L7" s="39"/>
       <c r="M7" s="37" t="s">
         <v>144</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>155</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>56</v>
@@ -4511,16 +4529,16 @@
         <v>凯莉画像</v>
       </c>
       <c r="S7" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T7" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U7" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V7" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W7" s="42" t="s">
         <v>140</v>
@@ -4541,25 +4559,25 @@
         <v>2</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>50</v>
+        <v>475</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>146</v>
@@ -4568,7 +4586,7 @@
         <v>155</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>52</v>
@@ -4581,16 +4599,16 @@
         <v>杰西卡画像</v>
       </c>
       <c r="S8" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T8" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T8" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U8" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W8" s="42" t="s">
         <v>141</v>
@@ -4611,22 +4629,22 @@
         <v>2</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L9" s="37" t="s">
         <v>50</v>
@@ -4638,7 +4656,7 @@
         <v>155</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P9" s="40" t="s">
         <v>161</v>
@@ -4651,16 +4669,16 @@
         <v>伊丽莎白画像</v>
       </c>
       <c r="S9" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T9" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T9" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U9" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W9" s="42" t="s">
         <v>140</v>
@@ -4681,25 +4699,25 @@
         <v>2</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>55</v>
+        <v>473</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>545</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>147</v>
@@ -4708,7 +4726,7 @@
         <v>155</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P10" s="40" t="s">
         <v>162</v>
@@ -4721,16 +4739,16 @@
         <v>伊芙琳画像</v>
       </c>
       <c r="S10" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T10" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U10" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W10" s="42" t="s">
         <v>141</v>
@@ -4750,22 +4768,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>50</v>
@@ -4777,7 +4795,7 @@
         <v>155</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>217</v>
@@ -4790,16 +4808,16 @@
         <v>娜塔莉画像</v>
       </c>
       <c r="S11" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T11" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T11" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U11" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W11" s="42" t="s">
         <v>141</v>
@@ -4819,26 +4837,24 @@
         <v>2</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
         <v>149</v>
       </c>
@@ -4846,7 +4862,7 @@
         <v>155</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P12" s="39" t="s">
         <v>218</v>
@@ -4859,16 +4875,16 @@
         <v>娜斯提娅画像</v>
       </c>
       <c r="S12" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T12" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T12" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U12" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W12" s="42" t="s">
         <v>141</v>
@@ -4888,22 +4904,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>519</v>
-      </c>
       <c r="K13" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L13" s="37" t="s">
         <v>196</v>
@@ -4915,7 +4931,7 @@
         <v>155</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>220</v>
@@ -4928,16 +4944,16 @@
         <v>伊莎贝拉画像</v>
       </c>
       <c r="S13" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T13" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T13" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U13" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>141</v>
@@ -4957,25 +4973,25 @@
         <v>2</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>267</v>
+        <v>473</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>149</v>
@@ -4984,7 +5000,7 @@
         <v>155</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>221</v>
@@ -4997,16 +5013,16 @@
         <v>海蒂画像</v>
       </c>
       <c r="S14" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T14" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T14" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U14" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W14" s="42" t="s">
         <v>141</v>
@@ -5026,25 +5042,25 @@
         <v>2</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>50</v>
+        <v>473</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>546</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>149</v>
@@ -5053,7 +5069,7 @@
         <v>155</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>222</v>
@@ -5066,16 +5082,16 @@
         <v>中岛希子画像</v>
       </c>
       <c r="S15" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T15" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T15" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U15" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W15" s="42" t="s">
         <v>141</v>
@@ -5095,22 +5111,22 @@
         <v>2</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L16" s="37" t="s">
         <v>50</v>
@@ -5122,7 +5138,7 @@
         <v>155</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P16" s="39" t="s">
         <v>226</v>
@@ -5135,16 +5151,16 @@
         <v>Rose画像</v>
       </c>
       <c r="S16" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T16" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T16" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U16" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>141</v>
@@ -5164,22 +5180,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>50</v>
@@ -5191,7 +5207,7 @@
         <v>155</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P17" s="39" t="s">
         <v>216</v>
@@ -5204,16 +5220,16 @@
         <v>莉莉画像</v>
       </c>
       <c r="S17" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T17" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T17" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U17" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W17" s="42" t="s">
         <v>141</v>
@@ -5233,26 +5249,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L18" s="39"/>
       <c r="M18" s="37" t="s">
         <v>149</v>
       </c>
@@ -5260,7 +5274,7 @@
         <v>155</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P18" s="39" t="s">
         <v>225</v>
@@ -5273,16 +5287,16 @@
         <v>章亦灵画像</v>
       </c>
       <c r="S18" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T18" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T18" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U18" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W18" s="42" t="s">
         <v>141</v>
@@ -5302,26 +5316,24 @@
         <v>2</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L19" s="37"/>
       <c r="M19" s="37" t="s">
         <v>149</v>
       </c>
@@ -5329,7 +5341,7 @@
         <v>155</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P19" s="39" t="s">
         <v>219</v>
@@ -5342,16 +5354,16 @@
         <v>莫妮卡画像</v>
       </c>
       <c r="S19" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T19" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T19" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U19" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W19" s="42" t="s">
         <v>141</v>
@@ -5371,26 +5383,24 @@
         <v>2</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
         <v>149</v>
       </c>
@@ -5398,7 +5408,7 @@
         <v>155</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P20" s="39" t="s">
         <v>223</v>
@@ -5411,16 +5421,16 @@
         <v>艾玛画像</v>
       </c>
       <c r="S20" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T20" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T20" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U20" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V20" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W20" s="42" t="s">
         <v>141</v>
@@ -5440,25 +5450,25 @@
         <v>2</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>149</v>
@@ -5467,7 +5477,7 @@
         <v>155</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>227</v>
@@ -5480,16 +5490,16 @@
         <v>艾米画像</v>
       </c>
       <c r="S21" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T21" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T21" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U21" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W21" s="42" t="s">
         <v>141</v>
@@ -5509,26 +5519,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L22" s="37"/>
       <c r="M22" s="37" t="s">
         <v>149</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>155</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>231</v>
@@ -5549,16 +5557,16 @@
         <v>邦妮画像</v>
       </c>
       <c r="S22" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T22" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T22" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U22" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V22" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W22" s="42" t="s">
         <v>141</v>
@@ -5578,26 +5586,24 @@
         <v>2</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L23" s="37"/>
       <c r="M23" s="37" t="s">
         <v>149</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>155</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>224</v>
@@ -5618,16 +5624,16 @@
         <v>艾琳娜画像</v>
       </c>
       <c r="S23" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T23" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T23" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U23" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V23" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W23" s="42" t="s">
         <v>141</v>
@@ -5647,22 +5653,22 @@
         <v>2</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L24" s="37" t="s">
         <v>50</v>
@@ -5674,7 +5680,7 @@
         <v>155</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>228</v>
@@ -5687,16 +5693,16 @@
         <v>菲欧娜画像</v>
       </c>
       <c r="S24" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T24" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T24" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U24" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V24" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W24" s="42" t="s">
         <v>141</v>
@@ -5716,22 +5722,22 @@
         <v>2</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L25" s="37" t="s">
         <v>50</v>
@@ -5743,7 +5749,7 @@
         <v>155</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>230</v>
@@ -5756,16 +5762,16 @@
         <v>苏珊画像</v>
       </c>
       <c r="S25" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T25" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T25" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U25" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V25" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W25" s="42" t="s">
         <v>141</v>
@@ -5785,25 +5791,25 @@
         <v>2</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>50</v>
+        <v>473</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>544</v>
       </c>
       <c r="M26" s="37" t="s">
         <v>149</v>
@@ -5812,7 +5818,7 @@
         <v>155</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>232</v>
@@ -5825,16 +5831,16 @@
         <v>琳恩画像</v>
       </c>
       <c r="S26" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T26" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T26" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U26" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V26" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W26" s="42" t="s">
         <v>141</v>
@@ -5845,34 +5851,34 @@
         <v>22061</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E27" s="37">
         <v>2</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>50</v>
+        <v>473</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>547</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>149</v>
@@ -5881,29 +5887,29 @@
         <v>155</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P27" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q27" s="39" t="s">
         <v>350</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>351</v>
       </c>
       <c r="R27" s="41" t="str">
         <f t="shared" si="0"/>
         <v>维多利亚画像</v>
       </c>
       <c r="S27" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T27" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T27" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U27" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V27" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W27" s="42" t="s">
         <v>141</v>
@@ -5923,22 +5929,22 @@
         <v>2</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L28" s="37" t="s">
         <v>50</v>
@@ -5950,7 +5956,7 @@
         <v>155</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P28" s="39" t="s">
         <v>229</v>
@@ -5963,16 +5969,16 @@
         <v>索菲亚画像</v>
       </c>
       <c r="S28" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T28" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T28" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U28" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W28" s="42" t="s">
         <v>141</v>
@@ -5992,26 +5998,24 @@
         <v>2</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>50</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="L29" s="37"/>
       <c r="M29" s="37" t="s">
         <v>149</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>155</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>163</v>
@@ -6032,16 +6036,16 @@
         <v>佐伊画像</v>
       </c>
       <c r="S29" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T29" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T29" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U29" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W29" s="42" t="s">
         <v>141</v>
@@ -6052,7 +6056,7 @@
         <v>23031</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>205</v>
@@ -6061,22 +6065,22 @@
         <v>2</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L30" s="37" t="s">
         <v>50</v>
@@ -6088,10 +6092,10 @@
         <v>155</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P30" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="39" t="s">
         <v>205</v>
@@ -6101,16 +6105,16 @@
         <v>爱丽丝画像</v>
       </c>
       <c r="S30" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T30" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T30" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U30" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V30" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W30" s="42" t="s">
         <v>141</v>
@@ -6148,7 +6152,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -6219,7 +6223,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>21</v>
@@ -6271,7 +6275,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>34</v>
@@ -6376,13 +6380,13 @@
         <v>54</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>55</v>
@@ -6426,13 +6430,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>50</v>
@@ -6476,13 +6480,13 @@
         <v>58</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>50</v>
@@ -6520,13 +6524,13 @@
         <v>60</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>55</v>
@@ -6564,19 +6568,19 @@
         <v>62</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>155</v>
@@ -6734,7 +6738,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>64</v>
@@ -6752,7 +6756,7 @@
         <v>68</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>69</v>
@@ -6874,13 +6878,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J7" s="8">
         <v>100</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6907,13 +6911,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J8" s="8">
         <v>100</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6940,13 +6944,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J9" s="8">
         <v>100</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6973,13 +6977,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J10" s="8">
         <v>100</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7006,13 +7010,13 @@
         <v>10</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J11" s="8">
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7039,13 +7043,13 @@
         <v>11</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J12" s="8">
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7072,13 +7076,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J13" s="8">
         <v>100</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7105,13 +7109,13 @@
         <v>13</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J14" s="8">
         <v>100</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7138,13 +7142,13 @@
         <v>14</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J15" s="8">
         <v>100</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7171,13 +7175,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J16" s="8">
         <v>100</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7203,13 +7207,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J17" s="8">
         <v>100</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7235,13 +7239,13 @@
         <v>17</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J18" s="8">
         <v>100</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7267,13 +7271,13 @@
         <v>18</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J19" s="8">
         <v>100</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7299,13 +7303,13 @@
         <v>19</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J20" s="8">
         <v>100</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7331,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>84</v>
@@ -7363,7 +7367,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>84</v>
@@ -7395,7 +7399,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>84</v>
@@ -7427,7 +7431,7 @@
         <v>23</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>84</v>
@@ -7459,7 +7463,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>84</v>
@@ -7491,7 +7495,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>84</v>
@@ -7523,13 +7527,13 @@
         <v>26</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J27" s="8">
         <v>100</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7555,13 +7559,13 @@
         <v>27</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J28" s="8">
         <v>100</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -7587,13 +7591,13 @@
         <v>28</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J29" s="8">
         <v>100</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7619,13 +7623,13 @@
         <v>29</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J30" s="8">
         <v>100</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -7651,7 +7655,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>84</v>
@@ -7683,7 +7687,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>84</v>
@@ -7715,7 +7719,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>84</v>
@@ -7747,7 +7751,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>84</v>
@@ -7779,7 +7783,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>84</v>
@@ -7811,7 +7815,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>84</v>
@@ -7843,13 +7847,13 @@
         <v>36</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J37" s="8">
         <v>100</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7875,13 +7879,13 @@
         <v>37</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J38" s="8">
         <v>100</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7907,13 +7911,13 @@
         <v>38</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J39" s="8">
         <v>100</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -7939,13 +7943,13 @@
         <v>39</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J40" s="8">
         <v>100</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7971,13 +7975,13 @@
         <v>40</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J41" s="8">
         <v>100</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -8003,13 +8007,13 @@
         <v>41</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J42" s="8">
         <v>100</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -8035,13 +8039,13 @@
         <v>42</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J43" s="8">
         <v>100</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -8067,13 +8071,13 @@
         <v>43</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J44" s="8">
         <v>100</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -8099,13 +8103,13 @@
         <v>44</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J45" s="8">
         <v>100</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -8131,7 +8135,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>84</v>
@@ -8163,7 +8167,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>84</v>
@@ -8195,7 +8199,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>84</v>
@@ -8227,7 +8231,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>84</v>
@@ -8259,7 +8263,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>84</v>
@@ -8291,7 +8295,7 @@
         <v>50</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>84</v>
@@ -8323,7 +8327,7 @@
         <v>51</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>84</v>
@@ -8355,7 +8359,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>84</v>
@@ -8387,7 +8391,7 @@
         <v>53</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>84</v>
@@ -8419,7 +8423,7 @@
         <v>54</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>84</v>
@@ -8451,7 +8455,7 @@
         <v>55</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>84</v>
@@ -8483,13 +8487,13 @@
         <v>56</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J57" s="8">
         <v>100</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -8515,13 +8519,13 @@
         <v>57</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J58" s="8">
         <v>100</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -8547,13 +8551,13 @@
         <v>58</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J59" s="8">
         <v>100</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -8579,13 +8583,13 @@
         <v>59</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J60" s="8">
         <v>100</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -8611,13 +8615,13 @@
         <v>60</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J61" s="8">
         <v>100</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -8643,13 +8647,13 @@
         <v>61</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J62" s="8">
         <v>100</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -8675,13 +8679,13 @@
         <v>62</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J63" s="8">
         <v>100</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -8707,13 +8711,13 @@
         <v>63</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J64" s="8">
         <v>100</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -8739,13 +8743,13 @@
         <v>64</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J65" s="8">
         <v>100</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -8771,13 +8775,13 @@
         <v>65</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J66" s="8">
         <v>100</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -8803,13 +8807,13 @@
         <v>66</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J67" s="8">
         <v>100</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -8835,13 +8839,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J68" s="8">
         <v>100</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -8867,13 +8871,13 @@
         <v>68</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J69" s="8">
         <v>100</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -8899,13 +8903,13 @@
         <v>69</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J70" s="8">
         <v>100</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -8931,13 +8935,13 @@
         <v>70</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J71" s="8">
         <v>100</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -8963,13 +8967,13 @@
         <v>71</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J72" s="8">
         <v>100</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -8995,13 +8999,13 @@
         <v>72</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J73" s="8">
         <v>100</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -9027,13 +9031,13 @@
         <v>73</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J74" s="8">
         <v>100</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -9059,13 +9063,13 @@
         <v>74</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J75" s="8">
         <v>100</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -9091,7 +9095,7 @@
         <v>75</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>84</v>
@@ -9123,7 +9127,7 @@
         <v>76</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>84</v>
@@ -9155,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>84</v>
@@ -9187,7 +9191,7 @@
         <v>78</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>84</v>
@@ -9219,7 +9223,7 @@
         <v>79</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>84</v>
@@ -9251,7 +9255,7 @@
         <v>80</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>84</v>
@@ -9283,7 +9287,7 @@
         <v>81</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>84</v>
@@ -9315,7 +9319,7 @@
         <v>82</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>84</v>
@@ -9347,7 +9351,7 @@
         <v>83</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>84</v>
@@ -9379,7 +9383,7 @@
         <v>84</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>84</v>
@@ -9411,7 +9415,7 @@
         <v>85</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>84</v>
@@ -9443,13 +9447,13 @@
         <v>86</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J87" s="8">
         <v>100</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -9475,13 +9479,13 @@
         <v>87</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J88" s="8">
         <v>100</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -9507,13 +9511,13 @@
         <v>88</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J89" s="8">
         <v>100</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -9539,13 +9543,13 @@
         <v>89</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J90" s="8">
         <v>100</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -9571,13 +9575,13 @@
         <v>90</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J91" s="8">
         <v>100</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -9603,13 +9607,13 @@
         <v>91</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J92" s="8">
         <v>100</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -9635,13 +9639,13 @@
         <v>92</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J93" s="8">
         <v>100</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -9667,13 +9671,13 @@
         <v>93</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J94" s="8">
         <v>100</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -9699,13 +9703,13 @@
         <v>94</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J95" s="8">
         <v>100</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -9731,13 +9735,13 @@
         <v>95</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J96" s="8">
         <v>100</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -9763,13 +9767,13 @@
         <v>96</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J97" s="8">
         <v>100</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -9795,13 +9799,13 @@
         <v>97</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J98" s="8">
         <v>100</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -9827,13 +9831,13 @@
         <v>98</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J99" s="8">
         <v>100</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -9859,13 +9863,13 @@
         <v>99</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J100" s="8">
         <v>100</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="2:11">
@@ -9891,13 +9895,13 @@
         <v>100</v>
       </c>
       <c r="I101" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J101" s="8">
         <v>100</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -9923,13 +9927,13 @@
         <v>101</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J102" s="8">
         <v>100</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -9955,13 +9959,13 @@
         <v>102</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J103" s="8">
         <v>100</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -9987,13 +9991,13 @@
         <v>103</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J104" s="8">
         <v>100</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -10019,13 +10023,13 @@
         <v>104</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J105" s="8">
         <v>100</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -10051,13 +10055,13 @@
         <v>105</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J106" s="8">
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -10083,13 +10087,13 @@
         <v>106</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J107" s="8">
         <v>100</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -10115,13 +10119,13 @@
         <v>107</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J108" s="8">
         <v>100</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -10147,13 +10151,13 @@
         <v>108</v>
       </c>
       <c r="I109" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J109" s="8">
         <v>100</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -10179,13 +10183,13 @@
         <v>109</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J110" s="8">
         <v>100</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="2:11">
@@ -10211,13 +10215,13 @@
         <v>110</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J111" s="8">
         <v>100</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -10243,13 +10247,13 @@
         <v>111</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J112" s="8">
         <v>100</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -10275,13 +10279,13 @@
         <v>112</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J113" s="8">
         <v>100</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="2:11">
@@ -10307,13 +10311,13 @@
         <v>113</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J114" s="8">
         <v>100</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="2:11">
@@ -10339,13 +10343,13 @@
         <v>114</v>
       </c>
       <c r="I115" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J115" s="8">
         <v>100</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="2:11">
@@ -10371,13 +10375,13 @@
         <v>115</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J116" s="8">
         <v>100</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="2:11">
@@ -10403,13 +10407,13 @@
         <v>116</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J117" s="8">
         <v>100</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="2:11">
@@ -10435,13 +10439,13 @@
         <v>117</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J118" s="8">
         <v>100</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="2:11">
@@ -10467,13 +10471,13 @@
         <v>118</v>
       </c>
       <c r="I119" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J119" s="8">
         <v>100</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="2:11">
@@ -10499,13 +10503,13 @@
         <v>119</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J120" s="8">
         <v>100</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -10531,13 +10535,13 @@
         <v>120</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J121" s="8">
         <v>100</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -10563,13 +10567,13 @@
         <v>121</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J122" s="8">
         <v>100</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -10595,13 +10599,13 @@
         <v>122</v>
       </c>
       <c r="I123" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J123" s="8">
         <v>100</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -10627,13 +10631,13 @@
         <v>123</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J124" s="8">
         <v>100</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -10659,13 +10663,13 @@
         <v>124</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J125" s="8">
         <v>100</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -10691,7 +10695,7 @@
         <v>125</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>84</v>
@@ -10723,7 +10727,7 @@
         <v>126</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>84</v>
@@ -10755,7 +10759,7 @@
         <v>127</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>84</v>
@@ -10787,7 +10791,7 @@
         <v>128</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>84</v>
@@ -10819,7 +10823,7 @@
         <v>129</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>84</v>
@@ -10851,7 +10855,7 @@
         <v>130</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>84</v>
@@ -10883,7 +10887,7 @@
         <v>131</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>84</v>
@@ -10915,7 +10919,7 @@
         <v>132</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>84</v>
@@ -10947,7 +10951,7 @@
         <v>133</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>84</v>
@@ -10979,7 +10983,7 @@
         <v>134</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>84</v>
@@ -11011,7 +11015,7 @@
         <v>135</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>84</v>
@@ -11043,7 +11047,7 @@
         <v>136</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>84</v>
@@ -11075,7 +11079,7 @@
         <v>137</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>84</v>
@@ -11107,7 +11111,7 @@
         <v>138</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>84</v>
@@ -11139,7 +11143,7 @@
         <v>139</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>84</v>
@@ -11171,7 +11175,7 @@
         <v>140</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>84</v>
@@ -11203,7 +11207,7 @@
         <v>141</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>84</v>
@@ -11235,7 +11239,7 @@
         <v>142</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>84</v>
@@ -11267,7 +11271,7 @@
         <v>143</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>84</v>
@@ -11299,7 +11303,7 @@
         <v>144</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>84</v>
@@ -11331,7 +11335,7 @@
         <v>145</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>84</v>
@@ -11363,13 +11367,13 @@
         <v>146</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J147" s="8">
         <v>100</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -11395,13 +11399,13 @@
         <v>147</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J148" s="8">
         <v>100</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="2:11">
@@ -11427,13 +11431,13 @@
         <v>148</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J149" s="8">
         <v>100</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="2:11">
@@ -11459,13 +11463,13 @@
         <v>149</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J150" s="8">
         <v>100</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="2:11">
@@ -11491,13 +11495,13 @@
         <v>150</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J151" s="8">
         <v>100</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="2:11">
@@ -11523,13 +11527,13 @@
         <v>151</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J152" s="8">
         <v>100</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="2:11">
@@ -11555,13 +11559,13 @@
         <v>152</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J153" s="8">
         <v>100</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="2:11">
@@ -11587,13 +11591,13 @@
         <v>153</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J154" s="8">
         <v>100</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="2:11">
@@ -11619,13 +11623,13 @@
         <v>154</v>
       </c>
       <c r="I155" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J155" s="8">
         <v>100</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="2:11">
@@ -11651,13 +11655,13 @@
         <v>155</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J156" s="8">
         <v>100</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -11683,13 +11687,13 @@
         <v>156</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J157" s="8">
         <v>100</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -11715,13 +11719,13 @@
         <v>157</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J158" s="8">
         <v>100</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -11747,13 +11751,13 @@
         <v>158</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J159" s="8">
         <v>100</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -11779,13 +11783,13 @@
         <v>159</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J160" s="8">
         <v>100</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -11811,13 +11815,13 @@
         <v>160</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J161" s="8">
         <v>100</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -11843,13 +11847,13 @@
         <v>161</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J162" s="8">
         <v>100</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="2:11">
@@ -11875,13 +11879,13 @@
         <v>162</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J163" s="8">
         <v>100</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -11907,13 +11911,13 @@
         <v>163</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J164" s="8">
         <v>100</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="2:11">
@@ -11939,13 +11943,13 @@
         <v>164</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J165" s="8">
         <v>100</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -11971,7 +11975,7 @@
         <v>165</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J166" s="8" t="s">
         <v>84</v>
@@ -12003,7 +12007,7 @@
         <v>166</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J167" s="8" t="s">
         <v>84</v>
@@ -12035,7 +12039,7 @@
         <v>167</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J168" s="8" t="s">
         <v>84</v>
@@ -12067,7 +12071,7 @@
         <v>168</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J169" s="8" t="s">
         <v>84</v>
@@ -12099,7 +12103,7 @@
         <v>169</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J170" s="8" t="s">
         <v>84</v>
@@ -12131,7 +12135,7 @@
         <v>170</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J171" s="8" t="s">
         <v>84</v>
@@ -12163,7 +12167,7 @@
         <v>171</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>84</v>
@@ -12195,7 +12199,7 @@
         <v>172</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J173" s="8" t="s">
         <v>84</v>
@@ -12227,7 +12231,7 @@
         <v>173</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J174" s="8" t="s">
         <v>84</v>
@@ -12259,7 +12263,7 @@
         <v>174</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J175" s="8" t="s">
         <v>84</v>
@@ -12291,7 +12295,7 @@
         <v>175</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>84</v>
@@ -12323,7 +12327,7 @@
         <v>176</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J177" s="8" t="s">
         <v>84</v>
@@ -12355,7 +12359,7 @@
         <v>177</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>84</v>
@@ -12387,7 +12391,7 @@
         <v>178</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J179" s="8" t="s">
         <v>84</v>
@@ -12419,7 +12423,7 @@
         <v>179</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>84</v>
@@ -12451,7 +12455,7 @@
         <v>180</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>84</v>
@@ -12483,7 +12487,7 @@
         <v>181</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>84</v>
@@ -12515,7 +12519,7 @@
         <v>182</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>84</v>
@@ -12547,7 +12551,7 @@
         <v>183</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J184" s="8" t="s">
         <v>84</v>
@@ -12579,7 +12583,7 @@
         <v>184</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>84</v>
@@ -12611,7 +12615,7 @@
         <v>185</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>84</v>
@@ -12643,7 +12647,7 @@
         <v>186</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>84</v>
@@ -12675,7 +12679,7 @@
         <v>187</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>84</v>
@@ -12707,7 +12711,7 @@
         <v>188</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>84</v>
@@ -12739,7 +12743,7 @@
         <v>189</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>84</v>
@@ -12771,7 +12775,7 @@
         <v>190</v>
       </c>
       <c r="I191" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>84</v>
@@ -12803,7 +12807,7 @@
         <v>191</v>
       </c>
       <c r="I192" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>84</v>
@@ -12835,7 +12839,7 @@
         <v>192</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J193" s="8" t="s">
         <v>84</v>
@@ -12867,7 +12871,7 @@
         <v>193</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J194" s="8" t="s">
         <v>84</v>
@@ -12899,7 +12903,7 @@
         <v>194</v>
       </c>
       <c r="I195" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>84</v>
@@ -12931,7 +12935,7 @@
         <v>195</v>
       </c>
       <c r="I196" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>84</v>
@@ -12963,7 +12967,7 @@
         <v>196</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>84</v>
@@ -12995,7 +12999,7 @@
         <v>197</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>84</v>
@@ -13027,7 +13031,7 @@
         <v>198</v>
       </c>
       <c r="I199" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>84</v>
@@ -13059,7 +13063,7 @@
         <v>199</v>
       </c>
       <c r="I200" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>84</v>
@@ -13091,7 +13095,7 @@
         <v>200</v>
       </c>
       <c r="I201" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>84</v>
@@ -13123,7 +13127,7 @@
         <v>201</v>
       </c>
       <c r="I202" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>84</v>
@@ -13155,7 +13159,7 @@
         <v>202</v>
       </c>
       <c r="I203" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>84</v>
@@ -13187,7 +13191,7 @@
         <v>203</v>
       </c>
       <c r="I204" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>84</v>
@@ -13219,7 +13223,7 @@
         <v>204</v>
       </c>
       <c r="I205" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>84</v>
@@ -13251,7 +13255,7 @@
         <v>205</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>84</v>
@@ -13283,13 +13287,13 @@
         <v>206</v>
       </c>
       <c r="I207" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J207" s="8">
         <v>100</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="2:11">
@@ -13315,13 +13319,13 @@
         <v>207</v>
       </c>
       <c r="I208" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J208" s="8">
         <v>100</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="2:11">
@@ -13347,13 +13351,13 @@
         <v>208</v>
       </c>
       <c r="I209" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J209" s="8">
         <v>100</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="2:11">
@@ -13379,13 +13383,13 @@
         <v>209</v>
       </c>
       <c r="I210" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J210" s="8">
         <v>100</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="2:11">
@@ -13411,13 +13415,13 @@
         <v>210</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J211" s="8">
         <v>100</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="2:11">
@@ -13443,13 +13447,13 @@
         <v>211</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J212" s="8">
         <v>100</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="2:11">
@@ -13475,13 +13479,13 @@
         <v>212</v>
       </c>
       <c r="I213" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J213" s="8">
         <v>100</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214" spans="2:11">
@@ -13507,13 +13511,13 @@
         <v>213</v>
       </c>
       <c r="I214" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J214" s="8">
         <v>100</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="2:11">
@@ -13539,13 +13543,13 @@
         <v>214</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J215" s="8">
         <v>100</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" spans="2:11">
@@ -13571,13 +13575,13 @@
         <v>215</v>
       </c>
       <c r="I216" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J216" s="8">
         <v>100</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="2:11">
@@ -13603,13 +13607,13 @@
         <v>216</v>
       </c>
       <c r="I217" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J217" s="8">
         <v>100</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="2:11">
@@ -13635,13 +13639,13 @@
         <v>217</v>
       </c>
       <c r="I218" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J218" s="8">
         <v>100</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="2:11">
@@ -13667,13 +13671,13 @@
         <v>218</v>
       </c>
       <c r="I219" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J219" s="8">
         <v>100</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="2:11">
@@ -13699,13 +13703,13 @@
         <v>219</v>
       </c>
       <c r="I220" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J220" s="8">
         <v>100</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="2:11">
@@ -13731,13 +13735,13 @@
         <v>220</v>
       </c>
       <c r="I221" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J221" s="8">
         <v>100</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="2:11">
@@ -13763,13 +13767,13 @@
         <v>221</v>
       </c>
       <c r="I222" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J222" s="8">
         <v>100</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="2:11">
@@ -13795,13 +13799,13 @@
         <v>222</v>
       </c>
       <c r="I223" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J223" s="8">
         <v>100</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224" spans="2:11">
@@ -13827,13 +13831,13 @@
         <v>223</v>
       </c>
       <c r="I224" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J224" s="8">
         <v>100</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="2:11">
@@ -13859,13 +13863,13 @@
         <v>224</v>
       </c>
       <c r="I225" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J225" s="8">
         <v>100</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="2:11">
@@ -13891,13 +13895,13 @@
         <v>225</v>
       </c>
       <c r="I226" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J226" s="8">
         <v>100</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="2:11">
@@ -13923,13 +13927,13 @@
         <v>226</v>
       </c>
       <c r="I227" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J227" s="8">
         <v>100</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="2:11">
@@ -13955,13 +13959,13 @@
         <v>227</v>
       </c>
       <c r="I228" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J228" s="8">
         <v>100</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="2:11">
@@ -13987,13 +13991,13 @@
         <v>228</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J229" s="8">
         <v>100</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="2:11">
@@ -14019,13 +14023,13 @@
         <v>229</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J230" s="8">
         <v>100</v>
       </c>
       <c r="K230" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="2:11">
@@ -14051,13 +14055,13 @@
         <v>230</v>
       </c>
       <c r="I231" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J231" s="8">
         <v>100</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="2:11">
@@ -14083,13 +14087,13 @@
         <v>231</v>
       </c>
       <c r="I232" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J232" s="8">
         <v>100</v>
       </c>
       <c r="K232" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="2:11">
@@ -14115,13 +14119,13 @@
         <v>232</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J233" s="8">
         <v>100</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="2:11">
@@ -14147,13 +14151,13 @@
         <v>233</v>
       </c>
       <c r="I234" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J234" s="8">
         <v>100</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="235" spans="2:11">
@@ -14179,13 +14183,13 @@
         <v>234</v>
       </c>
       <c r="I235" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J235" s="8">
         <v>100</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="236" spans="2:11">
@@ -14211,13 +14215,13 @@
         <v>235</v>
       </c>
       <c r="I236" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J236" s="8">
         <v>100</v>
       </c>
       <c r="K236" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="237" spans="2:11">
@@ -14243,13 +14247,13 @@
         <v>236</v>
       </c>
       <c r="I237" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J237" s="8">
         <v>100</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="238" spans="2:11">
@@ -14275,13 +14279,13 @@
         <v>237</v>
       </c>
       <c r="I238" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J238" s="8">
         <v>100</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="239" spans="2:11">
@@ -14307,13 +14311,13 @@
         <v>238</v>
       </c>
       <c r="I239" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J239" s="8">
         <v>100</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="240" spans="2:11">
@@ -14339,13 +14343,13 @@
         <v>239</v>
       </c>
       <c r="I240" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J240" s="8">
         <v>100</v>
       </c>
       <c r="K240" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="2:11">
@@ -14371,13 +14375,13 @@
         <v>240</v>
       </c>
       <c r="I241" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J241" s="8">
         <v>100</v>
       </c>
       <c r="K241" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="2:11">
@@ -14403,13 +14407,13 @@
         <v>241</v>
       </c>
       <c r="I242" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J242" s="8">
         <v>100</v>
       </c>
       <c r="K242" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="2:11">
@@ -14435,13 +14439,13 @@
         <v>242</v>
       </c>
       <c r="I243" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J243" s="8">
         <v>100</v>
       </c>
       <c r="K243" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="2:11">
@@ -14467,13 +14471,13 @@
         <v>243</v>
       </c>
       <c r="I244" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J244" s="8">
         <v>100</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="2:11">
@@ -14499,13 +14503,13 @@
         <v>244</v>
       </c>
       <c r="I245" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J245" s="8">
         <v>100</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="2:11">
@@ -14531,13 +14535,13 @@
         <v>245</v>
       </c>
       <c r="I246" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J246" s="8">
         <v>100</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="2:11">
@@ -14563,13 +14567,13 @@
         <v>246</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J247" s="8">
         <v>100</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" spans="2:11">
@@ -14595,13 +14599,13 @@
         <v>247</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J248" s="8">
         <v>100</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="2:11">
@@ -14627,13 +14631,13 @@
         <v>248</v>
       </c>
       <c r="I249" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J249" s="8">
         <v>100</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="250" spans="2:11">
@@ -14659,13 +14663,13 @@
         <v>249</v>
       </c>
       <c r="I250" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J250" s="8">
         <v>100</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="2:11">
@@ -14691,13 +14695,13 @@
         <v>250</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J251" s="8">
         <v>100</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="252" spans="2:11">
@@ -14723,13 +14727,13 @@
         <v>251</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J252" s="8">
         <v>100</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="253" spans="2:11">
@@ -14755,13 +14759,13 @@
         <v>252</v>
       </c>
       <c r="I253" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J253" s="8">
         <v>100</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="254" spans="2:11">
@@ -14787,13 +14791,13 @@
         <v>253</v>
       </c>
       <c r="I254" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J254" s="8">
         <v>100</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="2:11">
@@ -14819,13 +14823,13 @@
         <v>254</v>
       </c>
       <c r="I255" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J255" s="8">
         <v>100</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="2:11">
@@ -14851,13 +14855,13 @@
         <v>255</v>
       </c>
       <c r="I256" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J256" s="8">
         <v>100</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="258" spans="3:3">
@@ -15016,7 +15020,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>178</v>
@@ -15100,10 +15104,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -15140,7 +15144,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>118</v>
@@ -15184,7 +15188,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>120</v>
@@ -15228,7 +15232,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>122</v>
@@ -15272,7 +15276,7 @@
         <v>124</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>124</v>
@@ -15316,7 +15320,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>126</v>
@@ -15360,7 +15364,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>128</v>
@@ -15404,7 +15408,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>130</v>
@@ -15448,7 +15452,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>132</v>
@@ -15492,7 +15496,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>134</v>
@@ -15607,7 +15611,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -16166,13 +16170,13 @@
         <v>245</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>255</v>
@@ -16187,12 +16191,12 @@
         <v>264</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
@@ -16207,10 +16211,10 @@
         <v>246</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>250</v>
@@ -16228,7 +16232,7 @@
         <v>265</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16242,16 +16246,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>247</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>82</v>
@@ -16294,7 +16298,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16302,13 +16306,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F7" s="20" t="b">
         <v>0</v>
@@ -16317,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I7" s="20">
         <v>0.03</v>
@@ -16332,7 +16336,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16340,13 +16344,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F8" s="20" t="b">
         <v>0</v>
@@ -16355,7 +16359,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I8" s="20">
         <v>0.03</v>
@@ -16370,7 +16374,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16378,13 +16382,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F9" s="20" t="b">
         <v>0</v>
@@ -16393,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I9" s="20">
         <v>0.03</v>
@@ -16408,7 +16412,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16416,13 +16420,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F10" s="20" t="b">
         <v>0</v>
@@ -16431,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I10" s="20">
         <v>0.03</v>
@@ -16446,7 +16450,7 @@
         <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16454,13 +16458,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F11" s="20" t="b">
         <v>0</v>
@@ -16469,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I11" s="20">
         <v>0.03</v>
@@ -16484,7 +16488,7 @@
         <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16492,13 +16496,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" t="s">
         <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F12" s="20" t="b">
         <v>0</v>
@@ -16507,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I12" s="20">
         <v>0.03</v>
@@ -16530,13 +16534,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>1</v>
@@ -16545,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I13" s="20">
         <v>0.15</v>
@@ -16560,7 +16564,7 @@
         <v>200</v>
       </c>
       <c r="M13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16568,13 +16572,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F14" s="20" t="b">
         <v>1</v>
@@ -16583,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I14" s="20">
         <v>0.15</v>
@@ -16598,7 +16602,7 @@
         <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16606,13 +16610,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F15" s="20" t="b">
         <v>1</v>
@@ -16621,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I15" s="20">
         <v>0.15</v>
@@ -16636,7 +16640,7 @@
         <v>200</v>
       </c>
       <c r="M15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16644,13 +16648,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F16" s="20" t="b">
         <v>1</v>
@@ -16659,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I16" s="20">
         <v>0.15</v>
@@ -16674,7 +16678,7 @@
         <v>200</v>
       </c>
       <c r="M16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -16682,13 +16686,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F17" s="20" t="b">
         <v>1</v>
@@ -16697,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I17" s="20">
         <v>0.15</v>
@@ -16712,7 +16716,7 @@
         <v>200</v>
       </c>
       <c r="M17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -16720,13 +16724,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D18" t="s">
         <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F18" s="20" t="b">
         <v>1</v>
@@ -16735,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I18" s="20">
         <v>0.15</v>
@@ -16758,13 +16762,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="20" t="b">
         <v>0</v>
@@ -16788,7 +16792,7 @@
         <v>200</v>
       </c>
       <c r="M19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -16796,13 +16800,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F20" s="20" t="b">
         <v>0</v>
@@ -16826,7 +16830,7 @@
         <v>200</v>
       </c>
       <c r="M20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -16834,13 +16838,13 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F21" s="20" t="b">
         <v>0</v>
@@ -16849,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I21" s="20">
         <v>0.03</v>
@@ -16864,7 +16868,7 @@
         <v>200</v>
       </c>
       <c r="M21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -16872,13 +16876,13 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F22" s="20" t="b">
         <v>0</v>
@@ -16887,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I22" s="20">
         <v>0.03</v>
@@ -16902,7 +16906,7 @@
         <v>200</v>
       </c>
       <c r="M22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -16910,13 +16914,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F23" s="20" t="b">
         <v>0</v>
@@ -16925,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I23" s="20">
         <v>0.03</v>
@@ -16940,7 +16944,7 @@
         <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -16948,13 +16952,13 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
         <v>248</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F24" s="20" t="b">
         <v>0</v>
@@ -16963,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I24" s="20">
         <v>0.03</v>
@@ -16986,13 +16990,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F25" s="20" t="b">
         <v>1</v>
@@ -17016,7 +17020,7 @@
         <v>200</v>
       </c>
       <c r="M25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -17024,13 +17028,13 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F26" s="20" t="b">
         <v>1</v>
@@ -17054,7 +17058,7 @@
         <v>200</v>
       </c>
       <c r="M26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -17062,13 +17066,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="20" t="b">
         <v>1</v>
@@ -17092,7 +17096,7 @@
         <v>200</v>
       </c>
       <c r="M27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -17100,13 +17104,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F28" s="20" t="b">
         <v>1</v>
@@ -17130,7 +17134,7 @@
         <v>200</v>
       </c>
       <c r="M28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -17138,13 +17142,13 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F29" s="20" t="b">
         <v>1</v>
@@ -17168,7 +17172,7 @@
         <v>200</v>
       </c>
       <c r="M29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -17176,13 +17180,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D30" t="s">
         <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F30" s="20" t="b">
         <v>1</v>
@@ -17214,13 +17218,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F31" s="20" t="b">
         <v>0</v>
@@ -17229,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I31" s="20">
         <v>0.03</v>
@@ -17244,7 +17248,7 @@
         <v>200</v>
       </c>
       <c r="M31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -17252,13 +17256,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F32" s="20" t="b">
         <v>0</v>
@@ -17267,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I32" s="20">
         <v>0.03</v>
@@ -17282,7 +17286,7 @@
         <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -17290,13 +17294,13 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F33" s="20" t="b">
         <v>0</v>
@@ -17305,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I33" s="20">
         <v>0.03</v>
@@ -17320,7 +17324,7 @@
         <v>200</v>
       </c>
       <c r="M33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -17328,13 +17332,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F34" s="20" t="b">
         <v>0</v>
@@ -17343,7 +17347,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I34" s="20">
         <v>0.03</v>
@@ -17358,7 +17362,7 @@
         <v>200</v>
       </c>
       <c r="M34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -17366,13 +17370,13 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F35" s="20" t="b">
         <v>0</v>
@@ -17381,7 +17385,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I35" s="20">
         <v>0.03</v>
@@ -17396,7 +17400,7 @@
         <v>200</v>
       </c>
       <c r="M35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -17404,13 +17408,13 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D36" t="s">
         <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F36" s="20" t="b">
         <v>0</v>
@@ -17419,7 +17423,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I36" s="20">
         <v>0.03</v>
@@ -17442,13 +17446,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F37" s="20" t="b">
         <v>1</v>
@@ -17457,7 +17461,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I37" s="20">
         <v>0.15</v>
@@ -17472,7 +17476,7 @@
         <v>200</v>
       </c>
       <c r="M37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -17480,13 +17484,13 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F38" s="20" t="b">
         <v>1</v>
@@ -17495,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I38" s="20">
         <v>0.15</v>
@@ -17510,7 +17514,7 @@
         <v>200</v>
       </c>
       <c r="M38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -17518,13 +17522,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F39" s="20" t="b">
         <v>1</v>
@@ -17533,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I39" s="20">
         <v>0.15</v>
@@ -17548,7 +17552,7 @@
         <v>200</v>
       </c>
       <c r="M39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -17556,13 +17560,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F40" s="20" t="b">
         <v>1</v>
@@ -17571,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I40" s="20">
         <v>0.15</v>
@@ -17586,7 +17590,7 @@
         <v>200</v>
       </c>
       <c r="M40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -17594,13 +17598,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F41" s="20" t="b">
         <v>1</v>
@@ -17609,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I41" s="20">
         <v>0.15</v>
@@ -17624,7 +17628,7 @@
         <v>200</v>
       </c>
       <c r="M41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -17632,13 +17636,13 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D42" t="s">
         <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F42" s="20" t="b">
         <v>1</v>
@@ -17647,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I42" s="20">
         <v>0.15</v>
@@ -17670,13 +17674,13 @@
         <v>37</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F43" s="20" t="b">
         <v>0</v>
@@ -17685,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I43" s="20">
         <v>0.03</v>
@@ -17700,7 +17704,7 @@
         <v>200</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -17708,13 +17712,13 @@
         <v>38</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F44" s="20" t="b">
         <v>0</v>
@@ -17723,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I44" s="20">
         <v>0.03</v>
@@ -17738,7 +17742,7 @@
         <v>200</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -17746,13 +17750,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F45" s="20" t="b">
         <v>0</v>
@@ -17761,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I45" s="20">
         <v>0.03</v>
@@ -17776,7 +17780,7 @@
         <v>200</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -17784,13 +17788,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F46" s="20" t="b">
         <v>1</v>
@@ -17799,7 +17803,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I46" s="20">
         <v>0.15</v>
@@ -17814,7 +17818,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -17822,13 +17826,13 @@
         <v>41</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F47" s="20" t="b">
         <v>1</v>
@@ -17852,7 +17856,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -17860,13 +17864,13 @@
         <v>42</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F48" s="20" t="b">
         <v>1</v>
@@ -17875,7 +17879,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I48" s="20">
         <v>0.15</v>
@@ -17890,7 +17894,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1906863-CCD3-354F-AB86-0FEA4C87A0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87217A0-0085-3948-8053-C086C093C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="553">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3366,6 +3366,26 @@
   </si>
   <si>
     <t>时装15//时装16</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装17</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装18</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装19</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装20</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装21</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4167,7 +4187,7 @@
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4189,8 +4209,8 @@
     <col min="18" max="18" width="15" style="28" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="17.33203125" style="28" customWidth="1"/>
     <col min="21" max="21" width="20.6640625" style="28" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="28" customWidth="1"/>
-    <col min="23" max="23" width="11.5" style="28" customWidth="1"/>
+    <col min="22" max="22" width="49.33203125" style="28" customWidth="1"/>
+    <col min="23" max="23" width="77.6640625" style="28" customWidth="1"/>
     <col min="24" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -4646,8 +4666,8 @@
       <c r="K9" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L9" s="37" t="s">
-        <v>50</v>
+      <c r="L9" s="39" t="s">
+        <v>552</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>148</v>
@@ -5128,8 +5148,8 @@
       <c r="K16" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L16" s="37" t="s">
-        <v>50</v>
+      <c r="L16" s="39" t="s">
+        <v>550</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>149</v>
@@ -5197,8 +5217,8 @@
       <c r="K17" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L17" s="37" t="s">
-        <v>50</v>
+      <c r="L17" s="39" t="s">
+        <v>549</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>149</v>
@@ -5946,8 +5966,8 @@
       <c r="K28" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L28" s="37" t="s">
-        <v>50</v>
+      <c r="L28" s="39" t="s">
+        <v>551</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>149</v>
@@ -6082,8 +6102,8 @@
       <c r="K30" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L30" s="37" t="s">
-        <v>50</v>
+      <c r="L30" s="39" t="s">
+        <v>548</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>149</v>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87217A0-0085-3948-8053-C086C093C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58174950-22A5-524E-80A1-CC2814C79A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="555">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -959,6 +959,10 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装3//时装4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>势力6</t>
@@ -3386,6 +3390,10 @@
   </si>
   <si>
     <t>时装21</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装22</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4184,10 +4192,10 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4241,10 +4249,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>7</v>
@@ -4274,25 +4282,25 @@
         <v>15</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4312,10 +4320,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>22</v>
@@ -4348,22 +4356,22 @@
         <v>153</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4377,16 +4385,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>33</v>
@@ -4428,13 +4436,13 @@
         <v>33</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4450,10 +4458,10 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>40</v>
@@ -4487,10 +4495,10 @@
         <v>42</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
@@ -4511,22 +4519,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="37" t="s">
@@ -4536,7 +4544,7 @@
         <v>155</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>56</v>
@@ -4549,16 +4557,16 @@
         <v>凯莉画像</v>
       </c>
       <c r="S7" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T7" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U7" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V7" s="45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="W7" s="42" t="s">
         <v>140</v>
@@ -4579,25 +4587,25 @@
         <v>2</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>146</v>
@@ -4606,7 +4614,7 @@
         <v>155</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>52</v>
@@ -4619,16 +4627,16 @@
         <v>杰西卡画像</v>
       </c>
       <c r="S8" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T8" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U8" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W8" s="42" t="s">
         <v>141</v>
@@ -4649,25 +4657,25 @@
         <v>2</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>148</v>
@@ -4676,7 +4684,7 @@
         <v>155</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P9" s="40" t="s">
         <v>161</v>
@@ -4689,16 +4697,16 @@
         <v>伊丽莎白画像</v>
       </c>
       <c r="S9" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T9" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U9" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W9" s="42" t="s">
         <v>140</v>
@@ -4719,25 +4727,25 @@
         <v>2</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>147</v>
@@ -4746,7 +4754,7 @@
         <v>155</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P10" s="40" t="s">
         <v>162</v>
@@ -4759,16 +4767,16 @@
         <v>伊芙琳画像</v>
       </c>
       <c r="S10" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U10" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W10" s="42" t="s">
         <v>141</v>
@@ -4788,22 +4796,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>50</v>
@@ -4815,7 +4823,7 @@
         <v>155</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>217</v>
@@ -4828,16 +4836,16 @@
         <v>娜塔莉画像</v>
       </c>
       <c r="S11" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T11" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U11" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="W11" s="42" t="s">
         <v>141</v>
@@ -4857,22 +4865,22 @@
         <v>2</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
@@ -4882,7 +4890,7 @@
         <v>155</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P12" s="39" t="s">
         <v>218</v>
@@ -4895,16 +4903,16 @@
         <v>娜斯提娅画像</v>
       </c>
       <c r="S12" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T12" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U12" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W12" s="42" t="s">
         <v>141</v>
@@ -4924,22 +4932,22 @@
         <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L13" s="37" t="s">
         <v>196</v>
@@ -4951,7 +4959,7 @@
         <v>155</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>220</v>
@@ -4964,16 +4972,16 @@
         <v>伊莎贝拉画像</v>
       </c>
       <c r="S13" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T13" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U13" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>141</v>
@@ -4993,25 +5001,25 @@
         <v>2</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>149</v>
@@ -5020,7 +5028,7 @@
         <v>155</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>221</v>
@@ -5033,16 +5041,16 @@
         <v>海蒂画像</v>
       </c>
       <c r="S14" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U14" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="W14" s="42" t="s">
         <v>141</v>
@@ -5062,25 +5070,25 @@
         <v>2</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>149</v>
@@ -5089,7 +5097,7 @@
         <v>155</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>222</v>
@@ -5102,16 +5110,16 @@
         <v>中岛希子画像</v>
       </c>
       <c r="S15" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T15" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U15" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W15" s="42" t="s">
         <v>141</v>
@@ -5131,25 +5139,25 @@
         <v>2</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>149</v>
@@ -5158,7 +5166,7 @@
         <v>155</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P16" s="39" t="s">
         <v>226</v>
@@ -5171,16 +5179,16 @@
         <v>Rose画像</v>
       </c>
       <c r="S16" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T16" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U16" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>141</v>
@@ -5200,25 +5208,25 @@
         <v>2</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>149</v>
@@ -5227,7 +5235,7 @@
         <v>155</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P17" s="39" t="s">
         <v>216</v>
@@ -5240,16 +5248,16 @@
         <v>莉莉画像</v>
       </c>
       <c r="S17" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T17" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U17" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W17" s="42" t="s">
         <v>141</v>
@@ -5269,22 +5277,22 @@
         <v>2</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L18" s="39"/>
       <c r="M18" s="37" t="s">
@@ -5294,7 +5302,7 @@
         <v>155</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P18" s="39" t="s">
         <v>225</v>
@@ -5307,16 +5315,16 @@
         <v>章亦灵画像</v>
       </c>
       <c r="S18" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T18" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U18" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W18" s="42" t="s">
         <v>141</v>
@@ -5336,22 +5344,22 @@
         <v>2</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37" t="s">
@@ -5361,7 +5369,7 @@
         <v>155</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P19" s="39" t="s">
         <v>219</v>
@@ -5374,16 +5382,16 @@
         <v>莫妮卡画像</v>
       </c>
       <c r="S19" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T19" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U19" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W19" s="42" t="s">
         <v>141</v>
@@ -5403,22 +5411,22 @@
         <v>2</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
@@ -5428,7 +5436,7 @@
         <v>155</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P20" s="39" t="s">
         <v>223</v>
@@ -5441,16 +5449,16 @@
         <v>艾玛画像</v>
       </c>
       <c r="S20" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T20" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U20" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V20" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W20" s="42" t="s">
         <v>141</v>
@@ -5470,25 +5478,25 @@
         <v>2</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>149</v>
@@ -5497,7 +5505,7 @@
         <v>155</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>227</v>
@@ -5510,16 +5518,16 @@
         <v>艾米画像</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T21" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U21" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W21" s="42" t="s">
         <v>141</v>
@@ -5539,22 +5547,22 @@
         <v>2</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37" t="s">
@@ -5564,7 +5572,7 @@
         <v>155</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>231</v>
@@ -5577,16 +5585,16 @@
         <v>邦妮画像</v>
       </c>
       <c r="S22" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U22" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V22" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W22" s="42" t="s">
         <v>141</v>
@@ -5606,22 +5614,22 @@
         <v>2</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37" t="s">
@@ -5631,7 +5639,7 @@
         <v>155</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>224</v>
@@ -5644,16 +5652,16 @@
         <v>艾琳娜画像</v>
       </c>
       <c r="S23" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T23" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U23" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V23" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W23" s="42" t="s">
         <v>141</v>
@@ -5673,25 +5681,25 @@
         <v>2</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>50</v>
+        <v>474</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>267</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>149</v>
@@ -5700,7 +5708,7 @@
         <v>155</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>228</v>
@@ -5713,16 +5721,16 @@
         <v>菲欧娜画像</v>
       </c>
       <c r="S24" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T24" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U24" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V24" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W24" s="42" t="s">
         <v>141</v>
@@ -5742,25 +5750,25 @@
         <v>2</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>50</v>
+        <v>474</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>554</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>149</v>
@@ -5769,7 +5777,7 @@
         <v>155</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>230</v>
@@ -5782,16 +5790,16 @@
         <v>苏珊画像</v>
       </c>
       <c r="S25" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T25" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U25" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V25" s="28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W25" s="42" t="s">
         <v>141</v>
@@ -5811,25 +5819,25 @@
         <v>2</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M26" s="37" t="s">
         <v>149</v>
@@ -5838,7 +5846,7 @@
         <v>155</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>232</v>
@@ -5851,16 +5859,16 @@
         <v>琳恩画像</v>
       </c>
       <c r="S26" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U26" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V26" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W26" s="42" t="s">
         <v>141</v>
@@ -5871,34 +5879,34 @@
         <v>22061</v>
       </c>
       <c r="C27" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>347</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>346</v>
       </c>
       <c r="E27" s="37">
         <v>2</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>149</v>
@@ -5907,29 +5915,29 @@
         <v>155</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P27" s="39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q27" s="39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R27" s="41" t="str">
         <f t="shared" si="0"/>
         <v>维多利亚画像</v>
       </c>
       <c r="S27" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T27" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U27" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V27" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W27" s="42" t="s">
         <v>141</v>
@@ -5949,25 +5957,25 @@
         <v>2</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>149</v>
@@ -5976,7 +5984,7 @@
         <v>155</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P28" s="39" t="s">
         <v>229</v>
@@ -5989,16 +5997,16 @@
         <v>索菲亚画像</v>
       </c>
       <c r="S28" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T28" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U28" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W28" s="42" t="s">
         <v>141</v>
@@ -6018,22 +6026,22 @@
         <v>2</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L29" s="37"/>
       <c r="M29" s="37" t="s">
@@ -6043,7 +6051,7 @@
         <v>155</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>163</v>
@@ -6056,16 +6064,16 @@
         <v>佐伊画像</v>
       </c>
       <c r="S29" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T29" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U29" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W29" s="42" t="s">
         <v>141</v>
@@ -6076,7 +6084,7 @@
         <v>23031</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>205</v>
@@ -6085,25 +6093,25 @@
         <v>2</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>149</v>
@@ -6112,10 +6120,10 @@
         <v>155</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P30" s="39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q30" s="39" t="s">
         <v>205</v>
@@ -6125,16 +6133,16 @@
         <v>爱丽丝画像</v>
       </c>
       <c r="S30" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T30" s="41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U30" s="41" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V30" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W30" s="42" t="s">
         <v>141</v>
@@ -6172,7 +6180,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="48" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -6243,7 +6251,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>21</v>
@@ -6295,7 +6303,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>34</v>
@@ -6400,13 +6408,13 @@
         <v>54</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>55</v>
@@ -6450,13 +6458,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>50</v>
@@ -6500,13 +6508,13 @@
         <v>58</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>50</v>
@@ -6544,13 +6552,13 @@
         <v>60</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>55</v>
@@ -6588,19 +6596,19 @@
         <v>62</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>155</v>
@@ -6758,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>64</v>
@@ -6776,7 +6784,7 @@
         <v>68</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>69</v>
@@ -6898,13 +6906,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J7" s="8">
         <v>100</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6931,13 +6939,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J8" s="8">
         <v>100</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6964,13 +6972,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J9" s="8">
         <v>100</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6997,13 +7005,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J10" s="8">
         <v>100</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7030,13 +7038,13 @@
         <v>10</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J11" s="8">
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7063,13 +7071,13 @@
         <v>11</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J12" s="8">
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7096,13 +7104,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J13" s="8">
         <v>100</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7129,13 +7137,13 @@
         <v>13</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J14" s="8">
         <v>100</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7162,13 +7170,13 @@
         <v>14</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J15" s="8">
         <v>100</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7195,13 +7203,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J16" s="8">
         <v>100</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7227,13 +7235,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J17" s="8">
         <v>100</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7259,13 +7267,13 @@
         <v>17</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J18" s="8">
         <v>100</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7291,13 +7299,13 @@
         <v>18</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J19" s="8">
         <v>100</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7323,13 +7331,13 @@
         <v>19</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J20" s="8">
         <v>100</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7355,7 +7363,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>84</v>
@@ -7387,7 +7395,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>84</v>
@@ -7419,7 +7427,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>84</v>
@@ -7451,7 +7459,7 @@
         <v>23</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>84</v>
@@ -7483,7 +7491,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>84</v>
@@ -7515,7 +7523,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>84</v>
@@ -7547,13 +7555,13 @@
         <v>26</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J27" s="8">
         <v>100</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7579,13 +7587,13 @@
         <v>27</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J28" s="8">
         <v>100</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -7611,13 +7619,13 @@
         <v>28</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J29" s="8">
         <v>100</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7643,13 +7651,13 @@
         <v>29</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J30" s="8">
         <v>100</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -7675,7 +7683,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>84</v>
@@ -7707,7 +7715,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>84</v>
@@ -7739,7 +7747,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>84</v>
@@ -7771,7 +7779,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>84</v>
@@ -7803,7 +7811,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>84</v>
@@ -7835,7 +7843,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>84</v>
@@ -7867,13 +7875,13 @@
         <v>36</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J37" s="8">
         <v>100</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7899,13 +7907,13 @@
         <v>37</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J38" s="8">
         <v>100</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7931,13 +7939,13 @@
         <v>38</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J39" s="8">
         <v>100</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -7963,13 +7971,13 @@
         <v>39</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J40" s="8">
         <v>100</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7995,13 +8003,13 @@
         <v>40</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J41" s="8">
         <v>100</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -8027,13 +8035,13 @@
         <v>41</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J42" s="8">
         <v>100</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -8059,13 +8067,13 @@
         <v>42</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J43" s="8">
         <v>100</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -8091,13 +8099,13 @@
         <v>43</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J44" s="8">
         <v>100</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -8123,13 +8131,13 @@
         <v>44</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J45" s="8">
         <v>100</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -8155,7 +8163,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>84</v>
@@ -8187,7 +8195,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>84</v>
@@ -8219,7 +8227,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>84</v>
@@ -8251,7 +8259,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>84</v>
@@ -8283,7 +8291,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>84</v>
@@ -8315,7 +8323,7 @@
         <v>50</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>84</v>
@@ -8347,7 +8355,7 @@
         <v>51</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>84</v>
@@ -8379,7 +8387,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>84</v>
@@ -8411,7 +8419,7 @@
         <v>53</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>84</v>
@@ -8443,7 +8451,7 @@
         <v>54</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>84</v>
@@ -8475,7 +8483,7 @@
         <v>55</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>84</v>
@@ -8507,13 +8515,13 @@
         <v>56</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J57" s="8">
         <v>100</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -8539,13 +8547,13 @@
         <v>57</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J58" s="8">
         <v>100</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -8571,13 +8579,13 @@
         <v>58</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J59" s="8">
         <v>100</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -8603,13 +8611,13 @@
         <v>59</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J60" s="8">
         <v>100</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -8635,13 +8643,13 @@
         <v>60</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J61" s="8">
         <v>100</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -8667,13 +8675,13 @@
         <v>61</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J62" s="8">
         <v>100</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -8699,13 +8707,13 @@
         <v>62</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J63" s="8">
         <v>100</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -8731,13 +8739,13 @@
         <v>63</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J64" s="8">
         <v>100</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -8763,13 +8771,13 @@
         <v>64</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J65" s="8">
         <v>100</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -8795,13 +8803,13 @@
         <v>65</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J66" s="8">
         <v>100</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -8827,13 +8835,13 @@
         <v>66</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J67" s="8">
         <v>100</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -8859,13 +8867,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J68" s="8">
         <v>100</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -8891,13 +8899,13 @@
         <v>68</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J69" s="8">
         <v>100</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -8923,13 +8931,13 @@
         <v>69</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J70" s="8">
         <v>100</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -8955,13 +8963,13 @@
         <v>70</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J71" s="8">
         <v>100</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -8987,13 +8995,13 @@
         <v>71</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J72" s="8">
         <v>100</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -9019,13 +9027,13 @@
         <v>72</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J73" s="8">
         <v>100</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -9051,13 +9059,13 @@
         <v>73</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J74" s="8">
         <v>100</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -9083,13 +9091,13 @@
         <v>74</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J75" s="8">
         <v>100</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -9115,7 +9123,7 @@
         <v>75</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>84</v>
@@ -9147,7 +9155,7 @@
         <v>76</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>84</v>
@@ -9179,7 +9187,7 @@
         <v>77</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>84</v>
@@ -9211,7 +9219,7 @@
         <v>78</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>84</v>
@@ -9243,7 +9251,7 @@
         <v>79</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>84</v>
@@ -9275,7 +9283,7 @@
         <v>80</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>84</v>
@@ -9307,7 +9315,7 @@
         <v>81</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>84</v>
@@ -9339,7 +9347,7 @@
         <v>82</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>84</v>
@@ -9371,7 +9379,7 @@
         <v>83</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>84</v>
@@ -9403,7 +9411,7 @@
         <v>84</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>84</v>
@@ -9435,7 +9443,7 @@
         <v>85</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>84</v>
@@ -9467,13 +9475,13 @@
         <v>86</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J87" s="8">
         <v>100</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -9499,13 +9507,13 @@
         <v>87</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J88" s="8">
         <v>100</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -9531,13 +9539,13 @@
         <v>88</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J89" s="8">
         <v>100</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -9563,13 +9571,13 @@
         <v>89</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J90" s="8">
         <v>100</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -9595,13 +9603,13 @@
         <v>90</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J91" s="8">
         <v>100</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -9627,13 +9635,13 @@
         <v>91</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J92" s="8">
         <v>100</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -9659,13 +9667,13 @@
         <v>92</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J93" s="8">
         <v>100</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -9691,13 +9699,13 @@
         <v>93</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J94" s="8">
         <v>100</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -9723,13 +9731,13 @@
         <v>94</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J95" s="8">
         <v>100</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -9755,13 +9763,13 @@
         <v>95</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J96" s="8">
         <v>100</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -9787,13 +9795,13 @@
         <v>96</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J97" s="8">
         <v>100</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -9819,13 +9827,13 @@
         <v>97</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J98" s="8">
         <v>100</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -9851,13 +9859,13 @@
         <v>98</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J99" s="8">
         <v>100</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -9883,13 +9891,13 @@
         <v>99</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J100" s="8">
         <v>100</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="2:11">
@@ -9915,13 +9923,13 @@
         <v>100</v>
       </c>
       <c r="I101" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J101" s="8">
         <v>100</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -9947,13 +9955,13 @@
         <v>101</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J102" s="8">
         <v>100</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -9979,13 +9987,13 @@
         <v>102</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J103" s="8">
         <v>100</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -10011,13 +10019,13 @@
         <v>103</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J104" s="8">
         <v>100</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -10043,13 +10051,13 @@
         <v>104</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J105" s="8">
         <v>100</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -10075,13 +10083,13 @@
         <v>105</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J106" s="8">
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -10107,13 +10115,13 @@
         <v>106</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J107" s="8">
         <v>100</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -10139,13 +10147,13 @@
         <v>107</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J108" s="8">
         <v>100</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -10171,13 +10179,13 @@
         <v>108</v>
       </c>
       <c r="I109" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J109" s="8">
         <v>100</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -10203,13 +10211,13 @@
         <v>109</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J110" s="8">
         <v>100</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="2:11">
@@ -10235,13 +10243,13 @@
         <v>110</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J111" s="8">
         <v>100</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -10267,13 +10275,13 @@
         <v>111</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J112" s="8">
         <v>100</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -10299,13 +10307,13 @@
         <v>112</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J113" s="8">
         <v>100</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="2:11">
@@ -10331,13 +10339,13 @@
         <v>113</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J114" s="8">
         <v>100</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="2:11">
@@ -10363,13 +10371,13 @@
         <v>114</v>
       </c>
       <c r="I115" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J115" s="8">
         <v>100</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="2:11">
@@ -10395,13 +10403,13 @@
         <v>115</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J116" s="8">
         <v>100</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="2:11">
@@ -10427,13 +10435,13 @@
         <v>116</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J117" s="8">
         <v>100</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="2:11">
@@ -10459,13 +10467,13 @@
         <v>117</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J118" s="8">
         <v>100</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="2:11">
@@ -10491,13 +10499,13 @@
         <v>118</v>
       </c>
       <c r="I119" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J119" s="8">
         <v>100</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="120" spans="2:11">
@@ -10523,13 +10531,13 @@
         <v>119</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J120" s="8">
         <v>100</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -10555,13 +10563,13 @@
         <v>120</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J121" s="8">
         <v>100</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -10587,13 +10595,13 @@
         <v>121</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J122" s="8">
         <v>100</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -10619,13 +10627,13 @@
         <v>122</v>
       </c>
       <c r="I123" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J123" s="8">
         <v>100</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -10651,13 +10659,13 @@
         <v>123</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J124" s="8">
         <v>100</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -10683,13 +10691,13 @@
         <v>124</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J125" s="8">
         <v>100</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -10715,7 +10723,7 @@
         <v>125</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>84</v>
@@ -10747,7 +10755,7 @@
         <v>126</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>84</v>
@@ -10779,7 +10787,7 @@
         <v>127</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>84</v>
@@ -10811,7 +10819,7 @@
         <v>128</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>84</v>
@@ -10843,7 +10851,7 @@
         <v>129</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>84</v>
@@ -10875,7 +10883,7 @@
         <v>130</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>84</v>
@@ -10907,7 +10915,7 @@
         <v>131</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>84</v>
@@ -10939,7 +10947,7 @@
         <v>132</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>84</v>
@@ -10971,7 +10979,7 @@
         <v>133</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>84</v>
@@ -11003,7 +11011,7 @@
         <v>134</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>84</v>
@@ -11035,7 +11043,7 @@
         <v>135</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>84</v>
@@ -11067,7 +11075,7 @@
         <v>136</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>84</v>
@@ -11099,7 +11107,7 @@
         <v>137</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>84</v>
@@ -11131,7 +11139,7 @@
         <v>138</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>84</v>
@@ -11163,7 +11171,7 @@
         <v>139</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>84</v>
@@ -11195,7 +11203,7 @@
         <v>140</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>84</v>
@@ -11227,7 +11235,7 @@
         <v>141</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>84</v>
@@ -11259,7 +11267,7 @@
         <v>142</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>84</v>
@@ -11291,7 +11299,7 @@
         <v>143</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>84</v>
@@ -11323,7 +11331,7 @@
         <v>144</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>84</v>
@@ -11355,7 +11363,7 @@
         <v>145</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>84</v>
@@ -11387,13 +11395,13 @@
         <v>146</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J147" s="8">
         <v>100</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -11419,13 +11427,13 @@
         <v>147</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J148" s="8">
         <v>100</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="149" spans="2:11">
@@ -11451,13 +11459,13 @@
         <v>148</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J149" s="8">
         <v>100</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="2:11">
@@ -11483,13 +11491,13 @@
         <v>149</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J150" s="8">
         <v>100</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="2:11">
@@ -11515,13 +11523,13 @@
         <v>150</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J151" s="8">
         <v>100</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="2:11">
@@ -11547,13 +11555,13 @@
         <v>151</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J152" s="8">
         <v>100</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="2:11">
@@ -11579,13 +11587,13 @@
         <v>152</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J153" s="8">
         <v>100</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="2:11">
@@ -11611,13 +11619,13 @@
         <v>153</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J154" s="8">
         <v>100</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="2:11">
@@ -11643,13 +11651,13 @@
         <v>154</v>
       </c>
       <c r="I155" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J155" s="8">
         <v>100</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="2:11">
@@ -11675,13 +11683,13 @@
         <v>155</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J156" s="8">
         <v>100</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -11707,13 +11715,13 @@
         <v>156</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J157" s="8">
         <v>100</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -11739,13 +11747,13 @@
         <v>157</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J158" s="8">
         <v>100</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -11771,13 +11779,13 @@
         <v>158</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J159" s="8">
         <v>100</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -11803,13 +11811,13 @@
         <v>159</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J160" s="8">
         <v>100</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -11835,13 +11843,13 @@
         <v>160</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J161" s="8">
         <v>100</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -11867,13 +11875,13 @@
         <v>161</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J162" s="8">
         <v>100</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="2:11">
@@ -11899,13 +11907,13 @@
         <v>162</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J163" s="8">
         <v>100</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -11931,13 +11939,13 @@
         <v>163</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J164" s="8">
         <v>100</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="2:11">
@@ -11963,13 +11971,13 @@
         <v>164</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J165" s="8">
         <v>100</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -11995,7 +12003,7 @@
         <v>165</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J166" s="8" t="s">
         <v>84</v>
@@ -12027,7 +12035,7 @@
         <v>166</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J167" s="8" t="s">
         <v>84</v>
@@ -12059,7 +12067,7 @@
         <v>167</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J168" s="8" t="s">
         <v>84</v>
@@ -12091,7 +12099,7 @@
         <v>168</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J169" s="8" t="s">
         <v>84</v>
@@ -12123,7 +12131,7 @@
         <v>169</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J170" s="8" t="s">
         <v>84</v>
@@ -12155,7 +12163,7 @@
         <v>170</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J171" s="8" t="s">
         <v>84</v>
@@ -12187,7 +12195,7 @@
         <v>171</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>84</v>
@@ -12219,7 +12227,7 @@
         <v>172</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J173" s="8" t="s">
         <v>84</v>
@@ -12251,7 +12259,7 @@
         <v>173</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J174" s="8" t="s">
         <v>84</v>
@@ -12283,7 +12291,7 @@
         <v>174</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J175" s="8" t="s">
         <v>84</v>
@@ -12315,7 +12323,7 @@
         <v>175</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>84</v>
@@ -12347,7 +12355,7 @@
         <v>176</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J177" s="8" t="s">
         <v>84</v>
@@ -12379,7 +12387,7 @@
         <v>177</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>84</v>
@@ -12411,7 +12419,7 @@
         <v>178</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J179" s="8" t="s">
         <v>84</v>
@@ -12443,7 +12451,7 @@
         <v>179</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>84</v>
@@ -12475,7 +12483,7 @@
         <v>180</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>84</v>
@@ -12507,7 +12515,7 @@
         <v>181</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>84</v>
@@ -12539,7 +12547,7 @@
         <v>182</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>84</v>
@@ -12571,7 +12579,7 @@
         <v>183</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J184" s="8" t="s">
         <v>84</v>
@@ -12603,7 +12611,7 @@
         <v>184</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>84</v>
@@ -12635,7 +12643,7 @@
         <v>185</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>84</v>
@@ -12667,7 +12675,7 @@
         <v>186</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>84</v>
@@ -12699,7 +12707,7 @@
         <v>187</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>84</v>
@@ -12731,7 +12739,7 @@
         <v>188</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>84</v>
@@ -12763,7 +12771,7 @@
         <v>189</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>84</v>
@@ -12795,7 +12803,7 @@
         <v>190</v>
       </c>
       <c r="I191" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>84</v>
@@ -12827,7 +12835,7 @@
         <v>191</v>
       </c>
       <c r="I192" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>84</v>
@@ -12859,7 +12867,7 @@
         <v>192</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J193" s="8" t="s">
         <v>84</v>
@@ -12891,7 +12899,7 @@
         <v>193</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J194" s="8" t="s">
         <v>84</v>
@@ -12923,7 +12931,7 @@
         <v>194</v>
       </c>
       <c r="I195" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>84</v>
@@ -12955,7 +12963,7 @@
         <v>195</v>
       </c>
       <c r="I196" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>84</v>
@@ -12987,7 +12995,7 @@
         <v>196</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>84</v>
@@ -13019,7 +13027,7 @@
         <v>197</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>84</v>
@@ -13051,7 +13059,7 @@
         <v>198</v>
       </c>
       <c r="I199" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>84</v>
@@ -13083,7 +13091,7 @@
         <v>199</v>
       </c>
       <c r="I200" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>84</v>
@@ -13115,7 +13123,7 @@
         <v>200</v>
       </c>
       <c r="I201" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>84</v>
@@ -13147,7 +13155,7 @@
         <v>201</v>
       </c>
       <c r="I202" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>84</v>
@@ -13179,7 +13187,7 @@
         <v>202</v>
       </c>
       <c r="I203" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>84</v>
@@ -13211,7 +13219,7 @@
         <v>203</v>
       </c>
       <c r="I204" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>84</v>
@@ -13243,7 +13251,7 @@
         <v>204</v>
       </c>
       <c r="I205" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>84</v>
@@ -13275,7 +13283,7 @@
         <v>205</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>84</v>
@@ -13307,13 +13315,13 @@
         <v>206</v>
       </c>
       <c r="I207" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J207" s="8">
         <v>100</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="208" spans="2:11">
@@ -13339,13 +13347,13 @@
         <v>207</v>
       </c>
       <c r="I208" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J208" s="8">
         <v>100</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="209" spans="2:11">
@@ -13371,13 +13379,13 @@
         <v>208</v>
       </c>
       <c r="I209" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J209" s="8">
         <v>100</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="210" spans="2:11">
@@ -13403,13 +13411,13 @@
         <v>209</v>
       </c>
       <c r="I210" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J210" s="8">
         <v>100</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" spans="2:11">
@@ -13435,13 +13443,13 @@
         <v>210</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J211" s="8">
         <v>100</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="2:11">
@@ -13467,13 +13475,13 @@
         <v>211</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J212" s="8">
         <v>100</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="2:11">
@@ -13499,13 +13507,13 @@
         <v>212</v>
       </c>
       <c r="I213" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J213" s="8">
         <v>100</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="2:11">
@@ -13531,13 +13539,13 @@
         <v>213</v>
       </c>
       <c r="I214" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J214" s="8">
         <v>100</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="2:11">
@@ -13563,13 +13571,13 @@
         <v>214</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J215" s="8">
         <v>100</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="2:11">
@@ -13595,13 +13603,13 @@
         <v>215</v>
       </c>
       <c r="I216" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J216" s="8">
         <v>100</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="2:11">
@@ -13627,13 +13635,13 @@
         <v>216</v>
       </c>
       <c r="I217" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J217" s="8">
         <v>100</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="2:11">
@@ -13659,13 +13667,13 @@
         <v>217</v>
       </c>
       <c r="I218" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J218" s="8">
         <v>100</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" spans="2:11">
@@ -13691,13 +13699,13 @@
         <v>218</v>
       </c>
       <c r="I219" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J219" s="8">
         <v>100</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="2:11">
@@ -13723,13 +13731,13 @@
         <v>219</v>
       </c>
       <c r="I220" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J220" s="8">
         <v>100</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="221" spans="2:11">
@@ -13755,13 +13763,13 @@
         <v>220</v>
       </c>
       <c r="I221" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J221" s="8">
         <v>100</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="222" spans="2:11">
@@ -13787,13 +13795,13 @@
         <v>221</v>
       </c>
       <c r="I222" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J222" s="8">
         <v>100</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="2:11">
@@ -13819,13 +13827,13 @@
         <v>222</v>
       </c>
       <c r="I223" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J223" s="8">
         <v>100</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="224" spans="2:11">
@@ -13851,13 +13859,13 @@
         <v>223</v>
       </c>
       <c r="I224" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J224" s="8">
         <v>100</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="225" spans="2:11">
@@ -13883,13 +13891,13 @@
         <v>224</v>
       </c>
       <c r="I225" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J225" s="8">
         <v>100</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="226" spans="2:11">
@@ -13915,13 +13923,13 @@
         <v>225</v>
       </c>
       <c r="I226" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J226" s="8">
         <v>100</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="227" spans="2:11">
@@ -13947,13 +13955,13 @@
         <v>226</v>
       </c>
       <c r="I227" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J227" s="8">
         <v>100</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="228" spans="2:11">
@@ -13979,13 +13987,13 @@
         <v>227</v>
       </c>
       <c r="I228" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J228" s="8">
         <v>100</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="229" spans="2:11">
@@ -14011,13 +14019,13 @@
         <v>228</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J229" s="8">
         <v>100</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="2:11">
@@ -14043,13 +14051,13 @@
         <v>229</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J230" s="8">
         <v>100</v>
       </c>
       <c r="K230" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="2:11">
@@ -14075,13 +14083,13 @@
         <v>230</v>
       </c>
       <c r="I231" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J231" s="8">
         <v>100</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="232" spans="2:11">
@@ -14107,13 +14115,13 @@
         <v>231</v>
       </c>
       <c r="I232" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J232" s="8">
         <v>100</v>
       </c>
       <c r="K232" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="2:11">
@@ -14139,13 +14147,13 @@
         <v>232</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J233" s="8">
         <v>100</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="234" spans="2:11">
@@ -14171,13 +14179,13 @@
         <v>233</v>
       </c>
       <c r="I234" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J234" s="8">
         <v>100</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="235" spans="2:11">
@@ -14203,13 +14211,13 @@
         <v>234</v>
       </c>
       <c r="I235" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J235" s="8">
         <v>100</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="236" spans="2:11">
@@ -14235,13 +14243,13 @@
         <v>235</v>
       </c>
       <c r="I236" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J236" s="8">
         <v>100</v>
       </c>
       <c r="K236" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="237" spans="2:11">
@@ -14267,13 +14275,13 @@
         <v>236</v>
       </c>
       <c r="I237" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J237" s="8">
         <v>100</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="2:11">
@@ -14299,13 +14307,13 @@
         <v>237</v>
       </c>
       <c r="I238" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J238" s="8">
         <v>100</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="239" spans="2:11">
@@ -14331,13 +14339,13 @@
         <v>238</v>
       </c>
       <c r="I239" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J239" s="8">
         <v>100</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="240" spans="2:11">
@@ -14363,13 +14371,13 @@
         <v>239</v>
       </c>
       <c r="I240" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J240" s="8">
         <v>100</v>
       </c>
       <c r="K240" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="241" spans="2:11">
@@ -14395,13 +14403,13 @@
         <v>240</v>
       </c>
       <c r="I241" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J241" s="8">
         <v>100</v>
       </c>
       <c r="K241" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="242" spans="2:11">
@@ -14427,13 +14435,13 @@
         <v>241</v>
       </c>
       <c r="I242" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J242" s="8">
         <v>100</v>
       </c>
       <c r="K242" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" spans="2:11">
@@ -14459,13 +14467,13 @@
         <v>242</v>
       </c>
       <c r="I243" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J243" s="8">
         <v>100</v>
       </c>
       <c r="K243" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="244" spans="2:11">
@@ -14491,13 +14499,13 @@
         <v>243</v>
       </c>
       <c r="I244" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J244" s="8">
         <v>100</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" spans="2:11">
@@ -14523,13 +14531,13 @@
         <v>244</v>
       </c>
       <c r="I245" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J245" s="8">
         <v>100</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="2:11">
@@ -14555,13 +14563,13 @@
         <v>245</v>
       </c>
       <c r="I246" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J246" s="8">
         <v>100</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" spans="2:11">
@@ -14587,13 +14595,13 @@
         <v>246</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J247" s="8">
         <v>100</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="2:11">
@@ -14619,13 +14627,13 @@
         <v>247</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J248" s="8">
         <v>100</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" spans="2:11">
@@ -14651,13 +14659,13 @@
         <v>248</v>
       </c>
       <c r="I249" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J249" s="8">
         <v>100</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="250" spans="2:11">
@@ -14683,13 +14691,13 @@
         <v>249</v>
       </c>
       <c r="I250" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J250" s="8">
         <v>100</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="251" spans="2:11">
@@ -14715,13 +14723,13 @@
         <v>250</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J251" s="8">
         <v>100</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" spans="2:11">
@@ -14747,13 +14755,13 @@
         <v>251</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J252" s="8">
         <v>100</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="253" spans="2:11">
@@ -14779,13 +14787,13 @@
         <v>252</v>
       </c>
       <c r="I253" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J253" s="8">
         <v>100</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="254" spans="2:11">
@@ -14811,13 +14819,13 @@
         <v>253</v>
       </c>
       <c r="I254" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J254" s="8">
         <v>100</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="255" spans="2:11">
@@ -14843,13 +14851,13 @@
         <v>254</v>
       </c>
       <c r="I255" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J255" s="8">
         <v>100</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="256" spans="2:11">
@@ -14875,13 +14883,13 @@
         <v>255</v>
       </c>
       <c r="I256" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J256" s="8">
         <v>100</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="258" spans="3:3">
@@ -15040,7 +15048,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>178</v>
@@ -15124,10 +15132,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -15164,7 +15172,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>118</v>
@@ -15208,7 +15216,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>120</v>
@@ -15252,7 +15260,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>122</v>
@@ -15296,7 +15304,7 @@
         <v>124</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>124</v>
@@ -15340,7 +15348,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>126</v>
@@ -15384,7 +15392,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>128</v>
@@ -15428,7 +15436,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>130</v>
@@ -15472,7 +15480,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>132</v>
@@ -15516,7 +15524,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>134</v>
@@ -15631,7 +15639,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -16190,13 +16198,13 @@
         <v>245</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>255</v>
@@ -16211,12 +16219,12 @@
         <v>264</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
@@ -16231,10 +16239,10 @@
         <v>246</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>250</v>
@@ -16252,7 +16260,7 @@
         <v>265</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16266,16 +16274,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>247</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>82</v>
@@ -16318,7 +16326,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16326,13 +16334,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F7" s="20" t="b">
         <v>0</v>
@@ -16341,7 +16349,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I7" s="20">
         <v>0.03</v>
@@ -16356,7 +16364,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16364,13 +16372,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F8" s="20" t="b">
         <v>0</v>
@@ -16379,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I8" s="20">
         <v>0.03</v>
@@ -16394,7 +16402,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16402,13 +16410,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F9" s="20" t="b">
         <v>0</v>
@@ -16417,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I9" s="20">
         <v>0.03</v>
@@ -16432,7 +16440,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16440,13 +16448,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F10" s="20" t="b">
         <v>0</v>
@@ -16455,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I10" s="20">
         <v>0.03</v>
@@ -16470,7 +16478,7 @@
         <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16478,13 +16486,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F11" s="20" t="b">
         <v>0</v>
@@ -16493,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I11" s="20">
         <v>0.03</v>
@@ -16508,7 +16516,7 @@
         <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16516,13 +16524,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D12" t="s">
         <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F12" s="20" t="b">
         <v>0</v>
@@ -16531,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I12" s="20">
         <v>0.03</v>
@@ -16554,13 +16562,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>1</v>
@@ -16569,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I13" s="20">
         <v>0.15</v>
@@ -16584,7 +16592,7 @@
         <v>200</v>
       </c>
       <c r="M13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16592,13 +16600,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F14" s="20" t="b">
         <v>1</v>
@@ -16607,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I14" s="20">
         <v>0.15</v>
@@ -16622,7 +16630,7 @@
         <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16630,13 +16638,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F15" s="20" t="b">
         <v>1</v>
@@ -16645,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I15" s="20">
         <v>0.15</v>
@@ -16660,7 +16668,7 @@
         <v>200</v>
       </c>
       <c r="M15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16668,13 +16676,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F16" s="20" t="b">
         <v>1</v>
@@ -16683,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I16" s="20">
         <v>0.15</v>
@@ -16698,7 +16706,7 @@
         <v>200</v>
       </c>
       <c r="M16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -16706,13 +16714,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F17" s="20" t="b">
         <v>1</v>
@@ -16721,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I17" s="20">
         <v>0.15</v>
@@ -16736,7 +16744,7 @@
         <v>200</v>
       </c>
       <c r="M17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -16744,13 +16752,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
         <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F18" s="20" t="b">
         <v>1</v>
@@ -16759,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I18" s="20">
         <v>0.15</v>
@@ -16782,13 +16790,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F19" s="20" t="b">
         <v>0</v>
@@ -16812,7 +16820,7 @@
         <v>200</v>
       </c>
       <c r="M19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -16820,13 +16828,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F20" s="20" t="b">
         <v>0</v>
@@ -16850,7 +16858,7 @@
         <v>200</v>
       </c>
       <c r="M20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -16858,13 +16866,13 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F21" s="20" t="b">
         <v>0</v>
@@ -16873,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I21" s="20">
         <v>0.03</v>
@@ -16888,7 +16896,7 @@
         <v>200</v>
       </c>
       <c r="M21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -16896,13 +16904,13 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F22" s="20" t="b">
         <v>0</v>
@@ -16911,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I22" s="20">
         <v>0.03</v>
@@ -16926,7 +16934,7 @@
         <v>200</v>
       </c>
       <c r="M22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -16934,13 +16942,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F23" s="20" t="b">
         <v>0</v>
@@ -16949,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I23" s="20">
         <v>0.03</v>
@@ -16964,7 +16972,7 @@
         <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -16972,13 +16980,13 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D24" t="s">
         <v>248</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F24" s="20" t="b">
         <v>0</v>
@@ -16987,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I24" s="20">
         <v>0.03</v>
@@ -17010,13 +17018,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F25" s="20" t="b">
         <v>1</v>
@@ -17040,7 +17048,7 @@
         <v>200</v>
       </c>
       <c r="M25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -17048,13 +17056,13 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F26" s="20" t="b">
         <v>1</v>
@@ -17078,7 +17086,7 @@
         <v>200</v>
       </c>
       <c r="M26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -17086,13 +17094,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F27" s="20" t="b">
         <v>1</v>
@@ -17116,7 +17124,7 @@
         <v>200</v>
       </c>
       <c r="M27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -17124,13 +17132,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F28" s="20" t="b">
         <v>1</v>
@@ -17154,7 +17162,7 @@
         <v>200</v>
       </c>
       <c r="M28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -17162,13 +17170,13 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E29" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F29" s="20" t="b">
         <v>1</v>
@@ -17192,7 +17200,7 @@
         <v>200</v>
       </c>
       <c r="M29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -17200,13 +17208,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D30" t="s">
         <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F30" s="20" t="b">
         <v>1</v>
@@ -17238,13 +17246,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F31" s="20" t="b">
         <v>0</v>
@@ -17253,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I31" s="20">
         <v>0.03</v>
@@ -17268,7 +17276,7 @@
         <v>200</v>
       </c>
       <c r="M31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -17276,13 +17284,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E32" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F32" s="20" t="b">
         <v>0</v>
@@ -17291,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I32" s="20">
         <v>0.03</v>
@@ -17306,7 +17314,7 @@
         <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -17314,13 +17322,13 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F33" s="20" t="b">
         <v>0</v>
@@ -17329,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I33" s="20">
         <v>0.03</v>
@@ -17344,7 +17352,7 @@
         <v>200</v>
       </c>
       <c r="M33" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -17352,13 +17360,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F34" s="20" t="b">
         <v>0</v>
@@ -17367,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I34" s="20">
         <v>0.03</v>
@@ -17382,7 +17390,7 @@
         <v>200</v>
       </c>
       <c r="M34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -17390,13 +17398,13 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E35" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F35" s="20" t="b">
         <v>0</v>
@@ -17405,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I35" s="20">
         <v>0.03</v>
@@ -17420,7 +17428,7 @@
         <v>200</v>
       </c>
       <c r="M35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -17428,13 +17436,13 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D36" t="s">
         <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F36" s="20" t="b">
         <v>0</v>
@@ -17443,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I36" s="20">
         <v>0.03</v>
@@ -17466,13 +17474,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F37" s="20" t="b">
         <v>1</v>
@@ -17481,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I37" s="20">
         <v>0.15</v>
@@ -17496,7 +17504,7 @@
         <v>200</v>
       </c>
       <c r="M37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -17504,13 +17512,13 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D38" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F38" s="20" t="b">
         <v>1</v>
@@ -17519,7 +17527,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I38" s="20">
         <v>0.15</v>
@@ -17534,7 +17542,7 @@
         <v>200</v>
       </c>
       <c r="M38" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -17542,13 +17550,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E39" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F39" s="20" t="b">
         <v>1</v>
@@ -17557,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I39" s="20">
         <v>0.15</v>
@@ -17572,7 +17580,7 @@
         <v>200</v>
       </c>
       <c r="M39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -17580,13 +17588,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E40" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F40" s="20" t="b">
         <v>1</v>
@@ -17595,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I40" s="20">
         <v>0.15</v>
@@ -17610,7 +17618,7 @@
         <v>200</v>
       </c>
       <c r="M40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -17618,13 +17626,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F41" s="20" t="b">
         <v>1</v>
@@ -17633,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I41" s="20">
         <v>0.15</v>
@@ -17648,7 +17656,7 @@
         <v>200</v>
       </c>
       <c r="M41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -17656,13 +17664,13 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D42" t="s">
         <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F42" s="20" t="b">
         <v>1</v>
@@ -17671,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I42" s="20">
         <v>0.15</v>
@@ -17694,13 +17702,13 @@
         <v>37</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F43" s="20" t="b">
         <v>0</v>
@@ -17709,7 +17717,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I43" s="20">
         <v>0.03</v>
@@ -17724,7 +17732,7 @@
         <v>200</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -17732,13 +17740,13 @@
         <v>38</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F44" s="20" t="b">
         <v>0</v>
@@ -17747,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I44" s="20">
         <v>0.03</v>
@@ -17762,7 +17770,7 @@
         <v>200</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -17770,13 +17778,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F45" s="20" t="b">
         <v>0</v>
@@ -17785,7 +17793,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I45" s="20">
         <v>0.03</v>
@@ -17800,7 +17808,7 @@
         <v>200</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -17808,13 +17816,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F46" s="20" t="b">
         <v>1</v>
@@ -17823,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I46" s="20">
         <v>0.15</v>
@@ -17838,7 +17846,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -17846,13 +17854,13 @@
         <v>41</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F47" s="20" t="b">
         <v>1</v>
@@ -17876,7 +17884,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -17884,13 +17892,13 @@
         <v>42</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F48" s="20" t="b">
         <v>1</v>
@@ -17899,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I48" s="20">
         <v>0.15</v>
@@ -17914,7 +17922,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58174950-22A5-524E-80A1-CC2814C79A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A8D6E-67DD-CC40-B619-725285EE2872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="556">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -681,9 +681,6 @@
   </si>
   <si>
     <t>情人24</t>
-  </si>
-  <si>
-    <t>时装1//时装3</t>
   </si>
   <si>
     <t>莉莉</t>
@@ -3394,6 +3391,14 @@
   </si>
   <si>
     <t>时装22</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装24</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装23</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4195,7 +4200,7 @@
       <pane xSplit="7" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4249,10 +4254,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>7</v>
@@ -4282,25 +4287,25 @@
         <v>15</v>
       </c>
       <c r="Q3" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>321</v>
-      </c>
       <c r="T3" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4320,10 +4325,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>22</v>
@@ -4356,22 +4361,22 @@
         <v>153</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4385,16 +4390,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>33</v>
@@ -4436,13 +4441,13 @@
         <v>33</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4458,10 +4463,10 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>40</v>
@@ -4470,7 +4475,7 @@
         <v>41</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
@@ -4495,10 +4500,10 @@
         <v>42</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
@@ -4519,22 +4524,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="37" t="s">
@@ -4544,7 +4549,7 @@
         <v>155</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>56</v>
@@ -4557,16 +4562,16 @@
         <v>凯莉画像</v>
       </c>
       <c r="S7" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T7" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U7" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V7" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W7" s="42" t="s">
         <v>140</v>
@@ -4587,25 +4592,25 @@
         <v>2</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>146</v>
@@ -4614,7 +4619,7 @@
         <v>155</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>52</v>
@@ -4627,16 +4632,16 @@
         <v>杰西卡画像</v>
       </c>
       <c r="S8" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T8" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T8" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U8" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W8" s="42" t="s">
         <v>141</v>
@@ -4657,25 +4662,25 @@
         <v>2</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>148</v>
@@ -4684,7 +4689,7 @@
         <v>155</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P9" s="40" t="s">
         <v>161</v>
@@ -4697,16 +4702,16 @@
         <v>伊丽莎白画像</v>
       </c>
       <c r="S9" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T9" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T9" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U9" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W9" s="42" t="s">
         <v>140</v>
@@ -4727,25 +4732,25 @@
         <v>2</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>147</v>
@@ -4754,7 +4759,7 @@
         <v>155</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P10" s="40" t="s">
         <v>162</v>
@@ -4767,16 +4772,16 @@
         <v>伊芙琳画像</v>
       </c>
       <c r="S10" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T10" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U10" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W10" s="42" t="s">
         <v>141</v>
@@ -4790,31 +4795,31 @@
         <v>180</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="37">
         <v>2</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>50</v>
+        <v>473</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>554</v>
       </c>
       <c r="M11" s="37" t="s">
         <v>149</v>
@@ -4823,29 +4828,29 @@
         <v>155</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>娜塔莉画像</v>
       </c>
       <c r="S11" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T11" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T11" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U11" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W11" s="42" t="s">
         <v>141</v>
@@ -4859,28 +4864,28 @@
         <v>181</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="37">
         <v>2</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
@@ -4890,29 +4895,29 @@
         <v>155</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>娜斯提娅画像</v>
       </c>
       <c r="S12" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T12" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T12" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U12" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W12" s="42" t="s">
         <v>141</v>
@@ -4926,31 +4931,31 @@
         <v>183</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="37">
         <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>519</v>
-      </c>
       <c r="K13" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>196</v>
+        <v>473</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>555</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>149</v>
@@ -4959,29 +4964,29 @@
         <v>155</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>伊莎贝拉画像</v>
       </c>
       <c r="S13" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T13" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T13" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U13" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>141</v>
@@ -4995,31 +5000,31 @@
         <v>184</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="37">
         <v>2</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>149</v>
@@ -5028,29 +5033,29 @@
         <v>155</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>海蒂画像</v>
       </c>
       <c r="S14" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T14" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T14" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U14" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W14" s="42" t="s">
         <v>141</v>
@@ -5064,31 +5069,31 @@
         <v>185</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="37">
         <v>2</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>149</v>
@@ -5097,29 +5102,29 @@
         <v>155</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q15" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>中岛希子画像</v>
       </c>
       <c r="S15" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T15" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T15" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U15" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W15" s="42" t="s">
         <v>141</v>
@@ -5133,31 +5138,31 @@
         <v>189</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E16" s="37">
         <v>2</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>149</v>
@@ -5166,29 +5171,29 @@
         <v>155</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R16" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Rose画像</v>
       </c>
       <c r="S16" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T16" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T16" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U16" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>141</v>
@@ -5202,31 +5207,31 @@
         <v>179</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="37">
         <v>2</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M17" s="37" t="s">
         <v>149</v>
@@ -5235,29 +5240,29 @@
         <v>155</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P17" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R17" s="41" t="str">
         <f t="shared" si="0"/>
         <v>莉莉画像</v>
       </c>
       <c r="S17" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T17" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T17" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U17" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W17" s="42" t="s">
         <v>141</v>
@@ -5271,28 +5276,28 @@
         <v>188</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="37">
         <v>2</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L18" s="39"/>
       <c r="M18" s="37" t="s">
@@ -5302,29 +5307,29 @@
         <v>155</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R18" s="41" t="str">
         <f t="shared" si="0"/>
         <v>章亦灵画像</v>
       </c>
       <c r="S18" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T18" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T18" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U18" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W18" s="42" t="s">
         <v>141</v>
@@ -5338,28 +5343,28 @@
         <v>182</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="37">
         <v>2</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37" t="s">
@@ -5369,29 +5374,29 @@
         <v>155</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R19" s="41" t="str">
         <f t="shared" si="0"/>
         <v>莫妮卡画像</v>
       </c>
       <c r="S19" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T19" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T19" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U19" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W19" s="42" t="s">
         <v>141</v>
@@ -5405,28 +5410,28 @@
         <v>186</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="37">
         <v>2</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37" t="s">
@@ -5436,29 +5441,29 @@
         <v>155</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R20" s="41" t="str">
         <f t="shared" si="0"/>
         <v>艾玛画像</v>
       </c>
       <c r="S20" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T20" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T20" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U20" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V20" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W20" s="42" t="s">
         <v>141</v>
@@ -5472,31 +5477,31 @@
         <v>190</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="37">
         <v>2</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>149</v>
@@ -5505,29 +5510,29 @@
         <v>155</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P21" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R21" s="41" t="str">
         <f t="shared" si="0"/>
         <v>艾米画像</v>
       </c>
       <c r="S21" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T21" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T21" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U21" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W21" s="42" t="s">
         <v>141</v>
@@ -5541,28 +5546,28 @@
         <v>194</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" s="37">
         <v>2</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37" t="s">
@@ -5572,29 +5577,29 @@
         <v>155</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P22" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R22" s="41" t="str">
         <f t="shared" si="0"/>
         <v>邦妮画像</v>
       </c>
       <c r="S22" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T22" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T22" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U22" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V22" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W22" s="42" t="s">
         <v>141</v>
@@ -5608,28 +5613,28 @@
         <v>187</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="37">
         <v>2</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37" t="s">
@@ -5639,29 +5644,29 @@
         <v>155</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P23" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R23" s="41" t="str">
         <f t="shared" si="0"/>
         <v>艾琳娜画像</v>
       </c>
       <c r="S23" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T23" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T23" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U23" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V23" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W23" s="42" t="s">
         <v>141</v>
@@ -5675,31 +5680,31 @@
         <v>191</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="37">
         <v>2</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>149</v>
@@ -5708,29 +5713,29 @@
         <v>155</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P24" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R24" s="41" t="str">
         <f t="shared" si="0"/>
         <v>菲欧娜画像</v>
       </c>
       <c r="S24" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T24" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T24" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U24" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V24" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W24" s="42" t="s">
         <v>141</v>
@@ -5744,31 +5749,31 @@
         <v>193</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E25" s="37">
         <v>2</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>149</v>
@@ -5777,29 +5782,29 @@
         <v>155</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R25" s="41" t="str">
         <f t="shared" si="0"/>
         <v>苏珊画像</v>
       </c>
       <c r="S25" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T25" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T25" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U25" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V25" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W25" s="42" t="s">
         <v>141</v>
@@ -5813,31 +5818,31 @@
         <v>195</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" s="37">
         <v>2</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M26" s="37" t="s">
         <v>149</v>
@@ -5846,29 +5851,29 @@
         <v>155</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P26" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R26" s="41" t="str">
         <f t="shared" si="0"/>
         <v>琳恩画像</v>
       </c>
       <c r="S26" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T26" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T26" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U26" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V26" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W26" s="42" t="s">
         <v>141</v>
@@ -5879,34 +5884,34 @@
         <v>22061</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E27" s="37">
         <v>2</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>149</v>
@@ -5915,29 +5920,29 @@
         <v>155</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P27" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q27" s="39" t="s">
         <v>350</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>351</v>
       </c>
       <c r="R27" s="41" t="str">
         <f t="shared" si="0"/>
         <v>维多利亚画像</v>
       </c>
       <c r="S27" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T27" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T27" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U27" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V27" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W27" s="42" t="s">
         <v>141</v>
@@ -5951,31 +5956,31 @@
         <v>192</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="37">
         <v>2</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>149</v>
@@ -5984,29 +5989,29 @@
         <v>155</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P28" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R28" s="41" t="str">
         <f t="shared" si="0"/>
         <v>索菲亚画像</v>
       </c>
       <c r="S28" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T28" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T28" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U28" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W28" s="42" t="s">
         <v>141</v>
@@ -6026,22 +6031,22 @@
         <v>2</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L29" s="37"/>
       <c r="M29" s="37" t="s">
@@ -6051,7 +6056,7 @@
         <v>155</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>163</v>
@@ -6064,16 +6069,16 @@
         <v>佐伊画像</v>
       </c>
       <c r="S29" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T29" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T29" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U29" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W29" s="42" t="s">
         <v>141</v>
@@ -6084,34 +6089,34 @@
         <v>23031</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="37">
         <v>2</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>149</v>
@@ -6120,29 +6125,29 @@
         <v>155</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P30" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R30" s="41" t="str">
         <f t="shared" si="0"/>
         <v>爱丽丝画像</v>
       </c>
       <c r="S30" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="T30" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="T30" s="41" t="s">
-        <v>327</v>
-      </c>
       <c r="U30" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V30" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W30" s="42" t="s">
         <v>141</v>
@@ -6180,7 +6185,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -6251,7 +6256,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>21</v>
@@ -6303,7 +6308,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>34</v>
@@ -6363,7 +6368,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
@@ -6408,13 +6413,13 @@
         <v>54</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>55</v>
@@ -6458,13 +6463,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>50</v>
@@ -6508,13 +6513,13 @@
         <v>58</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>50</v>
@@ -6552,13 +6557,13 @@
         <v>60</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>55</v>
@@ -6596,19 +6601,19 @@
         <v>62</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>155</v>
@@ -6766,7 +6771,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>64</v>
@@ -6784,7 +6789,7 @@
         <v>68</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>69</v>
@@ -6906,13 +6911,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J7" s="8">
         <v>100</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6939,13 +6944,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J8" s="8">
         <v>100</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6972,13 +6977,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J9" s="8">
         <v>100</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7005,13 +7010,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J10" s="8">
         <v>100</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7038,13 +7043,13 @@
         <v>10</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J11" s="8">
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7071,13 +7076,13 @@
         <v>11</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J12" s="8">
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7104,13 +7109,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J13" s="8">
         <v>100</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7137,13 +7142,13 @@
         <v>13</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J14" s="8">
         <v>100</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7170,13 +7175,13 @@
         <v>14</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J15" s="8">
         <v>100</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7203,13 +7208,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J16" s="8">
         <v>100</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7235,13 +7240,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J17" s="8">
         <v>100</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7267,13 +7272,13 @@
         <v>17</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J18" s="8">
         <v>100</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7299,13 +7304,13 @@
         <v>18</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J19" s="8">
         <v>100</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7331,13 +7336,13 @@
         <v>19</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J20" s="8">
         <v>100</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7363,7 +7368,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>84</v>
@@ -7395,7 +7400,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>84</v>
@@ -7427,7 +7432,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>84</v>
@@ -7459,7 +7464,7 @@
         <v>23</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>84</v>
@@ -7491,7 +7496,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>84</v>
@@ -7523,7 +7528,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>84</v>
@@ -7555,13 +7560,13 @@
         <v>26</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J27" s="8">
         <v>100</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7587,13 +7592,13 @@
         <v>27</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J28" s="8">
         <v>100</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -7619,13 +7624,13 @@
         <v>28</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J29" s="8">
         <v>100</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7651,13 +7656,13 @@
         <v>29</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J30" s="8">
         <v>100</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -7683,7 +7688,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>84</v>
@@ -7715,7 +7720,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>84</v>
@@ -7747,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>84</v>
@@ -7779,7 +7784,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>84</v>
@@ -7811,7 +7816,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>84</v>
@@ -7843,7 +7848,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>84</v>
@@ -7875,13 +7880,13 @@
         <v>36</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J37" s="8">
         <v>100</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7907,13 +7912,13 @@
         <v>37</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J38" s="8">
         <v>100</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7939,13 +7944,13 @@
         <v>38</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J39" s="8">
         <v>100</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -7971,13 +7976,13 @@
         <v>39</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J40" s="8">
         <v>100</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -8003,13 +8008,13 @@
         <v>40</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J41" s="8">
         <v>100</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -8035,13 +8040,13 @@
         <v>41</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J42" s="8">
         <v>100</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -8067,13 +8072,13 @@
         <v>42</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J43" s="8">
         <v>100</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -8099,13 +8104,13 @@
         <v>43</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J44" s="8">
         <v>100</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -8131,13 +8136,13 @@
         <v>44</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J45" s="8">
         <v>100</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -8163,7 +8168,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>84</v>
@@ -8195,7 +8200,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>84</v>
@@ -8227,7 +8232,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>84</v>
@@ -8259,7 +8264,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>84</v>
@@ -8291,7 +8296,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>84</v>
@@ -8323,7 +8328,7 @@
         <v>50</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>84</v>
@@ -8355,7 +8360,7 @@
         <v>51</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>84</v>
@@ -8387,7 +8392,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>84</v>
@@ -8419,7 +8424,7 @@
         <v>53</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>84</v>
@@ -8451,7 +8456,7 @@
         <v>54</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>84</v>
@@ -8483,7 +8488,7 @@
         <v>55</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>84</v>
@@ -8515,13 +8520,13 @@
         <v>56</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J57" s="8">
         <v>100</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -8547,13 +8552,13 @@
         <v>57</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J58" s="8">
         <v>100</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -8579,13 +8584,13 @@
         <v>58</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J59" s="8">
         <v>100</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -8611,13 +8616,13 @@
         <v>59</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J60" s="8">
         <v>100</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -8643,13 +8648,13 @@
         <v>60</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J61" s="8">
         <v>100</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -8675,13 +8680,13 @@
         <v>61</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J62" s="8">
         <v>100</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -8707,13 +8712,13 @@
         <v>62</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J63" s="8">
         <v>100</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -8739,13 +8744,13 @@
         <v>63</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J64" s="8">
         <v>100</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -8771,13 +8776,13 @@
         <v>64</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J65" s="8">
         <v>100</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -8803,13 +8808,13 @@
         <v>65</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J66" s="8">
         <v>100</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -8835,13 +8840,13 @@
         <v>66</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J67" s="8">
         <v>100</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -8867,13 +8872,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J68" s="8">
         <v>100</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -8899,13 +8904,13 @@
         <v>68</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J69" s="8">
         <v>100</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -8931,13 +8936,13 @@
         <v>69</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J70" s="8">
         <v>100</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -8963,13 +8968,13 @@
         <v>70</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J71" s="8">
         <v>100</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -8995,13 +9000,13 @@
         <v>71</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J72" s="8">
         <v>100</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -9027,13 +9032,13 @@
         <v>72</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J73" s="8">
         <v>100</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -9059,13 +9064,13 @@
         <v>73</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J74" s="8">
         <v>100</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -9091,13 +9096,13 @@
         <v>74</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J75" s="8">
         <v>100</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -9123,7 +9128,7 @@
         <v>75</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>84</v>
@@ -9155,7 +9160,7 @@
         <v>76</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>84</v>
@@ -9187,7 +9192,7 @@
         <v>77</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>84</v>
@@ -9219,7 +9224,7 @@
         <v>78</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>84</v>
@@ -9251,7 +9256,7 @@
         <v>79</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>84</v>
@@ -9283,7 +9288,7 @@
         <v>80</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>84</v>
@@ -9315,7 +9320,7 @@
         <v>81</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>84</v>
@@ -9347,7 +9352,7 @@
         <v>82</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>84</v>
@@ -9379,7 +9384,7 @@
         <v>83</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>84</v>
@@ -9411,7 +9416,7 @@
         <v>84</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>84</v>
@@ -9443,7 +9448,7 @@
         <v>85</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>84</v>
@@ -9475,13 +9480,13 @@
         <v>86</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J87" s="8">
         <v>100</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -9507,13 +9512,13 @@
         <v>87</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J88" s="8">
         <v>100</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -9539,13 +9544,13 @@
         <v>88</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J89" s="8">
         <v>100</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -9571,13 +9576,13 @@
         <v>89</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J90" s="8">
         <v>100</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -9603,13 +9608,13 @@
         <v>90</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J91" s="8">
         <v>100</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -9635,13 +9640,13 @@
         <v>91</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J92" s="8">
         <v>100</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -9667,13 +9672,13 @@
         <v>92</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J93" s="8">
         <v>100</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -9699,13 +9704,13 @@
         <v>93</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J94" s="8">
         <v>100</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -9731,13 +9736,13 @@
         <v>94</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J95" s="8">
         <v>100</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -9763,13 +9768,13 @@
         <v>95</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J96" s="8">
         <v>100</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -9795,13 +9800,13 @@
         <v>96</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J97" s="8">
         <v>100</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -9827,13 +9832,13 @@
         <v>97</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J98" s="8">
         <v>100</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -9859,13 +9864,13 @@
         <v>98</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J99" s="8">
         <v>100</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -9891,13 +9896,13 @@
         <v>99</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J100" s="8">
         <v>100</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="2:11">
@@ -9923,13 +9928,13 @@
         <v>100</v>
       </c>
       <c r="I101" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J101" s="8">
         <v>100</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -9955,13 +9960,13 @@
         <v>101</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J102" s="8">
         <v>100</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -9987,13 +9992,13 @@
         <v>102</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J103" s="8">
         <v>100</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -10019,13 +10024,13 @@
         <v>103</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J104" s="8">
         <v>100</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -10051,13 +10056,13 @@
         <v>104</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J105" s="8">
         <v>100</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -10083,13 +10088,13 @@
         <v>105</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J106" s="8">
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -10115,13 +10120,13 @@
         <v>106</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J107" s="8">
         <v>100</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -10147,13 +10152,13 @@
         <v>107</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J108" s="8">
         <v>100</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -10179,13 +10184,13 @@
         <v>108</v>
       </c>
       <c r="I109" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J109" s="8">
         <v>100</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -10211,13 +10216,13 @@
         <v>109</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J110" s="8">
         <v>100</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="2:11">
@@ -10243,13 +10248,13 @@
         <v>110</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J111" s="8">
         <v>100</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -10275,13 +10280,13 @@
         <v>111</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J112" s="8">
         <v>100</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -10307,13 +10312,13 @@
         <v>112</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J113" s="8">
         <v>100</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="2:11">
@@ -10339,13 +10344,13 @@
         <v>113</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J114" s="8">
         <v>100</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="2:11">
@@ -10371,13 +10376,13 @@
         <v>114</v>
       </c>
       <c r="I115" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J115" s="8">
         <v>100</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="2:11">
@@ -10403,13 +10408,13 @@
         <v>115</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J116" s="8">
         <v>100</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="2:11">
@@ -10435,13 +10440,13 @@
         <v>116</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J117" s="8">
         <v>100</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="2:11">
@@ -10467,13 +10472,13 @@
         <v>117</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J118" s="8">
         <v>100</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="2:11">
@@ -10499,13 +10504,13 @@
         <v>118</v>
       </c>
       <c r="I119" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J119" s="8">
         <v>100</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="2:11">
@@ -10531,13 +10536,13 @@
         <v>119</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J120" s="8">
         <v>100</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -10563,13 +10568,13 @@
         <v>120</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J121" s="8">
         <v>100</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -10595,13 +10600,13 @@
         <v>121</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J122" s="8">
         <v>100</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -10627,13 +10632,13 @@
         <v>122</v>
       </c>
       <c r="I123" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J123" s="8">
         <v>100</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -10659,13 +10664,13 @@
         <v>123</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J124" s="8">
         <v>100</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -10691,13 +10696,13 @@
         <v>124</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J125" s="8">
         <v>100</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -10723,7 +10728,7 @@
         <v>125</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>84</v>
@@ -10755,7 +10760,7 @@
         <v>126</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>84</v>
@@ -10787,7 +10792,7 @@
         <v>127</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>84</v>
@@ -10819,7 +10824,7 @@
         <v>128</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>84</v>
@@ -10851,7 +10856,7 @@
         <v>129</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>84</v>
@@ -10883,7 +10888,7 @@
         <v>130</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>84</v>
@@ -10915,7 +10920,7 @@
         <v>131</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>84</v>
@@ -10947,7 +10952,7 @@
         <v>132</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>84</v>
@@ -10979,7 +10984,7 @@
         <v>133</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>84</v>
@@ -11011,7 +11016,7 @@
         <v>134</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>84</v>
@@ -11043,7 +11048,7 @@
         <v>135</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>84</v>
@@ -11075,7 +11080,7 @@
         <v>136</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>84</v>
@@ -11107,7 +11112,7 @@
         <v>137</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>84</v>
@@ -11139,7 +11144,7 @@
         <v>138</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>84</v>
@@ -11171,7 +11176,7 @@
         <v>139</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>84</v>
@@ -11203,7 +11208,7 @@
         <v>140</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>84</v>
@@ -11235,7 +11240,7 @@
         <v>141</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>84</v>
@@ -11267,7 +11272,7 @@
         <v>142</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>84</v>
@@ -11299,7 +11304,7 @@
         <v>143</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>84</v>
@@ -11331,7 +11336,7 @@
         <v>144</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>84</v>
@@ -11363,7 +11368,7 @@
         <v>145</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>84</v>
@@ -11395,13 +11400,13 @@
         <v>146</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J147" s="8">
         <v>100</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -11427,13 +11432,13 @@
         <v>147</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J148" s="8">
         <v>100</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="2:11">
@@ -11459,13 +11464,13 @@
         <v>148</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J149" s="8">
         <v>100</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="2:11">
@@ -11491,13 +11496,13 @@
         <v>149</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J150" s="8">
         <v>100</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="2:11">
@@ -11523,13 +11528,13 @@
         <v>150</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J151" s="8">
         <v>100</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="2:11">
@@ -11555,13 +11560,13 @@
         <v>151</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J152" s="8">
         <v>100</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="2:11">
@@ -11587,13 +11592,13 @@
         <v>152</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J153" s="8">
         <v>100</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="2:11">
@@ -11619,13 +11624,13 @@
         <v>153</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J154" s="8">
         <v>100</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="2:11">
@@ -11651,13 +11656,13 @@
         <v>154</v>
       </c>
       <c r="I155" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J155" s="8">
         <v>100</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="2:11">
@@ -11683,13 +11688,13 @@
         <v>155</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J156" s="8">
         <v>100</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -11715,13 +11720,13 @@
         <v>156</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J157" s="8">
         <v>100</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -11747,13 +11752,13 @@
         <v>157</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J158" s="8">
         <v>100</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -11779,13 +11784,13 @@
         <v>158</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J159" s="8">
         <v>100</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -11811,13 +11816,13 @@
         <v>159</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J160" s="8">
         <v>100</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -11843,13 +11848,13 @@
         <v>160</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J161" s="8">
         <v>100</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -11875,13 +11880,13 @@
         <v>161</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J162" s="8">
         <v>100</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="2:11">
@@ -11907,13 +11912,13 @@
         <v>162</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J163" s="8">
         <v>100</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -11939,13 +11944,13 @@
         <v>163</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J164" s="8">
         <v>100</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="2:11">
@@ -11971,13 +11976,13 @@
         <v>164</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J165" s="8">
         <v>100</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -12003,7 +12008,7 @@
         <v>165</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J166" s="8" t="s">
         <v>84</v>
@@ -12035,7 +12040,7 @@
         <v>166</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J167" s="8" t="s">
         <v>84</v>
@@ -12067,7 +12072,7 @@
         <v>167</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J168" s="8" t="s">
         <v>84</v>
@@ -12099,7 +12104,7 @@
         <v>168</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J169" s="8" t="s">
         <v>84</v>
@@ -12131,7 +12136,7 @@
         <v>169</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J170" s="8" t="s">
         <v>84</v>
@@ -12163,7 +12168,7 @@
         <v>170</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J171" s="8" t="s">
         <v>84</v>
@@ -12195,7 +12200,7 @@
         <v>171</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>84</v>
@@ -12227,7 +12232,7 @@
         <v>172</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J173" s="8" t="s">
         <v>84</v>
@@ -12259,7 +12264,7 @@
         <v>173</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J174" s="8" t="s">
         <v>84</v>
@@ -12291,7 +12296,7 @@
         <v>174</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J175" s="8" t="s">
         <v>84</v>
@@ -12323,7 +12328,7 @@
         <v>175</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>84</v>
@@ -12355,7 +12360,7 @@
         <v>176</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J177" s="8" t="s">
         <v>84</v>
@@ -12387,7 +12392,7 @@
         <v>177</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>84</v>
@@ -12419,7 +12424,7 @@
         <v>178</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J179" s="8" t="s">
         <v>84</v>
@@ -12451,7 +12456,7 @@
         <v>179</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>84</v>
@@ -12483,7 +12488,7 @@
         <v>180</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>84</v>
@@ -12515,7 +12520,7 @@
         <v>181</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>84</v>
@@ -12547,7 +12552,7 @@
         <v>182</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>84</v>
@@ -12579,7 +12584,7 @@
         <v>183</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J184" s="8" t="s">
         <v>84</v>
@@ -12611,7 +12616,7 @@
         <v>184</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>84</v>
@@ -12643,7 +12648,7 @@
         <v>185</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>84</v>
@@ -12675,7 +12680,7 @@
         <v>186</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>84</v>
@@ -12707,7 +12712,7 @@
         <v>187</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>84</v>
@@ -12739,7 +12744,7 @@
         <v>188</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>84</v>
@@ -12771,7 +12776,7 @@
         <v>189</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>84</v>
@@ -12803,7 +12808,7 @@
         <v>190</v>
       </c>
       <c r="I191" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>84</v>
@@ -12835,7 +12840,7 @@
         <v>191</v>
       </c>
       <c r="I192" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>84</v>
@@ -12867,7 +12872,7 @@
         <v>192</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J193" s="8" t="s">
         <v>84</v>
@@ -12899,7 +12904,7 @@
         <v>193</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J194" s="8" t="s">
         <v>84</v>
@@ -12931,7 +12936,7 @@
         <v>194</v>
       </c>
       <c r="I195" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>84</v>
@@ -12963,7 +12968,7 @@
         <v>195</v>
       </c>
       <c r="I196" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>84</v>
@@ -12995,7 +13000,7 @@
         <v>196</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>84</v>
@@ -13027,7 +13032,7 @@
         <v>197</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>84</v>
@@ -13059,7 +13064,7 @@
         <v>198</v>
       </c>
       <c r="I199" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>84</v>
@@ -13091,7 +13096,7 @@
         <v>199</v>
       </c>
       <c r="I200" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>84</v>
@@ -13123,7 +13128,7 @@
         <v>200</v>
       </c>
       <c r="I201" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>84</v>
@@ -13155,7 +13160,7 @@
         <v>201</v>
       </c>
       <c r="I202" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>84</v>
@@ -13187,7 +13192,7 @@
         <v>202</v>
       </c>
       <c r="I203" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>84</v>
@@ -13219,7 +13224,7 @@
         <v>203</v>
       </c>
       <c r="I204" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>84</v>
@@ -13251,7 +13256,7 @@
         <v>204</v>
       </c>
       <c r="I205" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>84</v>
@@ -13283,7 +13288,7 @@
         <v>205</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>84</v>
@@ -13315,13 +13320,13 @@
         <v>206</v>
       </c>
       <c r="I207" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J207" s="8">
         <v>100</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="2:11">
@@ -13347,13 +13352,13 @@
         <v>207</v>
       </c>
       <c r="I208" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J208" s="8">
         <v>100</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="2:11">
@@ -13379,13 +13384,13 @@
         <v>208</v>
       </c>
       <c r="I209" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J209" s="8">
         <v>100</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="2:11">
@@ -13411,13 +13416,13 @@
         <v>209</v>
       </c>
       <c r="I210" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J210" s="8">
         <v>100</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="2:11">
@@ -13443,13 +13448,13 @@
         <v>210</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J211" s="8">
         <v>100</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="2:11">
@@ -13475,13 +13480,13 @@
         <v>211</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J212" s="8">
         <v>100</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="2:11">
@@ -13507,13 +13512,13 @@
         <v>212</v>
       </c>
       <c r="I213" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J213" s="8">
         <v>100</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214" spans="2:11">
@@ -13539,13 +13544,13 @@
         <v>213</v>
       </c>
       <c r="I214" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J214" s="8">
         <v>100</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="2:11">
@@ -13571,13 +13576,13 @@
         <v>214</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J215" s="8">
         <v>100</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" spans="2:11">
@@ -13603,13 +13608,13 @@
         <v>215</v>
       </c>
       <c r="I216" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J216" s="8">
         <v>100</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="2:11">
@@ -13635,13 +13640,13 @@
         <v>216</v>
       </c>
       <c r="I217" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J217" s="8">
         <v>100</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="2:11">
@@ -13667,13 +13672,13 @@
         <v>217</v>
       </c>
       <c r="I218" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J218" s="8">
         <v>100</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="2:11">
@@ -13699,13 +13704,13 @@
         <v>218</v>
       </c>
       <c r="I219" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J219" s="8">
         <v>100</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="2:11">
@@ -13731,13 +13736,13 @@
         <v>219</v>
       </c>
       <c r="I220" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J220" s="8">
         <v>100</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="2:11">
@@ -13763,13 +13768,13 @@
         <v>220</v>
       </c>
       <c r="I221" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J221" s="8">
         <v>100</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="2:11">
@@ -13795,13 +13800,13 @@
         <v>221</v>
       </c>
       <c r="I222" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J222" s="8">
         <v>100</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="2:11">
@@ -13827,13 +13832,13 @@
         <v>222</v>
       </c>
       <c r="I223" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J223" s="8">
         <v>100</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224" spans="2:11">
@@ -13859,13 +13864,13 @@
         <v>223</v>
       </c>
       <c r="I224" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J224" s="8">
         <v>100</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="2:11">
@@ -13891,13 +13896,13 @@
         <v>224</v>
       </c>
       <c r="I225" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J225" s="8">
         <v>100</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="2:11">
@@ -13923,13 +13928,13 @@
         <v>225</v>
       </c>
       <c r="I226" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J226" s="8">
         <v>100</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="2:11">
@@ -13955,13 +13960,13 @@
         <v>226</v>
       </c>
       <c r="I227" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J227" s="8">
         <v>100</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="2:11">
@@ -13987,13 +13992,13 @@
         <v>227</v>
       </c>
       <c r="I228" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J228" s="8">
         <v>100</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="2:11">
@@ -14019,13 +14024,13 @@
         <v>228</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J229" s="8">
         <v>100</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="2:11">
@@ -14051,13 +14056,13 @@
         <v>229</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J230" s="8">
         <v>100</v>
       </c>
       <c r="K230" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="2:11">
@@ -14083,13 +14088,13 @@
         <v>230</v>
       </c>
       <c r="I231" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J231" s="8">
         <v>100</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="2:11">
@@ -14115,13 +14120,13 @@
         <v>231</v>
       </c>
       <c r="I232" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J232" s="8">
         <v>100</v>
       </c>
       <c r="K232" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="2:11">
@@ -14147,13 +14152,13 @@
         <v>232</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J233" s="8">
         <v>100</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="2:11">
@@ -14179,13 +14184,13 @@
         <v>233</v>
       </c>
       <c r="I234" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J234" s="8">
         <v>100</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="235" spans="2:11">
@@ -14211,13 +14216,13 @@
         <v>234</v>
       </c>
       <c r="I235" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J235" s="8">
         <v>100</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="236" spans="2:11">
@@ -14243,13 +14248,13 @@
         <v>235</v>
       </c>
       <c r="I236" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J236" s="8">
         <v>100</v>
       </c>
       <c r="K236" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="237" spans="2:11">
@@ -14275,13 +14280,13 @@
         <v>236</v>
       </c>
       <c r="I237" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J237" s="8">
         <v>100</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="238" spans="2:11">
@@ -14307,13 +14312,13 @@
         <v>237</v>
       </c>
       <c r="I238" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J238" s="8">
         <v>100</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="239" spans="2:11">
@@ -14339,13 +14344,13 @@
         <v>238</v>
       </c>
       <c r="I239" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J239" s="8">
         <v>100</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="240" spans="2:11">
@@ -14371,13 +14376,13 @@
         <v>239</v>
       </c>
       <c r="I240" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J240" s="8">
         <v>100</v>
       </c>
       <c r="K240" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="2:11">
@@ -14403,13 +14408,13 @@
         <v>240</v>
       </c>
       <c r="I241" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J241" s="8">
         <v>100</v>
       </c>
       <c r="K241" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="2:11">
@@ -14435,13 +14440,13 @@
         <v>241</v>
       </c>
       <c r="I242" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J242" s="8">
         <v>100</v>
       </c>
       <c r="K242" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="2:11">
@@ -14467,13 +14472,13 @@
         <v>242</v>
       </c>
       <c r="I243" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J243" s="8">
         <v>100</v>
       </c>
       <c r="K243" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="2:11">
@@ -14499,13 +14504,13 @@
         <v>243</v>
       </c>
       <c r="I244" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J244" s="8">
         <v>100</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="2:11">
@@ -14531,13 +14536,13 @@
         <v>244</v>
       </c>
       <c r="I245" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J245" s="8">
         <v>100</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="2:11">
@@ -14563,13 +14568,13 @@
         <v>245</v>
       </c>
       <c r="I246" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J246" s="8">
         <v>100</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="2:11">
@@ -14595,13 +14600,13 @@
         <v>246</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J247" s="8">
         <v>100</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" spans="2:11">
@@ -14627,13 +14632,13 @@
         <v>247</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J248" s="8">
         <v>100</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="249" spans="2:11">
@@ -14659,13 +14664,13 @@
         <v>248</v>
       </c>
       <c r="I249" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J249" s="8">
         <v>100</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="250" spans="2:11">
@@ -14691,13 +14696,13 @@
         <v>249</v>
       </c>
       <c r="I250" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J250" s="8">
         <v>100</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="2:11">
@@ -14723,13 +14728,13 @@
         <v>250</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J251" s="8">
         <v>100</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="252" spans="2:11">
@@ -14755,13 +14760,13 @@
         <v>251</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J252" s="8">
         <v>100</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="253" spans="2:11">
@@ -14787,13 +14792,13 @@
         <v>252</v>
       </c>
       <c r="I253" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J253" s="8">
         <v>100</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="254" spans="2:11">
@@ -14819,13 +14824,13 @@
         <v>253</v>
       </c>
       <c r="I254" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J254" s="8">
         <v>100</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" spans="2:11">
@@ -14851,13 +14856,13 @@
         <v>254</v>
       </c>
       <c r="I255" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J255" s="8">
         <v>100</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" spans="2:11">
@@ -14883,13 +14888,13 @@
         <v>255</v>
       </c>
       <c r="I256" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J256" s="8">
         <v>100</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="258" spans="3:3">
@@ -15048,7 +15053,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>178</v>
@@ -15132,10 +15137,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -15172,7 +15177,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>118</v>
@@ -15216,7 +15221,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>120</v>
@@ -15260,7 +15265,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>122</v>
@@ -15304,7 +15309,7 @@
         <v>124</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>124</v>
@@ -15348,7 +15353,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>126</v>
@@ -15392,7 +15397,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>128</v>
@@ -15436,7 +15441,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>130</v>
@@ -15480,7 +15485,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>132</v>
@@ -15524,7 +15529,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>134</v>
@@ -15639,7 +15644,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -15790,7 +15795,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>141</v>
@@ -15809,7 +15814,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>141</v>
@@ -15828,7 +15833,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>141</v>
@@ -15847,7 +15852,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>141</v>
@@ -15866,7 +15871,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>141</v>
@@ -15885,7 +15890,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>141</v>
@@ -15904,7 +15909,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>141</v>
@@ -15923,7 +15928,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>141</v>
@@ -15942,7 +15947,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>141</v>
@@ -15961,7 +15966,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>141</v>
@@ -15980,7 +15985,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>141</v>
@@ -15999,7 +16004,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>141</v>
@@ -16016,7 +16021,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>141</v>
@@ -16033,7 +16038,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>141</v>
@@ -16050,7 +16055,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>141</v>
@@ -16067,7 +16072,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>141</v>
@@ -16084,7 +16089,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>141</v>
@@ -16101,7 +16106,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>141</v>
@@ -16118,7 +16123,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>141</v>
@@ -16172,10 +16177,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="H1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
@@ -16192,39 +16197,39 @@
         <v>4</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>256</v>
-      </c>
       <c r="K3" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
@@ -16236,31 +16241,31 @@
         <v>20</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16274,31 +16279,31 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>82</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>33</v>
@@ -16316,7 +16321,7 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -16326,7 +16331,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16334,13 +16339,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F7" s="20" t="b">
         <v>0</v>
@@ -16349,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I7" s="20">
         <v>0.03</v>
@@ -16364,7 +16369,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16372,13 +16377,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F8" s="20" t="b">
         <v>0</v>
@@ -16387,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I8" s="20">
         <v>0.03</v>
@@ -16402,7 +16407,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16410,13 +16415,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F9" s="20" t="b">
         <v>0</v>
@@ -16425,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I9" s="20">
         <v>0.03</v>
@@ -16440,7 +16445,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16448,13 +16453,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F10" s="20" t="b">
         <v>0</v>
@@ -16463,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I10" s="20">
         <v>0.03</v>
@@ -16478,7 +16483,7 @@
         <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16486,13 +16491,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F11" s="20" t="b">
         <v>0</v>
@@ -16501,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I11" s="20">
         <v>0.03</v>
@@ -16516,7 +16521,7 @@
         <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16524,13 +16529,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F12" s="20" t="b">
         <v>0</v>
@@ -16539,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I12" s="20">
         <v>0.03</v>
@@ -16554,7 +16559,7 @@
         <v>200</v>
       </c>
       <c r="M12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -16562,13 +16567,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>1</v>
@@ -16577,7 +16582,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I13" s="20">
         <v>0.15</v>
@@ -16592,7 +16597,7 @@
         <v>200</v>
       </c>
       <c r="M13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16600,13 +16605,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F14" s="20" t="b">
         <v>1</v>
@@ -16615,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I14" s="20">
         <v>0.15</v>
@@ -16630,7 +16635,7 @@
         <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16638,13 +16643,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F15" s="20" t="b">
         <v>1</v>
@@ -16653,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I15" s="20">
         <v>0.15</v>
@@ -16668,7 +16673,7 @@
         <v>200</v>
       </c>
       <c r="M15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16676,13 +16681,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F16" s="20" t="b">
         <v>1</v>
@@ -16691,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I16" s="20">
         <v>0.15</v>
@@ -16706,7 +16711,7 @@
         <v>200</v>
       </c>
       <c r="M16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -16714,13 +16719,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F17" s="20" t="b">
         <v>1</v>
@@ -16729,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I17" s="20">
         <v>0.15</v>
@@ -16744,7 +16749,7 @@
         <v>200</v>
       </c>
       <c r="M17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -16752,13 +16757,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F18" s="20" t="b">
         <v>1</v>
@@ -16767,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I18" s="20">
         <v>0.15</v>
@@ -16782,7 +16787,7 @@
         <v>200</v>
       </c>
       <c r="M18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -16790,13 +16795,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="20" t="b">
         <v>0</v>
@@ -16805,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I19" s="20">
         <v>0.03</v>
@@ -16820,7 +16825,7 @@
         <v>200</v>
       </c>
       <c r="M19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -16828,13 +16833,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F20" s="20" t="b">
         <v>0</v>
@@ -16843,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20" s="20">
         <v>0.03</v>
@@ -16858,7 +16863,7 @@
         <v>200</v>
       </c>
       <c r="M20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -16866,13 +16871,13 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F21" s="20" t="b">
         <v>0</v>
@@ -16881,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I21" s="20">
         <v>0.03</v>
@@ -16896,7 +16901,7 @@
         <v>200</v>
       </c>
       <c r="M21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -16904,13 +16909,13 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F22" s="20" t="b">
         <v>0</v>
@@ -16919,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I22" s="20">
         <v>0.03</v>
@@ -16934,7 +16939,7 @@
         <v>200</v>
       </c>
       <c r="M22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -16942,13 +16947,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F23" s="20" t="b">
         <v>0</v>
@@ -16957,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I23" s="20">
         <v>0.03</v>
@@ -16972,7 +16977,7 @@
         <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -16980,13 +16985,13 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F24" s="20" t="b">
         <v>0</v>
@@ -16995,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I24" s="20">
         <v>0.03</v>
@@ -17010,7 +17015,7 @@
         <v>200</v>
       </c>
       <c r="M24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -17018,13 +17023,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F25" s="20" t="b">
         <v>1</v>
@@ -17033,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I25" s="20">
         <v>0.15</v>
@@ -17048,7 +17053,7 @@
         <v>200</v>
       </c>
       <c r="M25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -17056,13 +17061,13 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F26" s="20" t="b">
         <v>1</v>
@@ -17071,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I26" s="20">
         <v>0.15</v>
@@ -17086,7 +17091,7 @@
         <v>200</v>
       </c>
       <c r="M26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -17094,13 +17099,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="20" t="b">
         <v>1</v>
@@ -17109,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" s="20">
         <v>0.15</v>
@@ -17124,7 +17129,7 @@
         <v>200</v>
       </c>
       <c r="M27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -17132,13 +17137,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F28" s="20" t="b">
         <v>1</v>
@@ -17147,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I28" s="20">
         <v>0.15</v>
@@ -17162,7 +17167,7 @@
         <v>200</v>
       </c>
       <c r="M28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -17170,13 +17175,13 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F29" s="20" t="b">
         <v>1</v>
@@ -17185,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I29" s="20">
         <v>0.15</v>
@@ -17200,7 +17205,7 @@
         <v>200</v>
       </c>
       <c r="M29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -17208,13 +17213,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F30" s="20" t="b">
         <v>1</v>
@@ -17223,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" s="20">
         <v>0.15</v>
@@ -17238,7 +17243,7 @@
         <v>200</v>
       </c>
       <c r="M30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -17246,13 +17251,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F31" s="20" t="b">
         <v>0</v>
@@ -17261,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I31" s="20">
         <v>0.03</v>
@@ -17276,7 +17281,7 @@
         <v>200</v>
       </c>
       <c r="M31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -17284,13 +17289,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F32" s="20" t="b">
         <v>0</v>
@@ -17299,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I32" s="20">
         <v>0.03</v>
@@ -17314,7 +17319,7 @@
         <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -17322,13 +17327,13 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F33" s="20" t="b">
         <v>0</v>
@@ -17337,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I33" s="20">
         <v>0.03</v>
@@ -17352,7 +17357,7 @@
         <v>200</v>
       </c>
       <c r="M33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -17360,13 +17365,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F34" s="20" t="b">
         <v>0</v>
@@ -17375,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I34" s="20">
         <v>0.03</v>
@@ -17390,7 +17395,7 @@
         <v>200</v>
       </c>
       <c r="M34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -17398,13 +17403,13 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F35" s="20" t="b">
         <v>0</v>
@@ -17413,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I35" s="20">
         <v>0.03</v>
@@ -17428,7 +17433,7 @@
         <v>200</v>
       </c>
       <c r="M35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -17436,13 +17441,13 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F36" s="20" t="b">
         <v>0</v>
@@ -17451,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I36" s="20">
         <v>0.03</v>
@@ -17466,7 +17471,7 @@
         <v>200</v>
       </c>
       <c r="M36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -17474,13 +17479,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F37" s="20" t="b">
         <v>1</v>
@@ -17489,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I37" s="20">
         <v>0.15</v>
@@ -17504,7 +17509,7 @@
         <v>200</v>
       </c>
       <c r="M37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -17512,13 +17517,13 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F38" s="20" t="b">
         <v>1</v>
@@ -17527,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I38" s="20">
         <v>0.15</v>
@@ -17542,7 +17547,7 @@
         <v>200</v>
       </c>
       <c r="M38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -17550,13 +17555,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F39" s="20" t="b">
         <v>1</v>
@@ -17565,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I39" s="20">
         <v>0.15</v>
@@ -17580,7 +17585,7 @@
         <v>200</v>
       </c>
       <c r="M39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -17588,13 +17593,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F40" s="20" t="b">
         <v>1</v>
@@ -17603,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I40" s="20">
         <v>0.15</v>
@@ -17618,7 +17623,7 @@
         <v>200</v>
       </c>
       <c r="M40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -17626,13 +17631,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F41" s="20" t="b">
         <v>1</v>
@@ -17641,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I41" s="20">
         <v>0.15</v>
@@ -17656,7 +17661,7 @@
         <v>200</v>
       </c>
       <c r="M41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -17664,13 +17669,13 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F42" s="20" t="b">
         <v>1</v>
@@ -17679,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I42" s="20">
         <v>0.15</v>
@@ -17694,7 +17699,7 @@
         <v>200</v>
       </c>
       <c r="M42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -17702,13 +17707,13 @@
         <v>37</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F43" s="20" t="b">
         <v>0</v>
@@ -17717,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I43" s="20">
         <v>0.03</v>
@@ -17732,7 +17737,7 @@
         <v>200</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -17740,13 +17745,13 @@
         <v>38</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F44" s="20" t="b">
         <v>0</v>
@@ -17755,7 +17760,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I44" s="20">
         <v>0.03</v>
@@ -17770,7 +17775,7 @@
         <v>200</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -17778,13 +17783,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F45" s="20" t="b">
         <v>0</v>
@@ -17793,7 +17798,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I45" s="20">
         <v>0.03</v>
@@ -17808,7 +17813,7 @@
         <v>200</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -17816,13 +17821,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F46" s="20" t="b">
         <v>1</v>
@@ -17831,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I46" s="20">
         <v>0.15</v>
@@ -17846,7 +17851,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -17854,13 +17859,13 @@
         <v>41</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F47" s="20" t="b">
         <v>1</v>
@@ -17869,7 +17874,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I47" s="20">
         <v>0.15</v>
@@ -17884,7 +17889,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -17892,13 +17897,13 @@
         <v>42</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F48" s="20" t="b">
         <v>1</v>
@@ -17907,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I48" s="20">
         <v>0.15</v>
@@ -17922,7 +17927,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A8D6E-67DD-CC40-B619-725285EE2872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E3CA9-D239-E843-86D5-E54FE213B4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="557">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3399,6 +3399,10 @@
   </si>
   <si>
     <t>时装23</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4197,10 +4201,10 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4541,7 +4545,9 @@
       <c r="K7" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M7" s="37" t="s">
         <v>144</v>
       </c>
@@ -4887,7 +4893,9 @@
       <c r="K12" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M12" s="37" t="s">
         <v>149</v>
       </c>
@@ -5299,7 +5307,9 @@
       <c r="K18" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M18" s="37" t="s">
         <v>149</v>
       </c>
@@ -5366,7 +5376,9 @@
       <c r="K19" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L19" s="37"/>
+      <c r="L19" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M19" s="37" t="s">
         <v>149</v>
       </c>
@@ -5433,7 +5445,9 @@
       <c r="K20" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M20" s="37" t="s">
         <v>149</v>
       </c>
@@ -5569,7 +5583,9 @@
       <c r="K22" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L22" s="37"/>
+      <c r="L22" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M22" s="37" t="s">
         <v>149</v>
       </c>
@@ -5636,7 +5652,9 @@
       <c r="K23" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L23" s="37"/>
+      <c r="L23" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M23" s="37" t="s">
         <v>149</v>
       </c>
@@ -6048,7 +6066,9 @@
       <c r="K29" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L29" s="37"/>
+      <c r="L29" s="39" t="s">
+        <v>556</v>
+      </c>
       <c r="M29" s="37" t="s">
         <v>149</v>
       </c>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E3CA9-D239-E843-86D5-E54FE213B4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283ABDA7-09A3-6448-9864-1AB0F6C6A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,10 +956,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>时装3//时装4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>势力6</t>
@@ -3342,67 +3338,71 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装1//时装2</t>
+    <t>时装0</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装7//时装8</t>
+    <t>时装0//时装7//时装8</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装5//时装6</t>
+    <t>时装0//时装21</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装9//时装10</t>
+    <t>时装0//时装11//时装12</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装11//时装12</t>
+    <t>时装0//时装24</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装13//时装14</t>
+    <t>时装0//时装23</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装15//时装16</t>
+    <t>时装0//时装5//时装6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装17</t>
+    <t>时装0//时装13//时装14</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装18</t>
+    <t>时装0//时装19</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装19</t>
+    <t>时装0//时装18</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装20</t>
+    <t>时装0//时装1//时装2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装21</t>
+    <t>时装0//时装3//时装4</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装22</t>
+    <t>时装0//时装22</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装24</t>
+    <t>时装0//时装9//时装10</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装23</t>
+    <t>时装0//时装15//时装16</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>时装0</t>
+    <t>时装0//时装20</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装0//时装17</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4204,7 +4204,7 @@
       <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4258,10 +4258,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>7</v>
@@ -4291,25 +4291,25 @@
         <v>15</v>
       </c>
       <c r="Q3" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>320</v>
-      </c>
       <c r="T3" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -4329,10 +4329,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>22</v>
@@ -4365,22 +4365,22 @@
         <v>153</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4394,16 +4394,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>33</v>
@@ -4445,13 +4445,13 @@
         <v>33</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V5" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -4467,10 +4467,10 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>40</v>
@@ -4504,10 +4504,10 @@
         <v>42</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U6" s="32"/>
       <c r="V6" s="32"/>
@@ -4528,25 +4528,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>62</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>144</v>
@@ -4555,7 +4555,7 @@
         <v>155</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>56</v>
@@ -4568,16 +4568,16 @@
         <v>凯莉画像</v>
       </c>
       <c r="S7" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T7" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U7" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V7" s="45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W7" s="42" t="s">
         <v>140</v>
@@ -4598,25 +4598,25 @@
         <v>2</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K8" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>146</v>
@@ -4625,7 +4625,7 @@
         <v>155</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>52</v>
@@ -4638,16 +4638,16 @@
         <v>杰西卡画像</v>
       </c>
       <c r="S8" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T8" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T8" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U8" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W8" s="42" t="s">
         <v>141</v>
@@ -4668,25 +4668,25 @@
         <v>2</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="M9" s="37" t="s">
         <v>148</v>
@@ -4695,7 +4695,7 @@
         <v>155</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P9" s="40" t="s">
         <v>161</v>
@@ -4708,16 +4708,16 @@
         <v>伊丽莎白画像</v>
       </c>
       <c r="S9" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T9" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T9" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U9" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W9" s="42" t="s">
         <v>140</v>
@@ -4738,25 +4738,25 @@
         <v>2</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M10" s="37" t="s">
         <v>147</v>
@@ -4765,7 +4765,7 @@
         <v>155</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P10" s="40" t="s">
         <v>162</v>
@@ -4778,16 +4778,16 @@
         <v>伊芙琳画像</v>
       </c>
       <c r="S10" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T10" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U10" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V10" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W10" s="42" t="s">
         <v>141</v>
@@ -4807,25 +4807,25 @@
         <v>2</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="M11" s="37" t="s">
         <v>149</v>
@@ -4834,7 +4834,7 @@
         <v>155</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>216</v>
@@ -4847,16 +4847,16 @@
         <v>娜塔莉画像</v>
       </c>
       <c r="S11" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T11" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T11" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U11" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V11" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W11" s="42" t="s">
         <v>141</v>
@@ -4876,25 +4876,25 @@
         <v>2</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M12" s="37" t="s">
         <v>149</v>
@@ -4903,7 +4903,7 @@
         <v>155</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P12" s="39" t="s">
         <v>217</v>
@@ -4916,16 +4916,16 @@
         <v>娜斯提娅画像</v>
       </c>
       <c r="S12" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T12" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T12" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U12" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W12" s="42" t="s">
         <v>141</v>
@@ -4945,25 +4945,25 @@
         <v>2</v>
       </c>
       <c r="F13" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>518</v>
-      </c>
       <c r="K13" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>149</v>
@@ -4972,7 +4972,7 @@
         <v>155</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>219</v>
@@ -4985,16 +4985,16 @@
         <v>伊莎贝拉画像</v>
       </c>
       <c r="S13" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T13" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T13" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U13" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W13" s="42" t="s">
         <v>141</v>
@@ -5014,25 +5014,25 @@
         <v>2</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>149</v>
@@ -5041,7 +5041,7 @@
         <v>155</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>220</v>
@@ -5054,16 +5054,16 @@
         <v>海蒂画像</v>
       </c>
       <c r="S14" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T14" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T14" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U14" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W14" s="42" t="s">
         <v>141</v>
@@ -5083,25 +5083,25 @@
         <v>2</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>149</v>
@@ -5110,7 +5110,7 @@
         <v>155</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>221</v>
@@ -5123,16 +5123,16 @@
         <v>中岛希子画像</v>
       </c>
       <c r="S15" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T15" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T15" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U15" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W15" s="42" t="s">
         <v>141</v>
@@ -5152,25 +5152,25 @@
         <v>2</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>149</v>
@@ -5179,7 +5179,7 @@
         <v>155</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P16" s="39" t="s">
         <v>225</v>
@@ -5192,16 +5192,16 @@
         <v>Rose画像</v>
       </c>
       <c r="S16" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T16" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T16" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U16" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V16" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W16" s="42" t="s">
         <v>141</v>
@@ -5221,22 +5221,22 @@
         <v>2</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>58</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L17" s="39" t="s">
         <v>549</v>
@@ -5248,7 +5248,7 @@
         <v>155</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P17" s="39" t="s">
         <v>215</v>
@@ -5261,16 +5261,16 @@
         <v>莉莉画像</v>
       </c>
       <c r="S17" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T17" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T17" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U17" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W17" s="42" t="s">
         <v>141</v>
@@ -5290,25 +5290,25 @@
         <v>2</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>149</v>
@@ -5317,7 +5317,7 @@
         <v>155</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P18" s="39" t="s">
         <v>224</v>
@@ -5330,16 +5330,16 @@
         <v>章亦灵画像</v>
       </c>
       <c r="S18" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T18" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T18" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U18" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V18" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W18" s="42" t="s">
         <v>141</v>
@@ -5359,25 +5359,25 @@
         <v>2</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M19" s="37" t="s">
         <v>149</v>
@@ -5386,7 +5386,7 @@
         <v>155</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P19" s="39" t="s">
         <v>218</v>
@@ -5399,16 +5399,16 @@
         <v>莫妮卡画像</v>
       </c>
       <c r="S19" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T19" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T19" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U19" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V19" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W19" s="42" t="s">
         <v>141</v>
@@ -5428,25 +5428,25 @@
         <v>2</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>149</v>
@@ -5455,7 +5455,7 @@
         <v>155</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P20" s="39" t="s">
         <v>222</v>
@@ -5468,16 +5468,16 @@
         <v>艾玛画像</v>
       </c>
       <c r="S20" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T20" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T20" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U20" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V20" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W20" s="42" t="s">
         <v>141</v>
@@ -5497,25 +5497,25 @@
         <v>2</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>149</v>
@@ -5524,7 +5524,7 @@
         <v>155</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>226</v>
@@ -5537,16 +5537,16 @@
         <v>艾米画像</v>
       </c>
       <c r="S21" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T21" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T21" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U21" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W21" s="42" t="s">
         <v>141</v>
@@ -5566,25 +5566,25 @@
         <v>2</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>149</v>
@@ -5593,7 +5593,7 @@
         <v>155</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>230</v>
@@ -5606,16 +5606,16 @@
         <v>邦妮画像</v>
       </c>
       <c r="S22" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T22" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T22" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U22" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V22" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W22" s="42" t="s">
         <v>141</v>
@@ -5635,25 +5635,25 @@
         <v>2</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K23" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>149</v>
@@ -5662,7 +5662,7 @@
         <v>155</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>223</v>
@@ -5675,16 +5675,16 @@
         <v>艾琳娜画像</v>
       </c>
       <c r="S23" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T23" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T23" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U23" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V23" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W23" s="42" t="s">
         <v>141</v>
@@ -5704,25 +5704,25 @@
         <v>2</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>266</v>
+        <v>551</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>149</v>
@@ -5731,7 +5731,7 @@
         <v>155</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>227</v>
@@ -5744,16 +5744,16 @@
         <v>菲欧娜画像</v>
       </c>
       <c r="S24" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T24" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T24" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U24" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V24" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W24" s="42" t="s">
         <v>141</v>
@@ -5773,25 +5773,25 @@
         <v>2</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>149</v>
@@ -5800,7 +5800,7 @@
         <v>155</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>229</v>
@@ -5813,16 +5813,16 @@
         <v>苏珊画像</v>
       </c>
       <c r="S25" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T25" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T25" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U25" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V25" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W25" s="42" t="s">
         <v>141</v>
@@ -5842,25 +5842,25 @@
         <v>2</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="M26" s="37" t="s">
         <v>149</v>
@@ -5869,7 +5869,7 @@
         <v>155</v>
       </c>
       <c r="O26" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>231</v>
@@ -5882,16 +5882,16 @@
         <v>琳恩画像</v>
       </c>
       <c r="S26" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T26" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T26" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U26" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V26" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W26" s="42" t="s">
         <v>141</v>
@@ -5902,34 +5902,34 @@
         <v>22061</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="37">
         <v>2</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K27" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>149</v>
@@ -5938,29 +5938,29 @@
         <v>155</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P27" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q27" s="39" t="s">
         <v>349</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>350</v>
       </c>
       <c r="R27" s="41" t="str">
         <f t="shared" si="0"/>
         <v>维多利亚画像</v>
       </c>
       <c r="S27" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T27" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T27" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U27" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V27" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W27" s="42" t="s">
         <v>141</v>
@@ -5980,25 +5980,25 @@
         <v>2</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>149</v>
@@ -6007,7 +6007,7 @@
         <v>155</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P28" s="39" t="s">
         <v>228</v>
@@ -6020,16 +6020,16 @@
         <v>索菲亚画像</v>
       </c>
       <c r="S28" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T28" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T28" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U28" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W28" s="42" t="s">
         <v>141</v>
@@ -6049,25 +6049,25 @@
         <v>2</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>149</v>
@@ -6076,7 +6076,7 @@
         <v>155</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P29" s="40" t="s">
         <v>163</v>
@@ -6089,16 +6089,16 @@
         <v>佐伊画像</v>
       </c>
       <c r="S29" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T29" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T29" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U29" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W29" s="42" t="s">
         <v>141</v>
@@ -6109,7 +6109,7 @@
         <v>23031</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>204</v>
@@ -6118,25 +6118,25 @@
         <v>2</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L30" s="39" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="M30" s="37" t="s">
         <v>149</v>
@@ -6145,10 +6145,10 @@
         <v>155</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P30" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q30" s="39" t="s">
         <v>204</v>
@@ -6158,16 +6158,16 @@
         <v>爱丽丝画像</v>
       </c>
       <c r="S30" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T30" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="T30" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="U30" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V30" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W30" s="42" t="s">
         <v>141</v>
@@ -6205,7 +6205,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>21</v>
@@ -6328,7 +6328,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>34</v>
@@ -6433,13 +6433,13 @@
         <v>54</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>55</v>
@@ -6483,13 +6483,13 @@
         <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>50</v>
@@ -6533,13 +6533,13 @@
         <v>58</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>50</v>
@@ -6577,13 +6577,13 @@
         <v>60</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>55</v>
@@ -6621,19 +6621,19 @@
         <v>62</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>155</v>
@@ -6791,7 +6791,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>64</v>
@@ -6809,7 +6809,7 @@
         <v>68</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>69</v>
@@ -6931,13 +6931,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J7" s="8">
         <v>100</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6964,13 +6964,13 @@
         <v>7</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J8" s="8">
         <v>100</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6997,13 +6997,13 @@
         <v>8</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J9" s="8">
         <v>100</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7030,13 +7030,13 @@
         <v>9</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J10" s="8">
         <v>100</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7063,13 +7063,13 @@
         <v>10</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J11" s="8">
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7096,13 +7096,13 @@
         <v>11</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J12" s="8">
         <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7129,13 +7129,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J13" s="8">
         <v>100</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7162,13 +7162,13 @@
         <v>13</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J14" s="8">
         <v>100</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7195,13 +7195,13 @@
         <v>14</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J15" s="8">
         <v>100</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7228,13 +7228,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J16" s="8">
         <v>100</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7260,13 +7260,13 @@
         <v>16</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J17" s="8">
         <v>100</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7292,13 +7292,13 @@
         <v>17</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J18" s="8">
         <v>100</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7324,13 +7324,13 @@
         <v>18</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J19" s="8">
         <v>100</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7356,13 +7356,13 @@
         <v>19</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J20" s="8">
         <v>100</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7388,7 +7388,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>84</v>
@@ -7420,7 +7420,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>84</v>
@@ -7452,7 +7452,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>84</v>
@@ -7484,7 +7484,7 @@
         <v>23</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>84</v>
@@ -7516,7 +7516,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>84</v>
@@ -7548,7 +7548,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>84</v>
@@ -7580,13 +7580,13 @@
         <v>26</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J27" s="8">
         <v>100</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7612,13 +7612,13 @@
         <v>27</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J28" s="8">
         <v>100</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="2:11">
@@ -7644,13 +7644,13 @@
         <v>28</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J29" s="8">
         <v>100</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7676,13 +7676,13 @@
         <v>29</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J30" s="8">
         <v>100</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -7708,7 +7708,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>84</v>
@@ -7740,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>84</v>
@@ -7772,7 +7772,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>84</v>
@@ -7804,7 +7804,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>84</v>
@@ -7836,7 +7836,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>84</v>
@@ -7868,7 +7868,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>84</v>
@@ -7900,13 +7900,13 @@
         <v>36</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J37" s="8">
         <v>100</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7932,13 +7932,13 @@
         <v>37</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J38" s="8">
         <v>100</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7964,13 +7964,13 @@
         <v>38</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J39" s="8">
         <v>100</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -7996,13 +7996,13 @@
         <v>39</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J40" s="8">
         <v>100</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -8028,13 +8028,13 @@
         <v>40</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J41" s="8">
         <v>100</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -8060,13 +8060,13 @@
         <v>41</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J42" s="8">
         <v>100</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -8092,13 +8092,13 @@
         <v>42</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J43" s="8">
         <v>100</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -8124,13 +8124,13 @@
         <v>43</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J44" s="8">
         <v>100</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -8156,13 +8156,13 @@
         <v>44</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J45" s="8">
         <v>100</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -8188,7 +8188,7 @@
         <v>45</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>84</v>
@@ -8220,7 +8220,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>84</v>
@@ -8252,7 +8252,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>84</v>
@@ -8284,7 +8284,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>84</v>
@@ -8316,7 +8316,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>84</v>
@@ -8348,7 +8348,7 @@
         <v>50</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>84</v>
@@ -8380,7 +8380,7 @@
         <v>51</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>84</v>
@@ -8412,7 +8412,7 @@
         <v>52</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>84</v>
@@ -8444,7 +8444,7 @@
         <v>53</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>84</v>
@@ -8476,7 +8476,7 @@
         <v>54</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>84</v>
@@ -8508,7 +8508,7 @@
         <v>55</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>84</v>
@@ -8540,13 +8540,13 @@
         <v>56</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J57" s="8">
         <v>100</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -8572,13 +8572,13 @@
         <v>57</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J58" s="8">
         <v>100</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -8604,13 +8604,13 @@
         <v>58</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J59" s="8">
         <v>100</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -8636,13 +8636,13 @@
         <v>59</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J60" s="8">
         <v>100</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -8668,13 +8668,13 @@
         <v>60</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J61" s="8">
         <v>100</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -8700,13 +8700,13 @@
         <v>61</v>
       </c>
       <c r="I62" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J62" s="8">
         <v>100</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -8732,13 +8732,13 @@
         <v>62</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J63" s="8">
         <v>100</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -8764,13 +8764,13 @@
         <v>63</v>
       </c>
       <c r="I64" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J64" s="8">
         <v>100</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -8796,13 +8796,13 @@
         <v>64</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J65" s="8">
         <v>100</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -8828,13 +8828,13 @@
         <v>65</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J66" s="8">
         <v>100</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -8860,13 +8860,13 @@
         <v>66</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J67" s="8">
         <v>100</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -8892,13 +8892,13 @@
         <v>67</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J68" s="8">
         <v>100</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -8924,13 +8924,13 @@
         <v>68</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J69" s="8">
         <v>100</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -8956,13 +8956,13 @@
         <v>69</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J70" s="8">
         <v>100</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -8988,13 +8988,13 @@
         <v>70</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J71" s="8">
         <v>100</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -9020,13 +9020,13 @@
         <v>71</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J72" s="8">
         <v>100</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -9052,13 +9052,13 @@
         <v>72</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J73" s="8">
         <v>100</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -9084,13 +9084,13 @@
         <v>73</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J74" s="8">
         <v>100</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -9116,13 +9116,13 @@
         <v>74</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J75" s="8">
         <v>100</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -9148,7 +9148,7 @@
         <v>75</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>84</v>
@@ -9180,7 +9180,7 @@
         <v>76</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>84</v>
@@ -9212,7 +9212,7 @@
         <v>77</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>84</v>
@@ -9244,7 +9244,7 @@
         <v>78</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>84</v>
@@ -9276,7 +9276,7 @@
         <v>79</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>84</v>
@@ -9308,7 +9308,7 @@
         <v>80</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>84</v>
@@ -9340,7 +9340,7 @@
         <v>81</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>84</v>
@@ -9372,7 +9372,7 @@
         <v>82</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>84</v>
@@ -9404,7 +9404,7 @@
         <v>83</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>84</v>
@@ -9436,7 +9436,7 @@
         <v>84</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>84</v>
@@ -9468,7 +9468,7 @@
         <v>85</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>84</v>
@@ -9500,13 +9500,13 @@
         <v>86</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J87" s="8">
         <v>100</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -9532,13 +9532,13 @@
         <v>87</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J88" s="8">
         <v>100</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -9564,13 +9564,13 @@
         <v>88</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J89" s="8">
         <v>100</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -9596,13 +9596,13 @@
         <v>89</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J90" s="8">
         <v>100</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -9628,13 +9628,13 @@
         <v>90</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J91" s="8">
         <v>100</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -9660,13 +9660,13 @@
         <v>91</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J92" s="8">
         <v>100</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -9692,13 +9692,13 @@
         <v>92</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J93" s="8">
         <v>100</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -9724,13 +9724,13 @@
         <v>93</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J94" s="8">
         <v>100</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -9756,13 +9756,13 @@
         <v>94</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J95" s="8">
         <v>100</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -9788,13 +9788,13 @@
         <v>95</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J96" s="8">
         <v>100</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="2:11">
@@ -9820,13 +9820,13 @@
         <v>96</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J97" s="8">
         <v>100</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -9852,13 +9852,13 @@
         <v>97</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J98" s="8">
         <v>100</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -9884,13 +9884,13 @@
         <v>98</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J99" s="8">
         <v>100</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -9916,13 +9916,13 @@
         <v>99</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J100" s="8">
         <v>100</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="2:11">
@@ -9948,13 +9948,13 @@
         <v>100</v>
       </c>
       <c r="I101" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J101" s="8">
         <v>100</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -9980,13 +9980,13 @@
         <v>101</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J102" s="8">
         <v>100</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -10012,13 +10012,13 @@
         <v>102</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J103" s="8">
         <v>100</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -10044,13 +10044,13 @@
         <v>103</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J104" s="8">
         <v>100</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -10076,13 +10076,13 @@
         <v>104</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J105" s="8">
         <v>100</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="2:11">
@@ -10108,13 +10108,13 @@
         <v>105</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J106" s="8">
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="2:11">
@@ -10140,13 +10140,13 @@
         <v>106</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J107" s="8">
         <v>100</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -10172,13 +10172,13 @@
         <v>107</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J108" s="8">
         <v>100</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="2:11">
@@ -10204,13 +10204,13 @@
         <v>108</v>
       </c>
       <c r="I109" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J109" s="8">
         <v>100</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -10236,13 +10236,13 @@
         <v>109</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J110" s="8">
         <v>100</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="2:11">
@@ -10268,13 +10268,13 @@
         <v>110</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J111" s="8">
         <v>100</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -10300,13 +10300,13 @@
         <v>111</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J112" s="8">
         <v>100</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -10332,13 +10332,13 @@
         <v>112</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J113" s="8">
         <v>100</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="2:11">
@@ -10364,13 +10364,13 @@
         <v>113</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J114" s="8">
         <v>100</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="2:11">
@@ -10396,13 +10396,13 @@
         <v>114</v>
       </c>
       <c r="I115" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J115" s="8">
         <v>100</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="2:11">
@@ -10428,13 +10428,13 @@
         <v>115</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J116" s="8">
         <v>100</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="2:11">
@@ -10460,13 +10460,13 @@
         <v>116</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J117" s="8">
         <v>100</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="2:11">
@@ -10492,13 +10492,13 @@
         <v>117</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J118" s="8">
         <v>100</v>
       </c>
       <c r="K118" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="2:11">
@@ -10524,13 +10524,13 @@
         <v>118</v>
       </c>
       <c r="I119" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J119" s="8">
         <v>100</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="2:11">
@@ -10556,13 +10556,13 @@
         <v>119</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J120" s="8">
         <v>100</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -10588,13 +10588,13 @@
         <v>120</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J121" s="8">
         <v>100</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -10620,13 +10620,13 @@
         <v>121</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J122" s="8">
         <v>100</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -10652,13 +10652,13 @@
         <v>122</v>
       </c>
       <c r="I123" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J123" s="8">
         <v>100</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="2:11">
@@ -10684,13 +10684,13 @@
         <v>123</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J124" s="8">
         <v>100</v>
       </c>
       <c r="K124" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="2:11">
@@ -10716,13 +10716,13 @@
         <v>124</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J125" s="8">
         <v>100</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="2:11">
@@ -10748,7 +10748,7 @@
         <v>125</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>84</v>
@@ -10780,7 +10780,7 @@
         <v>126</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>84</v>
@@ -10812,7 +10812,7 @@
         <v>127</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>84</v>
@@ -10844,7 +10844,7 @@
         <v>128</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>84</v>
@@ -10876,7 +10876,7 @@
         <v>129</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>84</v>
@@ -10908,7 +10908,7 @@
         <v>130</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>84</v>
@@ -10940,7 +10940,7 @@
         <v>131</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>84</v>
@@ -10972,7 +10972,7 @@
         <v>132</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>84</v>
@@ -11004,7 +11004,7 @@
         <v>133</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>84</v>
@@ -11036,7 +11036,7 @@
         <v>134</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>84</v>
@@ -11068,7 +11068,7 @@
         <v>135</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J136" s="8" t="s">
         <v>84</v>
@@ -11100,7 +11100,7 @@
         <v>136</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J137" s="8" t="s">
         <v>84</v>
@@ -11132,7 +11132,7 @@
         <v>137</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>84</v>
@@ -11164,7 +11164,7 @@
         <v>138</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J139" s="8" t="s">
         <v>84</v>
@@ -11196,7 +11196,7 @@
         <v>139</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>84</v>
@@ -11228,7 +11228,7 @@
         <v>140</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>84</v>
@@ -11260,7 +11260,7 @@
         <v>141</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>84</v>
@@ -11292,7 +11292,7 @@
         <v>142</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J143" s="8" t="s">
         <v>84</v>
@@ -11324,7 +11324,7 @@
         <v>143</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J144" s="8" t="s">
         <v>84</v>
@@ -11356,7 +11356,7 @@
         <v>144</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>84</v>
@@ -11388,7 +11388,7 @@
         <v>145</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J146" s="8" t="s">
         <v>84</v>
@@ -11420,13 +11420,13 @@
         <v>146</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J147" s="8">
         <v>100</v>
       </c>
       <c r="K147" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -11452,13 +11452,13 @@
         <v>147</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J148" s="8">
         <v>100</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="2:11">
@@ -11484,13 +11484,13 @@
         <v>148</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J149" s="8">
         <v>100</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="2:11">
@@ -11516,13 +11516,13 @@
         <v>149</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J150" s="8">
         <v>100</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="2:11">
@@ -11548,13 +11548,13 @@
         <v>150</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J151" s="8">
         <v>100</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="2:11">
@@ -11580,13 +11580,13 @@
         <v>151</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J152" s="8">
         <v>100</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="2:11">
@@ -11612,13 +11612,13 @@
         <v>152</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J153" s="8">
         <v>100</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="2:11">
@@ -11644,13 +11644,13 @@
         <v>153</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J154" s="8">
         <v>100</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" spans="2:11">
@@ -11676,13 +11676,13 @@
         <v>154</v>
       </c>
       <c r="I155" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J155" s="8">
         <v>100</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="2:11">
@@ -11708,13 +11708,13 @@
         <v>155</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J156" s="8">
         <v>100</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="2:11">
@@ -11740,13 +11740,13 @@
         <v>156</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J157" s="8">
         <v>100</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -11772,13 +11772,13 @@
         <v>157</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J158" s="8">
         <v>100</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="2:11">
@@ -11804,13 +11804,13 @@
         <v>158</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J159" s="8">
         <v>100</v>
       </c>
       <c r="K159" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -11836,13 +11836,13 @@
         <v>159</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J160" s="8">
         <v>100</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="2:11">
@@ -11868,13 +11868,13 @@
         <v>160</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J161" s="8">
         <v>100</v>
       </c>
       <c r="K161" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="2:11">
@@ -11900,13 +11900,13 @@
         <v>161</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J162" s="8">
         <v>100</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="2:11">
@@ -11932,13 +11932,13 @@
         <v>162</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J163" s="8">
         <v>100</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="2:11">
@@ -11964,13 +11964,13 @@
         <v>163</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J164" s="8">
         <v>100</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="2:11">
@@ -11996,13 +11996,13 @@
         <v>164</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J165" s="8">
         <v>100</v>
       </c>
       <c r="K165" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="2:11">
@@ -12028,7 +12028,7 @@
         <v>165</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J166" s="8" t="s">
         <v>84</v>
@@ -12060,7 +12060,7 @@
         <v>166</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J167" s="8" t="s">
         <v>84</v>
@@ -12092,7 +12092,7 @@
         <v>167</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J168" s="8" t="s">
         <v>84</v>
@@ -12124,7 +12124,7 @@
         <v>168</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J169" s="8" t="s">
         <v>84</v>
@@ -12156,7 +12156,7 @@
         <v>169</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J170" s="8" t="s">
         <v>84</v>
@@ -12188,7 +12188,7 @@
         <v>170</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J171" s="8" t="s">
         <v>84</v>
@@ -12220,7 +12220,7 @@
         <v>171</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>84</v>
@@ -12252,7 +12252,7 @@
         <v>172</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J173" s="8" t="s">
         <v>84</v>
@@ -12284,7 +12284,7 @@
         <v>173</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J174" s="8" t="s">
         <v>84</v>
@@ -12316,7 +12316,7 @@
         <v>174</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J175" s="8" t="s">
         <v>84</v>
@@ -12348,7 +12348,7 @@
         <v>175</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>84</v>
@@ -12380,7 +12380,7 @@
         <v>176</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J177" s="8" t="s">
         <v>84</v>
@@ -12412,7 +12412,7 @@
         <v>177</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J178" s="8" t="s">
         <v>84</v>
@@ -12444,7 +12444,7 @@
         <v>178</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J179" s="8" t="s">
         <v>84</v>
@@ -12476,7 +12476,7 @@
         <v>179</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>84</v>
@@ -12508,7 +12508,7 @@
         <v>180</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J181" s="8" t="s">
         <v>84</v>
@@ -12540,7 +12540,7 @@
         <v>181</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J182" s="8" t="s">
         <v>84</v>
@@ -12572,7 +12572,7 @@
         <v>182</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J183" s="8" t="s">
         <v>84</v>
@@ -12604,7 +12604,7 @@
         <v>183</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J184" s="8" t="s">
         <v>84</v>
@@ -12636,7 +12636,7 @@
         <v>184</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>84</v>
@@ -12668,7 +12668,7 @@
         <v>185</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J186" s="8" t="s">
         <v>84</v>
@@ -12700,7 +12700,7 @@
         <v>186</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J187" s="8" t="s">
         <v>84</v>
@@ -12732,7 +12732,7 @@
         <v>187</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J188" s="8" t="s">
         <v>84</v>
@@ -12764,7 +12764,7 @@
         <v>188</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>84</v>
@@ -12796,7 +12796,7 @@
         <v>189</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J190" s="8" t="s">
         <v>84</v>
@@ -12828,7 +12828,7 @@
         <v>190</v>
       </c>
       <c r="I191" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>84</v>
@@ -12860,7 +12860,7 @@
         <v>191</v>
       </c>
       <c r="I192" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J192" s="8" t="s">
         <v>84</v>
@@ -12892,7 +12892,7 @@
         <v>192</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J193" s="8" t="s">
         <v>84</v>
@@ -12924,7 +12924,7 @@
         <v>193</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J194" s="8" t="s">
         <v>84</v>
@@ -12956,7 +12956,7 @@
         <v>194</v>
       </c>
       <c r="I195" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J195" s="8" t="s">
         <v>84</v>
@@ -12988,7 +12988,7 @@
         <v>195</v>
       </c>
       <c r="I196" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>84</v>
@@ -13020,7 +13020,7 @@
         <v>196</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>84</v>
@@ -13052,7 +13052,7 @@
         <v>197</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J198" s="8" t="s">
         <v>84</v>
@@ -13084,7 +13084,7 @@
         <v>198</v>
       </c>
       <c r="I199" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J199" s="8" t="s">
         <v>84</v>
@@ -13116,7 +13116,7 @@
         <v>199</v>
       </c>
       <c r="I200" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J200" s="8" t="s">
         <v>84</v>
@@ -13148,7 +13148,7 @@
         <v>200</v>
       </c>
       <c r="I201" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>84</v>
@@ -13180,7 +13180,7 @@
         <v>201</v>
       </c>
       <c r="I202" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J202" s="8" t="s">
         <v>84</v>
@@ -13212,7 +13212,7 @@
         <v>202</v>
       </c>
       <c r="I203" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J203" s="8" t="s">
         <v>84</v>
@@ -13244,7 +13244,7 @@
         <v>203</v>
       </c>
       <c r="I204" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J204" s="8" t="s">
         <v>84</v>
@@ -13276,7 +13276,7 @@
         <v>204</v>
       </c>
       <c r="I205" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J205" s="8" t="s">
         <v>84</v>
@@ -13308,7 +13308,7 @@
         <v>205</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J206" s="8" t="s">
         <v>84</v>
@@ -13340,13 +13340,13 @@
         <v>206</v>
       </c>
       <c r="I207" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J207" s="8">
         <v>100</v>
       </c>
       <c r="K207" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" spans="2:11">
@@ -13372,13 +13372,13 @@
         <v>207</v>
       </c>
       <c r="I208" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J208" s="8">
         <v>100</v>
       </c>
       <c r="K208" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="209" spans="2:11">
@@ -13404,13 +13404,13 @@
         <v>208</v>
       </c>
       <c r="I209" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J209" s="8">
         <v>100</v>
       </c>
       <c r="K209" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="2:11">
@@ -13436,13 +13436,13 @@
         <v>209</v>
       </c>
       <c r="I210" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J210" s="8">
         <v>100</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="211" spans="2:11">
@@ -13468,13 +13468,13 @@
         <v>210</v>
       </c>
       <c r="I211" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J211" s="8">
         <v>100</v>
       </c>
       <c r="K211" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" spans="2:11">
@@ -13500,13 +13500,13 @@
         <v>211</v>
       </c>
       <c r="I212" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J212" s="8">
         <v>100</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="2:11">
@@ -13532,13 +13532,13 @@
         <v>212</v>
       </c>
       <c r="I213" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J213" s="8">
         <v>100</v>
       </c>
       <c r="K213" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="214" spans="2:11">
@@ -13564,13 +13564,13 @@
         <v>213</v>
       </c>
       <c r="I214" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J214" s="8">
         <v>100</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="2:11">
@@ -13596,13 +13596,13 @@
         <v>214</v>
       </c>
       <c r="I215" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J215" s="8">
         <v>100</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="2:11">
@@ -13628,13 +13628,13 @@
         <v>215</v>
       </c>
       <c r="I216" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J216" s="8">
         <v>100</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="2:11">
@@ -13660,13 +13660,13 @@
         <v>216</v>
       </c>
       <c r="I217" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J217" s="8">
         <v>100</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" spans="2:11">
@@ -13692,13 +13692,13 @@
         <v>217</v>
       </c>
       <c r="I218" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J218" s="8">
         <v>100</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="2:11">
@@ -13724,13 +13724,13 @@
         <v>218</v>
       </c>
       <c r="I219" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J219" s="8">
         <v>100</v>
       </c>
       <c r="K219" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="2:11">
@@ -13756,13 +13756,13 @@
         <v>219</v>
       </c>
       <c r="I220" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J220" s="8">
         <v>100</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" spans="2:11">
@@ -13788,13 +13788,13 @@
         <v>220</v>
       </c>
       <c r="I221" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J221" s="8">
         <v>100</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" spans="2:11">
@@ -13820,13 +13820,13 @@
         <v>221</v>
       </c>
       <c r="I222" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J222" s="8">
         <v>100</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="223" spans="2:11">
@@ -13852,13 +13852,13 @@
         <v>222</v>
       </c>
       <c r="I223" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J223" s="8">
         <v>100</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="224" spans="2:11">
@@ -13884,13 +13884,13 @@
         <v>223</v>
       </c>
       <c r="I224" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J224" s="8">
         <v>100</v>
       </c>
       <c r="K224" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="225" spans="2:11">
@@ -13916,13 +13916,13 @@
         <v>224</v>
       </c>
       <c r="I225" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J225" s="8">
         <v>100</v>
       </c>
       <c r="K225" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="226" spans="2:11">
@@ -13948,13 +13948,13 @@
         <v>225</v>
       </c>
       <c r="I226" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J226" s="8">
         <v>100</v>
       </c>
       <c r="K226" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="2:11">
@@ -13980,13 +13980,13 @@
         <v>226</v>
       </c>
       <c r="I227" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J227" s="8">
         <v>100</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" spans="2:11">
@@ -14012,13 +14012,13 @@
         <v>227</v>
       </c>
       <c r="I228" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J228" s="8">
         <v>100</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="229" spans="2:11">
@@ -14044,13 +14044,13 @@
         <v>228</v>
       </c>
       <c r="I229" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J229" s="8">
         <v>100</v>
       </c>
       <c r="K229" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="230" spans="2:11">
@@ -14076,13 +14076,13 @@
         <v>229</v>
       </c>
       <c r="I230" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J230" s="8">
         <v>100</v>
       </c>
       <c r="K230" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" spans="2:11">
@@ -14108,13 +14108,13 @@
         <v>230</v>
       </c>
       <c r="I231" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J231" s="8">
         <v>100</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="232" spans="2:11">
@@ -14140,13 +14140,13 @@
         <v>231</v>
       </c>
       <c r="I232" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J232" s="8">
         <v>100</v>
       </c>
       <c r="K232" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="233" spans="2:11">
@@ -14172,13 +14172,13 @@
         <v>232</v>
       </c>
       <c r="I233" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J233" s="8">
         <v>100</v>
       </c>
       <c r="K233" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="234" spans="2:11">
@@ -14204,13 +14204,13 @@
         <v>233</v>
       </c>
       <c r="I234" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J234" s="8">
         <v>100</v>
       </c>
       <c r="K234" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="235" spans="2:11">
@@ -14236,13 +14236,13 @@
         <v>234</v>
       </c>
       <c r="I235" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J235" s="8">
         <v>100</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="236" spans="2:11">
@@ -14268,13 +14268,13 @@
         <v>235</v>
       </c>
       <c r="I236" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J236" s="8">
         <v>100</v>
       </c>
       <c r="K236" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="237" spans="2:11">
@@ -14300,13 +14300,13 @@
         <v>236</v>
       </c>
       <c r="I237" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J237" s="8">
         <v>100</v>
       </c>
       <c r="K237" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="238" spans="2:11">
@@ -14332,13 +14332,13 @@
         <v>237</v>
       </c>
       <c r="I238" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J238" s="8">
         <v>100</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="239" spans="2:11">
@@ -14364,13 +14364,13 @@
         <v>238</v>
       </c>
       <c r="I239" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J239" s="8">
         <v>100</v>
       </c>
       <c r="K239" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="240" spans="2:11">
@@ -14396,13 +14396,13 @@
         <v>239</v>
       </c>
       <c r="I240" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J240" s="8">
         <v>100</v>
       </c>
       <c r="K240" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="241" spans="2:11">
@@ -14428,13 +14428,13 @@
         <v>240</v>
       </c>
       <c r="I241" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J241" s="8">
         <v>100</v>
       </c>
       <c r="K241" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" spans="2:11">
@@ -14460,13 +14460,13 @@
         <v>241</v>
       </c>
       <c r="I242" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J242" s="8">
         <v>100</v>
       </c>
       <c r="K242" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="243" spans="2:11">
@@ -14492,13 +14492,13 @@
         <v>242</v>
       </c>
       <c r="I243" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J243" s="8">
         <v>100</v>
       </c>
       <c r="K243" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="2:11">
@@ -14524,13 +14524,13 @@
         <v>243</v>
       </c>
       <c r="I244" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J244" s="8">
         <v>100</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="245" spans="2:11">
@@ -14556,13 +14556,13 @@
         <v>244</v>
       </c>
       <c r="I245" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J245" s="8">
         <v>100</v>
       </c>
       <c r="K245" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246" spans="2:11">
@@ -14588,13 +14588,13 @@
         <v>245</v>
       </c>
       <c r="I246" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J246" s="8">
         <v>100</v>
       </c>
       <c r="K246" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="247" spans="2:11">
@@ -14620,13 +14620,13 @@
         <v>246</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J247" s="8">
         <v>100</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" spans="2:11">
@@ -14652,13 +14652,13 @@
         <v>247</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J248" s="8">
         <v>100</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="249" spans="2:11">
@@ -14684,13 +14684,13 @@
         <v>248</v>
       </c>
       <c r="I249" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J249" s="8">
         <v>100</v>
       </c>
       <c r="K249" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="2:11">
@@ -14716,13 +14716,13 @@
         <v>249</v>
       </c>
       <c r="I250" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J250" s="8">
         <v>100</v>
       </c>
       <c r="K250" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="251" spans="2:11">
@@ -14748,13 +14748,13 @@
         <v>250</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J251" s="8">
         <v>100</v>
       </c>
       <c r="K251" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="252" spans="2:11">
@@ -14780,13 +14780,13 @@
         <v>251</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J252" s="8">
         <v>100</v>
       </c>
       <c r="K252" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="253" spans="2:11">
@@ -14812,13 +14812,13 @@
         <v>252</v>
       </c>
       <c r="I253" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J253" s="8">
         <v>100</v>
       </c>
       <c r="K253" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="2:11">
@@ -14844,13 +14844,13 @@
         <v>253</v>
       </c>
       <c r="I254" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J254" s="8">
         <v>100</v>
       </c>
       <c r="K254" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="2:11">
@@ -14876,13 +14876,13 @@
         <v>254</v>
       </c>
       <c r="I255" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J255" s="8">
         <v>100</v>
       </c>
       <c r="K255" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="256" spans="2:11">
@@ -14908,13 +14908,13 @@
         <v>255</v>
       </c>
       <c r="I256" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J256" s="8">
         <v>100</v>
       </c>
       <c r="K256" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="258" spans="3:3">
@@ -15073,7 +15073,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>178</v>
@@ -15157,10 +15157,10 @@
         <v>116</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -15197,7 +15197,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>118</v>
@@ -15241,7 +15241,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>120</v>
@@ -15285,7 +15285,7 @@
         <v>122</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>122</v>
@@ -15329,7 +15329,7 @@
         <v>124</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>124</v>
@@ -15373,7 +15373,7 @@
         <v>126</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>126</v>
@@ -15417,7 +15417,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>128</v>
@@ -15461,7 +15461,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>130</v>
@@ -15505,7 +15505,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>132</v>
@@ -15549,7 +15549,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>134</v>
@@ -15664,7 +15664,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
@@ -16223,13 +16223,13 @@
         <v>244</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>254</v>
@@ -16244,12 +16244,12 @@
         <v>263</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
@@ -16264,10 +16264,10 @@
         <v>245</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>249</v>
@@ -16285,7 +16285,7 @@
         <v>264</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16299,16 +16299,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>246</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>82</v>
@@ -16351,7 +16351,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16359,13 +16359,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F7" s="20" t="b">
         <v>0</v>
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I7" s="20">
         <v>0.03</v>
@@ -16389,7 +16389,7 @@
         <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16397,13 +16397,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F8" s="20" t="b">
         <v>0</v>
@@ -16412,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I8" s="20">
         <v>0.03</v>
@@ -16427,7 +16427,7 @@
         <v>200</v>
       </c>
       <c r="M8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16435,13 +16435,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F9" s="20" t="b">
         <v>0</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I9" s="20">
         <v>0.03</v>
@@ -16465,7 +16465,7 @@
         <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16473,13 +16473,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F10" s="20" t="b">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I10" s="20">
         <v>0.03</v>
@@ -16503,7 +16503,7 @@
         <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16511,13 +16511,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F11" s="20" t="b">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I11" s="20">
         <v>0.03</v>
@@ -16541,7 +16541,7 @@
         <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16549,13 +16549,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
         <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F12" s="20" t="b">
         <v>0</v>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I12" s="20">
         <v>0.03</v>
@@ -16587,13 +16587,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F13" s="20" t="b">
         <v>1</v>
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I13" s="20">
         <v>0.15</v>
@@ -16617,7 +16617,7 @@
         <v>200</v>
       </c>
       <c r="M13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16625,13 +16625,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F14" s="20" t="b">
         <v>1</v>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I14" s="20">
         <v>0.15</v>
@@ -16655,7 +16655,7 @@
         <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16663,13 +16663,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F15" s="20" t="b">
         <v>1</v>
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I15" s="20">
         <v>0.15</v>
@@ -16693,7 +16693,7 @@
         <v>200</v>
       </c>
       <c r="M15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16701,13 +16701,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F16" s="20" t="b">
         <v>1</v>
@@ -16716,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I16" s="20">
         <v>0.15</v>
@@ -16731,7 +16731,7 @@
         <v>200</v>
       </c>
       <c r="M16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -16739,13 +16739,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F17" s="20" t="b">
         <v>1</v>
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I17" s="20">
         <v>0.15</v>
@@ -16769,7 +16769,7 @@
         <v>200</v>
       </c>
       <c r="M17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -16777,13 +16777,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
         <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F18" s="20" t="b">
         <v>1</v>
@@ -16792,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I18" s="20">
         <v>0.15</v>
@@ -16815,13 +16815,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F19" s="20" t="b">
         <v>0</v>
@@ -16845,7 +16845,7 @@
         <v>200</v>
       </c>
       <c r="M19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -16853,13 +16853,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F20" s="20" t="b">
         <v>0</v>
@@ -16883,7 +16883,7 @@
         <v>200</v>
       </c>
       <c r="M20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -16891,13 +16891,13 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F21" s="20" t="b">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I21" s="20">
         <v>0.03</v>
@@ -16921,7 +16921,7 @@
         <v>200</v>
       </c>
       <c r="M21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -16929,13 +16929,13 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F22" s="20" t="b">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I22" s="20">
         <v>0.03</v>
@@ -16959,7 +16959,7 @@
         <v>200</v>
       </c>
       <c r="M22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -16967,13 +16967,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F23" s="20" t="b">
         <v>0</v>
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I23" s="20">
         <v>0.03</v>
@@ -16997,7 +16997,7 @@
         <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -17005,13 +17005,13 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D24" t="s">
         <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F24" s="20" t="b">
         <v>0</v>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I24" s="20">
         <v>0.03</v>
@@ -17043,13 +17043,13 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F25" s="20" t="b">
         <v>1</v>
@@ -17073,7 +17073,7 @@
         <v>200</v>
       </c>
       <c r="M25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -17081,13 +17081,13 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F26" s="20" t="b">
         <v>1</v>
@@ -17111,7 +17111,7 @@
         <v>200</v>
       </c>
       <c r="M26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -17119,13 +17119,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F27" s="20" t="b">
         <v>1</v>
@@ -17149,7 +17149,7 @@
         <v>200</v>
       </c>
       <c r="M27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -17157,13 +17157,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F28" s="20" t="b">
         <v>1</v>
@@ -17187,7 +17187,7 @@
         <v>200</v>
       </c>
       <c r="M28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -17195,13 +17195,13 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F29" s="20" t="b">
         <v>1</v>
@@ -17225,7 +17225,7 @@
         <v>200</v>
       </c>
       <c r="M29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -17233,13 +17233,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D30" t="s">
         <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F30" s="20" t="b">
         <v>1</v>
@@ -17271,13 +17271,13 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F31" s="20" t="b">
         <v>0</v>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I31" s="20">
         <v>0.03</v>
@@ -17301,7 +17301,7 @@
         <v>200</v>
       </c>
       <c r="M31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -17309,13 +17309,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F32" s="20" t="b">
         <v>0</v>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I32" s="20">
         <v>0.03</v>
@@ -17339,7 +17339,7 @@
         <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -17347,13 +17347,13 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F33" s="20" t="b">
         <v>0</v>
@@ -17362,7 +17362,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I33" s="20">
         <v>0.03</v>
@@ -17377,7 +17377,7 @@
         <v>200</v>
       </c>
       <c r="M33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -17385,13 +17385,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F34" s="20" t="b">
         <v>0</v>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I34" s="20">
         <v>0.03</v>
@@ -17415,7 +17415,7 @@
         <v>200</v>
       </c>
       <c r="M34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -17423,13 +17423,13 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F35" s="20" t="b">
         <v>0</v>
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I35" s="20">
         <v>0.03</v>
@@ -17453,7 +17453,7 @@
         <v>200</v>
       </c>
       <c r="M35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -17461,13 +17461,13 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D36" t="s">
         <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F36" s="20" t="b">
         <v>0</v>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I36" s="20">
         <v>0.03</v>
@@ -17499,13 +17499,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F37" s="20" t="b">
         <v>1</v>
@@ -17514,7 +17514,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I37" s="20">
         <v>0.15</v>
@@ -17529,7 +17529,7 @@
         <v>200</v>
       </c>
       <c r="M37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -17537,13 +17537,13 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F38" s="20" t="b">
         <v>1</v>
@@ -17552,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I38" s="20">
         <v>0.15</v>
@@ -17567,7 +17567,7 @@
         <v>200</v>
       </c>
       <c r="M38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -17575,13 +17575,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F39" s="20" t="b">
         <v>1</v>
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I39" s="20">
         <v>0.15</v>
@@ -17605,7 +17605,7 @@
         <v>200</v>
       </c>
       <c r="M39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -17613,13 +17613,13 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F40" s="20" t="b">
         <v>1</v>
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I40" s="20">
         <v>0.15</v>
@@ -17643,7 +17643,7 @@
         <v>200</v>
       </c>
       <c r="M40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -17651,13 +17651,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F41" s="20" t="b">
         <v>1</v>
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I41" s="20">
         <v>0.15</v>
@@ -17681,7 +17681,7 @@
         <v>200</v>
       </c>
       <c r="M41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -17689,13 +17689,13 @@
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D42" t="s">
         <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F42" s="20" t="b">
         <v>1</v>
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I42" s="20">
         <v>0.15</v>
@@ -17727,13 +17727,13 @@
         <v>37</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F43" s="20" t="b">
         <v>0</v>
@@ -17742,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I43" s="20">
         <v>0.03</v>
@@ -17757,7 +17757,7 @@
         <v>200</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -17765,13 +17765,13 @@
         <v>38</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F44" s="20" t="b">
         <v>0</v>
@@ -17780,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I44" s="20">
         <v>0.03</v>
@@ -17795,7 +17795,7 @@
         <v>200</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -17803,13 +17803,13 @@
         <v>39</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F45" s="20" t="b">
         <v>0</v>
@@ -17818,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I45" s="20">
         <v>0.03</v>
@@ -17833,7 +17833,7 @@
         <v>200</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -17841,13 +17841,13 @@
         <v>40</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F46" s="20" t="b">
         <v>1</v>
@@ -17856,7 +17856,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I46" s="20">
         <v>0.15</v>
@@ -17871,7 +17871,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -17879,13 +17879,13 @@
         <v>41</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F47" s="20" t="b">
         <v>1</v>
@@ -17909,7 +17909,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -17917,13 +17917,13 @@
         <v>42</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F48" s="20" t="b">
         <v>1</v>
@@ -17932,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I48" s="20">
         <v>0.15</v>
@@ -17947,7 +17947,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283ABDA7-09A3-6448-9864-1AB0F6C6A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2C0A1-3185-144E-B483-736B15E9E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="561">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3403,6 +3403,21 @@
   </si>
   <si>
     <t>时装0//时装17</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装解锁星级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion_unlock_lv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//4</t>
+  </si>
+  <si>
+    <t>2//4</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3703,7 +3718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3825,6 +3840,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -4198,13 +4216,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -4217,31 +4235,32 @@
     <col min="8" max="8" width="9.1640625" style="28" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" style="28" customWidth="1"/>
     <col min="10" max="10" width="68.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="28" customWidth="1"/>
-    <col min="13" max="13" width="16" style="28" customWidth="1"/>
-    <col min="14" max="14" width="26.5" style="28" customWidth="1"/>
-    <col min="15" max="16" width="15.83203125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" style="28" customWidth="1"/>
-    <col min="18" max="18" width="15" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.33203125" style="28" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="28" customWidth="1"/>
-    <col min="22" max="22" width="49.33203125" style="28" customWidth="1"/>
-    <col min="23" max="23" width="77.6640625" style="28" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="28"/>
+    <col min="11" max="12" width="30.33203125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="26.5" style="28" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" style="28" customWidth="1"/>
+    <col min="19" max="19" width="15" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.33203125" style="28" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="28" customWidth="1"/>
+    <col min="23" max="23" width="49.33203125" style="28" customWidth="1"/>
+    <col min="24" max="24" width="77.6640625" style="28" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="M1" s="28" t="s">
+    <row r="1" spans="1:24">
+      <c r="N1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="E2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
@@ -4275,44 +4294,47 @@
       <c r="K3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="M3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="N3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="O3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="Q3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="R3" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="S3" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="T3" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="U3" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="V3" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="W3" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
@@ -4346,44 +4368,47 @@
       <c r="K4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="P4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="Q4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="R4" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="T4" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="V4" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="W4" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="X4" s="36" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="29" t="s">
         <v>33</v>
       </c>
@@ -4418,24 +4443,24 @@
         <v>36</v>
       </c>
       <c r="L5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="P5" s="31" t="s">
         <v>36</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>33</v>
       </c>
       <c r="Q5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="32" t="s">
         <v>33</v>
       </c>
       <c r="S5" s="24" t="s">
@@ -4444,17 +4469,20 @@
       <c r="T5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="V5" s="46" t="s">
+      <c r="W5" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="X5" s="36" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="29" t="s">
         <v>37</v>
       </c>
@@ -4482,38 +4510,39 @@
         <v>242</v>
       </c>
       <c r="K6" s="29"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="N6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="P6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="Q6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="R6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>321</v>
       </c>
       <c r="T6" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="U6" s="32"/>
+      <c r="U6" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="32"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="37"/>
       <c r="B7" s="37">
         <v>21051</v>
@@ -4545,45 +4574,48 @@
       <c r="K7" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+      <c r="M7" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="N7" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="O7" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="P7" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="Q7" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="R7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="41" t="str">
+      <c r="S7" s="41" t="str">
         <f>D7&amp;"画像"</f>
         <v>凯莉画像</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="T7" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T7" s="41" t="s">
+      <c r="U7" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="V7" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V7" s="45" t="s">
+      <c r="W7" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="X7" s="42" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="37"/>
       <c r="B8" s="37">
         <v>21021</v>
@@ -4616,44 +4648,47 @@
         <v>474</v>
       </c>
       <c r="L8" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="N8" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="P8" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="Q8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="R8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="41" t="str">
-        <f t="shared" ref="R8:R30" si="0">D8&amp;"画像"</f>
+      <c r="S8" s="41" t="str">
+        <f t="shared" ref="S8:S30" si="0">D8&amp;"画像"</f>
         <v>杰西卡画像</v>
       </c>
-      <c r="S8" s="41" t="s">
+      <c r="T8" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="U8" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U8" s="41" t="s">
+      <c r="V8" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="W8" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="X8" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="37"/>
       <c r="B9" s="37">
         <v>22031</v>
@@ -4685,45 +4720,48 @@
       <c r="K9" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="39">
+        <v>2</v>
+      </c>
+      <c r="M9" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="N9" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="O9" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="P9" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="Q9" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="R9" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="R9" s="41" t="str">
+      <c r="S9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>伊丽莎白画像</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="T9" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="U9" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="V9" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="W9" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="W9" s="42" t="s">
+      <c r="X9" s="42" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="37"/>
       <c r="B10" s="37">
         <v>21011</v>
@@ -4756,44 +4794,47 @@
         <v>472</v>
       </c>
       <c r="L10" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M10" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="P10" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="Q10" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="R10" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="R10" s="41" t="str">
+      <c r="S10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>伊芙琳画像</v>
       </c>
-      <c r="S10" s="41" t="s">
+      <c r="T10" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="U10" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U10" s="41" t="s">
+      <c r="V10" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="W10" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="W10" s="42" t="s">
+      <c r="X10" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="B11" s="37">
         <v>21041</v>
       </c>
@@ -4824,45 +4865,48 @@
       <c r="K11" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="39">
+        <v>2</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="N11" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="O11" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="P11" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="Q11" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="R11" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="41" t="str">
+      <c r="S11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>娜塔莉画像</v>
       </c>
-      <c r="S11" s="41" t="s">
+      <c r="T11" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="U11" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="V11" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V11" s="28" t="s">
+      <c r="W11" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="X11" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="B12" s="37">
         <v>22011</v>
       </c>
@@ -4893,45 +4937,48 @@
       <c r="K12" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="39">
+        <v>0</v>
+      </c>
+      <c r="M12" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N12" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="O12" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="P12" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="Q12" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="R12" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="R12" s="41" t="str">
+      <c r="S12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>娜斯提娅画像</v>
       </c>
-      <c r="S12" s="41" t="s">
+      <c r="T12" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="U12" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="V12" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V12" s="28" t="s">
+      <c r="W12" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="X12" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="B13" s="37">
         <v>22041</v>
       </c>
@@ -4962,45 +5009,48 @@
       <c r="K13" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="39">
+        <v>2</v>
+      </c>
+      <c r="M13" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="N13" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="O13" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="P13" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="Q13" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="R13" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="R13" s="41" t="str">
+      <c r="S13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>伊莎贝拉画像</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="T13" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="U13" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U13" s="41" t="s">
+      <c r="V13" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V13" s="28" t="s">
+      <c r="W13" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="W13" s="42" t="s">
+      <c r="X13" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="B14" s="37">
         <v>22051</v>
       </c>
@@ -5032,44 +5082,47 @@
         <v>472</v>
       </c>
       <c r="L14" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M14" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="N14" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="O14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="P14" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="Q14" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="R14" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="R14" s="41" t="str">
+      <c r="S14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>海蒂画像</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="T14" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T14" s="41" t="s">
+      <c r="U14" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="V14" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V14" s="28" t="s">
+      <c r="W14" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="X14" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="B15" s="37">
         <v>23011</v>
       </c>
@@ -5101,44 +5154,47 @@
         <v>472</v>
       </c>
       <c r="L15" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M15" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="N15" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="O15" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="P15" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="Q15" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="R15" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="R15" s="41" t="str">
+      <c r="S15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>中岛希子画像</v>
       </c>
-      <c r="S15" s="41" t="s">
+      <c r="T15" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="U15" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="V15" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V15" s="28" t="s">
+      <c r="W15" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="W15" s="42" t="s">
+      <c r="X15" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="B16" s="37">
         <v>23041</v>
       </c>
@@ -5169,45 +5225,48 @@
       <c r="K16" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="39">
+        <v>2</v>
+      </c>
+      <c r="M16" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="N16" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="O16" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="P16" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="Q16" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="R16" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="R16" s="41" t="str">
+      <c r="S16" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Rose画像</v>
       </c>
-      <c r="S16" s="41" t="s">
+      <c r="T16" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="U16" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="V16" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V16" s="28" t="s">
+      <c r="W16" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="W16" s="42" t="s">
+      <c r="X16" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:24">
       <c r="B17" s="37">
         <v>21031</v>
       </c>
@@ -5238,45 +5297,48 @@
       <c r="K17" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="39">
+        <v>2</v>
+      </c>
+      <c r="M17" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="N17" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="O17" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="P17" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="Q17" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="R17" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="R17" s="41" t="str">
+      <c r="S17" s="41" t="str">
         <f t="shared" si="0"/>
         <v>莉莉画像</v>
       </c>
-      <c r="S17" s="41" t="s">
+      <c r="T17" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T17" s="41" t="s">
+      <c r="U17" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="V17" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V17" s="28" t="s">
+      <c r="W17" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="W17" s="42" t="s">
+      <c r="X17" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:24">
       <c r="B18" s="37">
         <v>23021</v>
       </c>
@@ -5307,45 +5369,48 @@
       <c r="K18" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="39">
+        <v>0</v>
+      </c>
+      <c r="M18" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="N18" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="O18" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="P18" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="Q18" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="R18" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="R18" s="41" t="str">
+      <c r="S18" s="41" t="str">
         <f t="shared" si="0"/>
         <v>章亦灵画像</v>
       </c>
-      <c r="S18" s="41" t="s">
+      <c r="T18" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="U18" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="V18" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V18" s="28" t="s">
+      <c r="W18" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="W18" s="42" t="s">
+      <c r="X18" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:24">
       <c r="B19" s="37">
         <v>22021</v>
       </c>
@@ -5376,45 +5441,48 @@
       <c r="K19" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="39">
+        <v>0</v>
+      </c>
+      <c r="M19" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="N19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="O19" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="P19" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="Q19" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="Q19" s="39" t="s">
+      <c r="R19" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="R19" s="41" t="str">
+      <c r="S19" s="41" t="str">
         <f t="shared" si="0"/>
         <v>莫妮卡画像</v>
       </c>
-      <c r="S19" s="41" t="s">
+      <c r="T19" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="U19" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="V19" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V19" s="28" t="s">
+      <c r="W19" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="W19" s="42" t="s">
+      <c r="X19" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:24">
       <c r="B20" s="37">
         <v>23051</v>
       </c>
@@ -5445,45 +5513,48 @@
       <c r="K20" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L20" s="39" t="s">
+      <c r="L20" s="39">
+        <v>0</v>
+      </c>
+      <c r="M20" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="N20" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="O20" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="P20" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="Q20" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="Q20" s="39" t="s">
+      <c r="R20" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="R20" s="41" t="str">
+      <c r="S20" s="41" t="str">
         <f t="shared" si="0"/>
         <v>艾玛画像</v>
       </c>
-      <c r="S20" s="41" t="s">
+      <c r="T20" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T20" s="41" t="s">
+      <c r="U20" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U20" s="41" t="s">
+      <c r="V20" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V20" s="28" t="s">
+      <c r="W20" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="W20" s="42" t="s">
+      <c r="X20" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:24">
       <c r="B21" s="37">
         <v>23061</v>
       </c>
@@ -5515,44 +5586,47 @@
         <v>472</v>
       </c>
       <c r="L21" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M21" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="N21" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="O21" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="P21" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="Q21" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="R21" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="R21" s="41" t="str">
+      <c r="S21" s="41" t="str">
         <f t="shared" si="0"/>
         <v>艾米画像</v>
       </c>
-      <c r="S21" s="41" t="s">
+      <c r="T21" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T21" s="41" t="s">
+      <c r="U21" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="V21" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="W21" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="W21" s="42" t="s">
+      <c r="X21" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:24">
       <c r="B22" s="37">
         <v>24051</v>
       </c>
@@ -5583,45 +5657,48 @@
       <c r="K22" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="39">
+        <v>0</v>
+      </c>
+      <c r="M22" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="N22" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="O22" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="P22" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="Q22" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="R22" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="R22" s="41" t="str">
+      <c r="S22" s="41" t="str">
         <f t="shared" si="0"/>
         <v>邦妮画像</v>
       </c>
-      <c r="S22" s="41" t="s">
+      <c r="T22" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T22" s="41" t="s">
+      <c r="U22" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="V22" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V22" s="28" t="s">
+      <c r="W22" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="W22" s="42" t="s">
+      <c r="X22" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:24">
       <c r="B23" s="37">
         <v>24011</v>
       </c>
@@ -5652,45 +5729,48 @@
       <c r="K23" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="39">
+        <v>0</v>
+      </c>
+      <c r="M23" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="N23" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="O23" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="P23" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="Q23" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="R23" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="R23" s="41" t="str">
+      <c r="S23" s="41" t="str">
         <f t="shared" si="0"/>
         <v>艾琳娜画像</v>
       </c>
-      <c r="S23" s="41" t="s">
+      <c r="T23" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T23" s="41" t="s">
+      <c r="U23" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="V23" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V23" s="28" t="s">
+      <c r="W23" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="W23" s="42" t="s">
+      <c r="X23" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:24">
       <c r="B24" s="37">
         <v>24021</v>
       </c>
@@ -5722,44 +5802,47 @@
         <v>472</v>
       </c>
       <c r="L24" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="N24" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="O24" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="P24" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="Q24" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="R24" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="R24" s="41" t="str">
+      <c r="S24" s="41" t="str">
         <f t="shared" si="0"/>
         <v>菲欧娜画像</v>
       </c>
-      <c r="S24" s="41" t="s">
+      <c r="T24" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="U24" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U24" s="41" t="s">
+      <c r="V24" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V24" s="28" t="s">
+      <c r="W24" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="W24" s="42" t="s">
+      <c r="X24" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:24">
       <c r="B25" s="37">
         <v>24041</v>
       </c>
@@ -5790,45 +5873,48 @@
       <c r="K25" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="39">
+        <v>2</v>
+      </c>
+      <c r="M25" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="N25" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="O25" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="P25" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="Q25" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="Q25" s="39" t="s">
+      <c r="R25" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="R25" s="41" t="str">
+      <c r="S25" s="41" t="str">
         <f t="shared" si="0"/>
         <v>苏珊画像</v>
       </c>
-      <c r="S25" s="41" t="s">
+      <c r="T25" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T25" s="41" t="s">
+      <c r="U25" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U25" s="41" t="s">
+      <c r="V25" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V25" s="28" t="s">
+      <c r="W25" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="W25" s="42" t="s">
+      <c r="X25" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:24">
       <c r="B26" s="37">
         <v>24061</v>
       </c>
@@ -5860,44 +5946,47 @@
         <v>472</v>
       </c>
       <c r="L26" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M26" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="N26" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="O26" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="P26" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="Q26" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="Q26" s="39" t="s">
+      <c r="R26" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="R26" s="41" t="str">
+      <c r="S26" s="41" t="str">
         <f t="shared" si="0"/>
         <v>琳恩画像</v>
       </c>
-      <c r="S26" s="41" t="s">
+      <c r="T26" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="U26" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="V26" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V26" s="28" t="s">
+      <c r="W26" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="W26" s="42" t="s">
+      <c r="X26" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:24">
       <c r="B27" s="37">
         <v>22061</v>
       </c>
@@ -5929,44 +6018,47 @@
         <v>472</v>
       </c>
       <c r="L27" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="M27" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="N27" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="O27" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="P27" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="Q27" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="Q27" s="39" t="s">
+      <c r="R27" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="R27" s="41" t="str">
+      <c r="S27" s="41" t="str">
         <f t="shared" si="0"/>
         <v>维多利亚画像</v>
       </c>
-      <c r="S27" s="41" t="s">
+      <c r="T27" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T27" s="41" t="s">
+      <c r="U27" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U27" s="41" t="s">
+      <c r="V27" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V27" s="28" t="s">
+      <c r="W27" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="W27" s="42" t="s">
+      <c r="X27" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:24">
       <c r="B28" s="37">
         <v>24031</v>
       </c>
@@ -5997,45 +6089,48 @@
       <c r="K28" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="39">
+        <v>2</v>
+      </c>
+      <c r="M28" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="N28" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="O28" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="P28" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="Q28" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Q28" s="39" t="s">
+      <c r="R28" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="R28" s="41" t="str">
+      <c r="S28" s="41" t="str">
         <f t="shared" si="0"/>
         <v>索菲亚画像</v>
       </c>
-      <c r="S28" s="41" t="s">
+      <c r="T28" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T28" s="41" t="s">
+      <c r="U28" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U28" s="41" t="s">
+      <c r="V28" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V28" s="28" t="s">
+      <c r="W28" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="W28" s="42" t="s">
+      <c r="X28" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:24">
       <c r="B29" s="37">
         <v>21061</v>
       </c>
@@ -6066,45 +6161,48 @@
       <c r="K29" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="39">
+        <v>0</v>
+      </c>
+      <c r="M29" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="M29" s="37" t="s">
+      <c r="N29" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="O29" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="P29" s="41" t="s">
         <v>537</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="Q29" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="Q29" s="39" t="s">
+      <c r="R29" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="R29" s="41" t="str">
+      <c r="S29" s="41" t="str">
         <f t="shared" si="0"/>
         <v>佐伊画像</v>
       </c>
-      <c r="S29" s="41" t="s">
+      <c r="T29" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T29" s="41" t="s">
+      <c r="U29" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U29" s="41" t="s">
+      <c r="V29" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V29" s="28" t="s">
+      <c r="W29" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="W29" s="42" t="s">
+      <c r="X29" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:24">
       <c r="B30" s="37">
         <v>23031</v>
       </c>
@@ -6135,41 +6233,44 @@
       <c r="K30" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="39">
+        <v>2</v>
+      </c>
+      <c r="M30" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="N30" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="37" t="s">
+      <c r="O30" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="O30" s="41" t="s">
+      <c r="P30" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="Q30" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="Q30" s="39" t="s">
+      <c r="R30" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="R30" s="41" t="str">
+      <c r="S30" s="41" t="str">
         <f t="shared" si="0"/>
         <v>爱丽丝画像</v>
       </c>
-      <c r="S30" s="41" t="s">
+      <c r="T30" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="T30" s="41" t="s">
+      <c r="U30" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="U30" s="41" t="s">
+      <c r="V30" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="V30" s="28" t="s">
+      <c r="W30" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="W30" s="42" t="s">
+      <c r="X30" s="42" t="s">
         <v>141</v>
       </c>
     </row>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2C0A1-3185-144E-B483-736B15E9E9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C26F21-08B3-2844-A356-B2E8947CDB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="册封表" sheetId="3" r:id="rId4"/>
     <sheet name="情人对话表" sheetId="4" r:id="rId5"/>
     <sheet name="情人技能表" sheetId="6" r:id="rId6"/>
+    <sheet name="情人写真" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="574">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3418,6 +3419,56 @@
   </si>
   <si>
     <t>2//4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>管战增加2//商名增加2//管战加成2//商名加成2//全体增加2//全体加成2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoverPortrait</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵欲放荡</t>
+  </si>
+  <si>
+    <t>写真101</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真102</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真103</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真104</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>写真105</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢之夜</t>
+  </si>
+  <si>
+    <t>男孩女孩</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒淫无度</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奸夫淫妇</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3718,7 +3769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3835,15 +3886,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="1表头" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4218,22 +4270,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="28" customWidth="1"/>
-    <col min="3" max="5" width="9" style="28"/>
+    <col min="3" max="3" width="14.83203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="9" style="28"/>
     <col min="6" max="6" width="14.5" style="28" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="28" customWidth="1"/>
     <col min="10" max="10" width="68.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="30.33203125" style="28" customWidth="1"/>
     <col min="13" max="13" width="37.6640625" style="28" customWidth="1"/>
@@ -4245,7 +4299,7 @@
     <col min="19" max="19" width="15" style="28" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="17.33203125" style="28" customWidth="1"/>
     <col min="22" max="22" width="20.6640625" style="28" customWidth="1"/>
-    <col min="23" max="23" width="49.33203125" style="28" customWidth="1"/>
+    <col min="23" max="23" width="84" style="28" customWidth="1"/>
     <col min="24" max="24" width="77.6640625" style="28" customWidth="1"/>
     <col min="25" max="16384" width="9" style="28"/>
   </cols>
@@ -4294,7 +4348,7 @@
       <c r="K3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="50" t="s">
         <v>557</v>
       </c>
       <c r="M3" s="29" t="s">
@@ -4368,7 +4422,7 @@
       <c r="K4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="50" t="s">
         <v>558</v>
       </c>
       <c r="M4" s="29" t="s">
@@ -5867,8 +5921,8 @@
       <c r="I25" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="J25" s="37" t="s">
-        <v>482</v>
+      <c r="J25" s="39" t="s">
+        <v>561</v>
       </c>
       <c r="K25" s="39" t="s">
         <v>472</v>
@@ -6286,7 +6340,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="O4" sqref="O4:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6296,7 +6350,7 @@
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="14" width="15.83203125" customWidth="1"/>
     <col min="15" max="15" width="15.1640625" customWidth="1"/>
@@ -6365,6 +6419,7 @@
         <v>16</v>
       </c>
       <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
@@ -15058,10 +15113,10 @@
       <c r="I2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="50"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="30">
       <c r="A3" s="4" t="s">
@@ -16278,17 +16333,17 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
@@ -16300,11 +16355,11 @@
       <c r="H1" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="22"/>
     </row>
     <row r="3" spans="1:13">
@@ -18059,4 +18114,163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D595171-9896-DE47-9765-6E0887FDC2F5}">
+  <dimension ref="A3:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="53" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7">
+        <v>23062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8">
+        <v>24032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="E9">
+        <v>24042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="E10">
+        <v>24052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="E11">
+        <v>24062</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C26F21-08B3-2844-A356-B2E8947CDB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB1AF8-DD2A-5344-BD1C-F2A670DF2124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3769,7 +3769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3896,6 +3896,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="1表头" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -18121,7 +18124,7 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -18130,7 +18133,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -18209,8 +18212,8 @@
       <c r="D7" t="s">
         <v>564</v>
       </c>
-      <c r="E7">
-        <v>23062</v>
+      <c r="E7" s="54">
+        <v>25009</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18223,8 +18226,8 @@
       <c r="D8" t="s">
         <v>570</v>
       </c>
-      <c r="E8">
-        <v>24032</v>
+      <c r="E8" s="54">
+        <v>23034</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -18237,8 +18240,8 @@
       <c r="D9" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="E9">
-        <v>24042</v>
+      <c r="E9" s="54">
+        <v>25002</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -18251,8 +18254,8 @@
       <c r="D10" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="E10">
-        <v>24052</v>
+      <c r="E10" s="54">
+        <v>25004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -18265,8 +18268,8 @@
       <c r="D11" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="E11">
-        <v>24062</v>
+      <c r="E11" s="54">
+        <v>25008</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyongshuai/Desktop/UE/uesharedata/exceldata/excel/all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB1AF8-DD2A-5344-BD1C-F2A670DF2124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D200651-230A-C349-9F5C-A834EC8F9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="579">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3470,6 +3470,26 @@
   <si>
     <t>奸夫淫妇</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲欧娜时装2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>海蒂时装2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>维多利亚时装2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>琳恩卡时装2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾米时装2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3896,7 +3916,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18124,7 +18144,7 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -18202,7 +18222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -18212,11 +18232,11 @@
       <c r="D7" t="s">
         <v>564</v>
       </c>
-      <c r="E7" s="54">
-        <v>25009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="54" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
       <c r="B8">
         <v>1002</v>
       </c>
@@ -18226,11 +18246,11 @@
       <c r="D8" t="s">
         <v>570</v>
       </c>
-      <c r="E8" s="54">
-        <v>23034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="54" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
       <c r="B9">
         <v>1003</v>
       </c>
@@ -18240,11 +18260,11 @@
       <c r="D9" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="E9" s="54">
-        <v>25002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="54" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
       <c r="B10">
         <v>1004</v>
       </c>
@@ -18254,11 +18274,11 @@
       <c r="D10" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="E10" s="54">
-        <v>25004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="54" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
       <c r="B11">
         <v>1005</v>
       </c>
@@ -18268,8 +18288,8 @@
       <c r="D11" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="E11" s="54">
-        <v>25008</v>
+      <c r="E11" s="54" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="531">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -2870,10 +2870,13 @@
     <t>LoverPortrait</t>
   </si>
   <si>
-    <t>gift_item_list</t>
-  </si>
-  <si>
-    <t>size(add_gift_list)</t>
+    <t>add_gift_item_list</t>
+  </si>
+  <si>
+    <t>gift_count_list</t>
+  </si>
+  <si>
+    <t>size(add_gift_item_list)</t>
   </si>
   <si>
     <t>写真101</t>
@@ -18032,7 +18035,7 @@
   <dimension ref="A3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -18088,7 +18091,7 @@
         <v>512</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -18132,7 +18135,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -18140,19 +18143,19 @@
         <v>1001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>212</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -18160,19 +18163,19 @@
         <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>264</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -18180,19 +18183,19 @@
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -18200,19 +18203,19 @@
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -18220,19 +18223,19 @@
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="533">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -2876,7 +2876,24 @@
     <t>gift_count_list</t>
   </si>
   <si>
-    <t>size(add_gift_item_list)</t>
+    <t>$ref(UnitData)</t>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ref(ItemData)$no_empty</t>
+    </r>
+  </si>
+  <si>
+    <t>$size(add_gift_item_list)</t>
   </si>
   <si>
     <t>写真101</t>
@@ -2937,7 +2954,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3136,6 +3153,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -18045,7 +18068,8 @@
     <col min="3" max="3" width="15.8365384615385" customWidth="1"/>
     <col min="4" max="4" width="19.8365384615385" customWidth="1"/>
     <col min="5" max="5" width="27.1634615384615" customWidth="1"/>
-    <col min="6" max="7" width="21.6634615384615" customWidth="1"/>
+    <col min="6" max="6" width="40.0576923076923" customWidth="1"/>
+    <col min="7" max="7" width="34.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -18117,7 +18141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="17" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -18129,13 +18153,13 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>514</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -18143,19 +18167,19 @@
         <v>1001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>212</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -18163,19 +18187,19 @@
         <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>264</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -18183,19 +18207,19 @@
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -18203,19 +18227,19 @@
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -18223,19 +18247,19 @@
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="537">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -2870,10 +2870,10 @@
     <t>LoverPortrait</t>
   </si>
   <si>
-    <t>add_gift_item_list</t>
-  </si>
-  <si>
-    <t>gift_count_list</t>
+    <t>gift_item_list</t>
+  </si>
+  <si>
+    <t>gift_num_list</t>
   </si>
   <si>
     <t>$ref(UnitData)</t>
@@ -2893,7 +2893,7 @@
     </r>
   </si>
   <si>
-    <t>$size(add_gift_item_list)</t>
+    <t>$size(gift_item_list)</t>
   </si>
   <si>
     <t>写真101</t>
@@ -2917,6 +2917,9 @@
     <t>银戒指//夫子乐谱</t>
   </si>
   <si>
+    <t>5//100</t>
+  </si>
+  <si>
     <t>写真103</t>
   </si>
   <si>
@@ -2926,6 +2929,9 @@
     <t>金戒指//普通香脂</t>
   </si>
   <si>
+    <t>6//10</t>
+  </si>
+  <si>
     <t>写真104</t>
   </si>
   <si>
@@ -2935,6 +2941,9 @@
     <t>水晶戒指//绝世香脂</t>
   </si>
   <si>
+    <t>7//10</t>
+  </si>
+  <si>
     <t>写真105</t>
   </si>
   <si>
@@ -2942,6 +2951,9 @@
   </si>
   <si>
     <t>珍珠戒指//夫子乐谱</t>
+  </si>
+  <si>
+    <t>8//10</t>
   </si>
 </sst>
 </file>
@@ -6272,7 +6284,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O6"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6280,11 +6292,13 @@
     <col min="1" max="1" width="15.1634615384615" customWidth="1"/>
     <col min="2" max="2" width="6.33653846153846" customWidth="1"/>
     <col min="6" max="6" width="9.16346153846154" customWidth="1"/>
-    <col min="7" max="8" width="15.8365384615385" customWidth="1"/>
-    <col min="9" max="9" width="16.1634615384615" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="34.2884615384615" customWidth="1"/>
+    <col min="9" max="9" width="32.5288461538462" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="14" width="15.8365384615385" customWidth="1"/>
+    <col min="12" max="12" width="36.2211538461538" customWidth="1"/>
+    <col min="13" max="14" width="15.8365384615385" customWidth="1"/>
     <col min="15" max="15" width="15.1634615384615" customWidth="1"/>
     <col min="16" max="16" width="20.1634615384615" customWidth="1"/>
     <col min="17" max="17" width="13.6634615384615" customWidth="1"/>
@@ -6847,8 +6861,8 @@
   <sheetPr/>
   <dimension ref="A2:K258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -15021,7 +15035,7 @@
   <sheetPr/>
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -18058,7 +18072,7 @@
   <dimension ref="A3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -18199,7 +18213,7 @@
         <v>523</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -18207,19 +18221,19 @@
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -18227,19 +18241,19 @@
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -18247,19 +18261,19 @@
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -2861,10 +2861,10 @@
     <t>模型</t>
   </si>
   <si>
-    <t>礼盒需要的道具</t>
-  </si>
-  <si>
-    <t>礼盒的道具数量</t>
+    <t>礼盒需要道具</t>
+  </si>
+  <si>
+    <t>礼盒需要道具数量</t>
   </si>
   <si>
     <t>LoverPortrait</t>
@@ -6861,7 +6861,7 @@
   <sheetPr/>
   <dimension ref="A2:K258"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -15035,7 +15035,7 @@
   <sheetPr/>
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -18071,7 +18071,7 @@
   <sheetPr/>
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12140" activeTab="6"/>
+    <workbookView windowWidth="27900" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <t>2//4</t>
   </si>
   <si>
-    <t>时装0//时装7//时装8</t>
+    <t>时装0//性感杰西卡1//性感杰西卡2</t>
   </si>
   <si>
     <t>男情人2</t>
@@ -480,7 +480,7 @@
     <t>管名增加2//商战增加2//管名加成2//商战加成2//全体增加2//全体加成2</t>
   </si>
   <si>
-    <t>时装0//时装21</t>
+    <t>时装0//性感伊丽莎白1//性感伊丽莎白2</t>
   </si>
   <si>
     <t>男情人3</t>
@@ -569,7 +569,7 @@
     <t>商管增加3//名战增加3//商管加成3//名战加成3//全体增加3//全体加成3</t>
   </si>
   <si>
-    <t>时装0//时装11//时装12</t>
+    <t>时装0//性感伊芙琳1//性感伊芙琳2</t>
   </si>
   <si>
     <t>男情人4</t>
@@ -658,7 +658,7 @@
     <t>亨利//戴维</t>
   </si>
   <si>
-    <t>时装0//时装24</t>
+    <t>时装0//性感娜塔莉1//性感娜塔莉2</t>
   </si>
   <si>
     <t>男情人5</t>
@@ -837,7 +837,7 @@
     <t>商战增加2//管名增加2//商战加成2//管名加成2//全体增加2//全体加成2</t>
   </si>
   <si>
-    <t>时装0//时装23</t>
+    <t>时装0//性感伊莎贝拉1//性感伊莎贝拉2</t>
   </si>
   <si>
     <r>
@@ -923,7 +923,7 @@
     <t>商名增加3//管战增加3//商名加成3//管战加成3//全体增加3//全体加成3</t>
   </si>
   <si>
-    <t>时装0//时装5//时装6</t>
+    <t>时装0//性感海蒂1//性感海蒂2</t>
   </si>
   <si>
     <r>
@@ -1009,7 +1009,7 @@
     <t>管战增加3//商名增加3//管战加成3//商名加成3//全体增加3//全体加成3</t>
   </si>
   <si>
-    <t>时装0//时装13//时装14</t>
+    <t>时装0//性感中岛希子1//性感中岛希子2</t>
   </si>
   <si>
     <r>
@@ -1095,7 +1095,7 @@
     <t>管战增加2//商名增加2//管战加成2//商名加成2//全体增加2//全体加成2</t>
   </si>
   <si>
-    <t>时装0//时装19</t>
+    <t>时装0//性感Rose1//性感Rose2</t>
   </si>
   <si>
     <r>
@@ -1188,7 +1188,7 @@
     <t>凯瑟琳//杰克</t>
   </si>
   <si>
-    <t>时装0//时装18</t>
+    <t>时装0//性感莉莉1//性感莉莉2</t>
   </si>
   <si>
     <r>
@@ -1399,7 +1399,7 @@
     <t>LE//送葬者</t>
   </si>
   <si>
-    <t>时装0//时装1//时装2</t>
+    <t>时装0//性感艾米1//性感艾米2</t>
   </si>
   <si>
     <r>
@@ -1655,7 +1655,7 @@
     <t>约翰//茱迪</t>
   </si>
   <si>
-    <t>时装0//时装3//时装4</t>
+    <t>时装0//性感菲欧娜1//性感菲欧娜2</t>
   </si>
   <si>
     <t>菲欧娜坐姿</t>
@@ -1676,7 +1676,7 @@
     <t>比尔//罗杰</t>
   </si>
   <si>
-    <t>时装0//时装22</t>
+    <t>时装0//性感苏珊1//性感苏珊2</t>
   </si>
   <si>
     <t>4//2//2//2</t>
@@ -1703,7 +1703,7 @@
     <t>名战增加3//商管增加3//名战加成3//商管加成3//全体增加3//全体加成3</t>
   </si>
   <si>
-    <t>时装0//时装9//时装10</t>
+    <t>时装0//性感琳恩1//性感琳恩2</t>
   </si>
   <si>
     <t>琳恩坐姿</t>
@@ -1724,7 +1724,7 @@
     <t>但丁//霍尔</t>
   </si>
   <si>
-    <t>时装0//时装15//时装16</t>
+    <t>时装0//性感维多利亚1//性感维多利亚2</t>
   </si>
   <si>
     <t>维多利亚坐姿</t>
@@ -1745,7 +1745,7 @@
     <t>韩朴仁//梅尔</t>
   </si>
   <si>
-    <t>时装0//时装20</t>
+    <t>时装0//性感索菲亚1//性感索菲亚2</t>
   </si>
   <si>
     <t>索菲亚坐姿</t>
@@ -1852,7 +1852,7 @@
     <t>商名增加2//管战增加2//商名加成2//管战加成2//全体增加2//全体加成2</t>
   </si>
   <si>
-    <t>时装0//时装17</t>
+    <t>时装0//性感爱丽丝1//性感爱丽丝2</t>
   </si>
   <si>
     <r>
@@ -2880,6 +2880,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>$</t>
     </r>
     <r>
@@ -2961,19 +2968,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3012,20 +3012,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3047,8 +3035,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3060,9 +3056,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3077,14 +3087,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3106,6 +3116,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3115,7 +3147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3129,19 +3161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3149,28 +3171,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3237,19 +3237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3261,25 +3261,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3291,25 +3303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,7 +3333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3339,13 +3351,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,7 +3399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3369,55 +3417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3501,10 +3501,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3525,15 +3523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3545,6 +3534,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3581,171 +3581,171 @@
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3756,15 +3756,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3778,15 +3778,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3821,10 +3821,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="56" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3857,13 +3857,13 @@
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 5" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="百分比 2" xfId="2"/>
+    <cellStyle name="普通数值" xfId="3"/>
     <cellStyle name="1表头" xfId="4"/>
-    <cellStyle name="普通数值" xfId="5"/>
-    <cellStyle name="百分比 2" xfId="6"/>
-    <cellStyle name="常规 6" xfId="7"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 5" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -4227,12 +4227,12 @@
   <sheetPr/>
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="S8" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="K9" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D5"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4247,8 +4247,9 @@
     <col min="8" max="8" width="23.3365384615385" style="26" customWidth="1"/>
     <col min="9" max="9" width="24.1634615384615" style="26" customWidth="1"/>
     <col min="10" max="10" width="68.1634615384615" style="26" customWidth="1"/>
-    <col min="11" max="12" width="30.3365384615385" style="26" customWidth="1"/>
-    <col min="13" max="13" width="37.6634615384615" style="26" customWidth="1"/>
+    <col min="11" max="11" width="30.3365384615385" style="26" customWidth="1"/>
+    <col min="12" max="12" width="20.1923076923077" style="26" customWidth="1"/>
+    <col min="13" max="13" width="43.2596153846154" style="26" customWidth="1"/>
     <col min="14" max="14" width="18.3365384615385" style="26" customWidth="1"/>
     <col min="15" max="15" width="26.5" style="26" customWidth="1"/>
     <col min="16" max="16" width="22.6634615384615" style="26" customWidth="1"/>
@@ -18087,7 +18088,7 @@
   <sheetPr/>
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12240"/>
+    <workbookView windowWidth="27900" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -1938,13 +1938,13 @@
     <t>萨拉//贝蒂</t>
   </si>
   <si>
-    <t>时装3//时装4</t>
+    <t>性感莉莉1//性感索菲亚1</t>
   </si>
   <si>
     <t>9//8//7//6</t>
   </si>
   <si>
-    <t>时装1//时装2</t>
+    <t>性感娜塔莉1//性感琳恩2</t>
   </si>
   <si>
     <t>从此列开始是儿女相关</t>
@@ -4227,12 +4227,12 @@
   <sheetPr/>
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="K9" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6300,8 +6300,8 @@
   <sheetPr/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6312,7 +6312,7 @@
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="34.2884615384615" customWidth="1"/>
     <col min="9" max="9" width="32.5288461538462" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="10" max="10" width="35.8942307692308" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="36.2211538461538" customWidth="1"/>
     <col min="13" max="14" width="15.8365384615385" customWidth="1"/>
@@ -6705,7 +6705,7 @@
         <v>77</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>112</v>
@@ -6878,7 +6878,7 @@
   <sheetPr/>
   <dimension ref="A2:K258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A131" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -15052,7 +15052,7 @@
   <sheetPr/>
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -15061,7 +15061,7 @@
     <col min="1" max="1" width="10.6634615384615" customWidth="1"/>
     <col min="2" max="2" width="6.33653846153846" customWidth="1"/>
     <col min="3" max="3" width="7.33653846153846" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="22.4326923076923" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17.1634615384615" customWidth="1"/>
     <col min="7" max="8" width="16.1634615384615" customWidth="1"/>
@@ -15742,7 +15742,7 @@
   <sheetPr/>
   <dimension ref="A3:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -16299,7 +16299,7 @@
   <sheetPr/>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18088,7 +18088,7 @@
   <sheetPr/>
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="27900" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="537">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -4227,12 +4227,12 @@
   <sheetPr/>
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="K12" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4247,10 +4247,10 @@
     <col min="8" max="8" width="23.3365384615385" style="26" customWidth="1"/>
     <col min="9" max="9" width="24.1634615384615" style="26" customWidth="1"/>
     <col min="10" max="10" width="68.1634615384615" style="26" customWidth="1"/>
-    <col min="11" max="11" width="30.3365384615385" style="26" customWidth="1"/>
-    <col min="12" max="12" width="20.1923076923077" style="26" customWidth="1"/>
+    <col min="11" max="11" width="26.9230769230769" style="26" customWidth="1"/>
+    <col min="12" max="12" width="23.5576923076923" style="26" customWidth="1"/>
     <col min="13" max="13" width="43.2596153846154" style="26" customWidth="1"/>
-    <col min="14" max="14" width="18.3365384615385" style="26" customWidth="1"/>
+    <col min="14" max="14" width="23.875" style="26" customWidth="1"/>
     <col min="15" max="15" width="26.5" style="26" customWidth="1"/>
     <col min="16" max="16" width="22.6634615384615" style="26" customWidth="1"/>
     <col min="17" max="17" width="15.8365384615385" style="26" customWidth="1"/>
@@ -4734,8 +4734,8 @@
       <c r="K9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="30">
-        <v>2</v>
+      <c r="L9" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>107</v>
@@ -4879,8 +4879,8 @@
       <c r="K11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="30">
-        <v>2</v>
+      <c r="L11" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>127</v>
@@ -5023,8 +5023,8 @@
       <c r="K13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="30">
-        <v>2</v>
+      <c r="L13" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>144</v>
@@ -5239,8 +5239,8 @@
       <c r="K16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="30">
-        <v>2</v>
+      <c r="L16" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M16" s="30" t="s">
         <v>171</v>
@@ -5311,8 +5311,8 @@
       <c r="K17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="30">
-        <v>2</v>
+      <c r="L17" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M17" s="30" t="s">
         <v>179</v>
@@ -5887,8 +5887,8 @@
       <c r="K25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="30">
-        <v>2</v>
+      <c r="L25" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M25" s="30" t="s">
         <v>240</v>
@@ -6103,8 +6103,8 @@
       <c r="K28" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="30">
-        <v>2</v>
+      <c r="L28" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M28" s="30" t="s">
         <v>263</v>
@@ -6247,8 +6247,8 @@
       <c r="K30" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="30">
-        <v>2</v>
+      <c r="L30" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="M30" s="30" t="s">
         <v>279</v>
@@ -6300,7 +6300,7 @@
   <sheetPr/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -4228,11 +4228,11 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="K12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4245,21 +4245,21 @@
     <col min="6" max="6" width="14.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="18.3365384615385" style="26" customWidth="1"/>
     <col min="8" max="8" width="23.3365384615385" style="26" customWidth="1"/>
-    <col min="9" max="9" width="24.1634615384615" style="26" customWidth="1"/>
-    <col min="10" max="10" width="68.1634615384615" style="26" customWidth="1"/>
+    <col min="9" max="9" width="32.8461538461538" style="26" customWidth="1"/>
+    <col min="10" max="10" width="75.3173076923077" style="26" customWidth="1"/>
     <col min="11" max="11" width="26.9230769230769" style="26" customWidth="1"/>
     <col min="12" max="12" width="23.5576923076923" style="26" customWidth="1"/>
     <col min="13" max="13" width="43.2596153846154" style="26" customWidth="1"/>
     <col min="14" max="14" width="23.875" style="26" customWidth="1"/>
-    <col min="15" max="15" width="26.5" style="26" customWidth="1"/>
+    <col min="15" max="15" width="54.1634615384615" style="26" customWidth="1"/>
     <col min="16" max="16" width="22.6634615384615" style="26" customWidth="1"/>
-    <col min="17" max="17" width="15.8365384615385" style="26" customWidth="1"/>
-    <col min="18" max="18" width="15.1634615384615" style="26" customWidth="1"/>
-    <col min="19" max="19" width="15" style="26" customWidth="1"/>
+    <col min="17" max="17" width="23.5576923076923" style="26" customWidth="1"/>
+    <col min="18" max="18" width="25.9615384615385" style="26" customWidth="1"/>
+    <col min="19" max="19" width="23.2307692307692" style="26" customWidth="1"/>
     <col min="20" max="20" width="24.3557692307692" style="26" customWidth="1"/>
     <col min="21" max="21" width="33.1730769230769" style="26" customWidth="1"/>
     <col min="22" max="22" width="20.6634615384615" style="26" customWidth="1"/>
-    <col min="23" max="23" width="84" style="26" customWidth="1"/>
+    <col min="23" max="23" width="106.894230769231" style="26" customWidth="1"/>
     <col min="24" max="24" width="98.0673076923077" style="26" customWidth="1"/>
     <col min="25" max="16384" width="9" style="26"/>
   </cols>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -275,7 +275,7 @@
     <t>1//10//20//40//60//80</t>
   </si>
   <si>
-    <t>时装0//性感凯莉1//性感凯莉12</t>
+    <t>时装0//性感凯莉1//性感凯莉2</t>
   </si>
   <si>
     <t>男情人1</t>
@@ -4249,11 +4249,11 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="K12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="544">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>1//10//20//40//60//80</t>
+  </si>
+  <si>
+    <t>2//4</t>
   </si>
   <si>
     <t>时装0//性感凯莉1//性感凯莉2</t>
@@ -380,9 +383,6 @@
   </si>
   <si>
     <t>商战增加3//管名增加3//商战加成3//管名加成3//全体增加3//全体加成3</t>
-  </si>
-  <si>
-    <t>2//4</t>
   </si>
   <si>
     <t>时装0//性感杰西卡1//性感杰西卡2</t>
@@ -2989,10 +2989,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3040,19 +3040,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3063,6 +3068,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3071,32 +3082,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3115,60 +3105,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3182,9 +3120,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3258,7 +3258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3270,19 +3270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3294,25 +3294,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3330,13 +3348,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,25 +3384,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3378,43 +3426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3426,19 +3438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,17 +3529,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3559,13 +3555,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3584,188 +3599,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="60">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3777,7 +3777,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3802,12 +3802,12 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3878,13 +3878,13 @@
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="百分比 2" xfId="2"/>
-    <cellStyle name="普通数值" xfId="3"/>
+    <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="1表头" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="普通数值" xfId="5"/>
+    <cellStyle name="百分比 2" xfId="6"/>
+    <cellStyle name="常规 6" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -4249,11 +4249,11 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="K12" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4609,23 +4609,23 @@
       <c r="K7" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="30">
-        <v>0</v>
+      <c r="L7" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="41" t="s">
         <v>71</v>
@@ -4635,19 +4635,19 @@
         <v>凯莉画像</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W7" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X7" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="17" spans="1:24">
@@ -4656,10 +4656,10 @@
         <v>21021</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="29">
         <v>2</v>
@@ -4668,22 +4668,22 @@
         <v>72</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>95</v>
@@ -4692,7 +4692,7 @@
         <v>96</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="37" t="s">
         <v>97</v>
@@ -4701,20 +4701,20 @@
         <v>98</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S8" s="37" t="str">
         <f t="shared" ref="S8:S30" si="0">D8&amp;"画像"</f>
         <v>杰西卡画像</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W8" s="26" t="s">
         <v>99</v>
@@ -4756,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>107</v>
@@ -4765,7 +4765,7 @@
         <v>108</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" s="37" t="s">
         <v>109</v>
@@ -4781,19 +4781,19 @@
         <v>伊丽莎白画像</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U9" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V9" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W9" s="26" t="s">
         <v>111</v>
       </c>
       <c r="X9" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:24">
@@ -4814,7 +4814,7 @@
         <v>72</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>114</v>
@@ -4829,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>117</v>
@@ -4838,7 +4838,7 @@
         <v>118</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="37" t="s">
         <v>119</v>
@@ -4854,13 +4854,13 @@
         <v>伊芙琳画像</v>
       </c>
       <c r="T10" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U10" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V10" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W10" s="26" t="s">
         <v>121</v>
@@ -4901,7 +4901,7 @@
         <v>77</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>127</v>
@@ -4910,7 +4910,7 @@
         <v>128</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" s="37" t="s">
         <v>129</v>
@@ -4926,13 +4926,13 @@
         <v>娜塔莉画像</v>
       </c>
       <c r="T11" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U11" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W11" s="26" t="s">
         <v>131</v>
@@ -4972,8 +4972,8 @@
       <c r="K12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="30">
-        <v>0</v>
+      <c r="L12" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M12" s="30" t="s">
         <v>136</v>
@@ -4982,7 +4982,7 @@
         <v>128</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="37" t="s">
         <v>137</v>
@@ -4998,13 +4998,13 @@
         <v>娜斯提娅画像</v>
       </c>
       <c r="T12" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U12" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W12" s="26" t="s">
         <v>139</v>
@@ -5045,7 +5045,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>145</v>
@@ -5054,7 +5054,7 @@
         <v>128</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="37" t="s">
         <v>146</v>
@@ -5070,13 +5070,13 @@
         <v>伊莎贝拉画像</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U13" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W13" s="26" t="s">
         <v>148</v>
@@ -5102,7 +5102,7 @@
         <v>124</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>151</v>
@@ -5117,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M14" s="30" t="s">
         <v>154</v>
@@ -5126,7 +5126,7 @@
         <v>128</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="37" t="s">
         <v>155</v>
@@ -5142,13 +5142,13 @@
         <v>海蒂画像</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U14" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W14" s="26" t="s">
         <v>157</v>
@@ -5174,7 +5174,7 @@
         <v>124</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>160</v>
@@ -5189,7 +5189,7 @@
         <v>77</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M15" s="30" t="s">
         <v>163</v>
@@ -5198,7 +5198,7 @@
         <v>128</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P15" s="37" t="s">
         <v>164</v>
@@ -5214,13 +5214,13 @@
         <v>中岛希子画像</v>
       </c>
       <c r="T15" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W15" s="26" t="s">
         <v>166</v>
@@ -5261,7 +5261,7 @@
         <v>77</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M16" s="30" t="s">
         <v>172</v>
@@ -5270,7 +5270,7 @@
         <v>128</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="37" t="s">
         <v>173</v>
@@ -5286,13 +5286,13 @@
         <v>Rose画像</v>
       </c>
       <c r="T16" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U16" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V16" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W16" s="26" t="s">
         <v>175</v>
@@ -5333,7 +5333,7 @@
         <v>77</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M17" s="30" t="s">
         <v>180</v>
@@ -5342,7 +5342,7 @@
         <v>128</v>
       </c>
       <c r="O17" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17" s="37" t="s">
         <v>181</v>
@@ -5358,13 +5358,13 @@
         <v>莉莉画像</v>
       </c>
       <c r="T17" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U17" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V17" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W17" s="26" t="s">
         <v>183</v>
@@ -5404,8 +5404,8 @@
       <c r="K18" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="30">
-        <v>0</v>
+      <c r="L18" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M18" s="30" t="s">
         <v>189</v>
@@ -5414,7 +5414,7 @@
         <v>128</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="37" t="s">
         <v>190</v>
@@ -5430,13 +5430,13 @@
         <v>章亦灵画像</v>
       </c>
       <c r="T18" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U18" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V18" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W18" s="26" t="s">
         <v>192</v>
@@ -5476,8 +5476,8 @@
       <c r="K19" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="30">
-        <v>0</v>
+      <c r="L19" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M19" s="30" t="s">
         <v>198</v>
@@ -5486,7 +5486,7 @@
         <v>128</v>
       </c>
       <c r="O19" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="37" t="s">
         <v>137</v>
@@ -5502,13 +5502,13 @@
         <v>莫妮卡画像</v>
       </c>
       <c r="T19" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U19" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V19" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W19" s="26" t="s">
         <v>200</v>
@@ -5548,8 +5548,8 @@
       <c r="K20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="30">
-        <v>0</v>
+      <c r="L20" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M20" s="30" t="s">
         <v>206</v>
@@ -5558,7 +5558,7 @@
         <v>128</v>
       </c>
       <c r="O20" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="37" t="s">
         <v>207</v>
@@ -5574,13 +5574,13 @@
         <v>艾玛画像</v>
       </c>
       <c r="T20" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U20" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V20" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W20" s="26" t="s">
         <v>209</v>
@@ -5606,7 +5606,7 @@
         <v>72</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>212</v>
@@ -5621,7 +5621,7 @@
         <v>77</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M21" s="30" t="s">
         <v>214</v>
@@ -5630,7 +5630,7 @@
         <v>128</v>
       </c>
       <c r="O21" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="37" t="s">
         <v>215</v>
@@ -5646,13 +5646,13 @@
         <v>艾米画像</v>
       </c>
       <c r="T21" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U21" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V21" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W21" s="26" t="s">
         <v>217</v>
@@ -5692,8 +5692,8 @@
       <c r="K22" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L22" s="30">
-        <v>0</v>
+      <c r="L22" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M22" s="30" t="s">
         <v>222</v>
@@ -5702,7 +5702,7 @@
         <v>128</v>
       </c>
       <c r="O22" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22" s="37" t="s">
         <v>223</v>
@@ -5718,13 +5718,13 @@
         <v>邦妮画像</v>
       </c>
       <c r="T22" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V22" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W22" s="26" t="s">
         <v>225</v>
@@ -5764,8 +5764,8 @@
       <c r="K23" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="30">
-        <v>0</v>
+      <c r="L23" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M23" s="30" t="s">
         <v>231</v>
@@ -5774,7 +5774,7 @@
         <v>128</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P23" s="37" t="s">
         <v>232</v>
@@ -5790,13 +5790,13 @@
         <v>艾琳娜画像</v>
       </c>
       <c r="T23" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U23" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V23" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W23" s="26" t="s">
         <v>234</v>
@@ -5822,7 +5822,7 @@
         <v>124</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>237</v>
@@ -5831,13 +5831,13 @@
         <v>238</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>77</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M24" s="30" t="s">
         <v>239</v>
@@ -5846,7 +5846,7 @@
         <v>128</v>
       </c>
       <c r="O24" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" s="37" t="s">
         <v>155</v>
@@ -5862,13 +5862,13 @@
         <v>菲欧娜画像</v>
       </c>
       <c r="T24" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V24" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W24" s="26" t="s">
         <v>241</v>
@@ -5909,7 +5909,7 @@
         <v>77</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M25" s="30" t="s">
         <v>246</v>
@@ -5918,7 +5918,7 @@
         <v>128</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P25" s="37" t="s">
         <v>247</v>
@@ -5934,13 +5934,13 @@
         <v>苏珊画像</v>
       </c>
       <c r="T25" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V25" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W25" s="26" t="s">
         <v>249</v>
@@ -5966,7 +5966,7 @@
         <v>72</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" s="29" t="s">
         <v>252</v>
@@ -5981,7 +5981,7 @@
         <v>77</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M26" s="30" t="s">
         <v>255</v>
@@ -5990,7 +5990,7 @@
         <v>128</v>
       </c>
       <c r="O26" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P26" s="37" t="s">
         <v>119</v>
@@ -6006,13 +6006,13 @@
         <v>琳恩画像</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V26" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W26" s="26" t="s">
         <v>257</v>
@@ -6038,7 +6038,7 @@
         <v>72</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" s="29" t="s">
         <v>260</v>
@@ -6053,7 +6053,7 @@
         <v>77</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M27" s="30" t="s">
         <v>262</v>
@@ -6062,7 +6062,7 @@
         <v>128</v>
       </c>
       <c r="O27" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P27" s="37" t="s">
         <v>97</v>
@@ -6078,13 +6078,13 @@
         <v>维多利亚画像</v>
       </c>
       <c r="T27" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V27" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W27" s="26" t="s">
         <v>264</v>
@@ -6125,7 +6125,7 @@
         <v>77</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M28" s="30" t="s">
         <v>269</v>
@@ -6134,7 +6134,7 @@
         <v>128</v>
       </c>
       <c r="O28" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="37" t="s">
         <v>181</v>
@@ -6150,13 +6150,13 @@
         <v>索菲亚画像</v>
       </c>
       <c r="T28" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V28" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W28" s="26" t="s">
         <v>271</v>
@@ -6196,8 +6196,8 @@
       <c r="K29" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L29" s="30">
-        <v>0</v>
+      <c r="L29" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="M29" s="30" t="s">
         <v>277</v>
@@ -6206,7 +6206,7 @@
         <v>128</v>
       </c>
       <c r="O29" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P29" s="37" t="s">
         <v>278</v>
@@ -6222,13 +6222,13 @@
         <v>佐伊画像</v>
       </c>
       <c r="T29" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V29" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W29" s="26" t="s">
         <v>280</v>
@@ -6269,7 +6269,7 @@
         <v>77</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M30" s="30" t="s">
         <v>286</v>
@@ -6278,7 +6278,7 @@
         <v>128</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P30" s="37" t="s">
         <v>287</v>
@@ -6294,13 +6294,13 @@
         <v>爱丽丝画像</v>
       </c>
       <c r="T30" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V30" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W30" s="26" t="s">
         <v>289</v>
@@ -6561,16 +6561,16 @@
         <v>101</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>294</v>
@@ -6588,13 +6588,13 @@
         <v>70</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>296</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>71</v>
@@ -6626,7 +6626,7 @@
         <v>294</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>77</v>
@@ -6635,10 +6635,10 @@
         <v>297</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>296</v>
@@ -6647,10 +6647,10 @@
         <v>98</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -6688,7 +6688,7 @@
         <v>101</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>296</v>
@@ -6732,7 +6732,7 @@
         <v>112</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" s="25" t="s">
         <v>296</v>
@@ -6776,7 +6776,7 @@
         <v>176</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>296</v>
@@ -15863,10 +15863,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -15904,7 +15904,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12220"/>
+    <workbookView windowWidth="27900" windowHeight="12220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="情人表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="545">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -2930,6 +2930,9 @@
     <t>纵欲放荡</t>
   </si>
   <si>
+    <t>琳恩自慰1</t>
+  </si>
+  <si>
     <t>银戒指//学徒乐谱</t>
   </si>
   <si>
@@ -2989,8 +2992,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -3033,11 +3036,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3047,25 +3048,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3082,18 +3069,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3106,37 +3139,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3149,9 +3152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3172,24 +3175,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3252,13 +3255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3270,13 +3273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3288,55 +3291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,85 +3309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3439,6 +3322,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3515,26 +3518,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3556,6 +3539,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3566,21 +3564,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3599,52 +3582,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="60">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3653,119 +3656,119 @@
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3777,7 +3780,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3802,12 +3805,12 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3878,13 +3881,13 @@
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 5" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="百分比 2" xfId="2"/>
+    <cellStyle name="普通数值" xfId="3"/>
     <cellStyle name="1表头" xfId="4"/>
-    <cellStyle name="普通数值" xfId="5"/>
-    <cellStyle name="百分比 2" xfId="6"/>
-    <cellStyle name="常规 6" xfId="7"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 5" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -4248,12 +4251,12 @@
   <sheetPr/>
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="K12" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -15763,8 +15766,8 @@
   <sheetPr/>
   <dimension ref="A3:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -16182,7 +16185,9 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="11">
+        <v>18</v>
+      </c>
       <c r="C24" s="13" t="s">
         <v>259</v>
       </c>
@@ -16199,7 +16204,9 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="11">
+        <v>19</v>
+      </c>
       <c r="C25" s="13" t="s">
         <v>282</v>
       </c>
@@ -16216,7 +16223,9 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11">
+        <v>20</v>
+      </c>
       <c r="C26" s="13" t="s">
         <v>227</v>
       </c>
@@ -16233,7 +16242,9 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="11">
+        <v>21</v>
+      </c>
       <c r="C27" s="13" t="s">
         <v>236</v>
       </c>
@@ -16250,7 +16261,9 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="11">
+        <v>22</v>
+      </c>
       <c r="C28" s="13" t="s">
         <v>266</v>
       </c>
@@ -16267,7 +16280,9 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="11">
+        <v>23</v>
+      </c>
       <c r="C29" s="13" t="s">
         <v>243</v>
       </c>
@@ -16284,7 +16299,9 @@
     </row>
     <row r="30" ht="12.75" customHeight="1" spans="1:11">
       <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="11">
+        <v>24</v>
+      </c>
       <c r="C30" s="13" t="s">
         <v>251</v>
       </c>
@@ -18109,8 +18126,8 @@
   <sheetPr/>
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -18225,13 +18242,13 @@
         <v>525</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>216</v>
+        <v>526</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -18239,19 +18256,19 @@
         <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>270</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -18259,19 +18276,19 @@
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>248</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -18279,19 +18296,19 @@
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>224</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -18299,19 +18316,19 @@
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>256</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="552">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -2930,7 +2930,7 @@
     <t>纵欲放荡</t>
   </si>
   <si>
-    <t>琳恩自慰1</t>
+    <t>琳恩自慰</t>
   </si>
   <si>
     <t>银戒指//学徒乐谱</t>
@@ -2945,6 +2945,9 @@
     <t>狂欢之夜</t>
   </si>
   <si>
+    <t>菲欧娜自慰</t>
+  </si>
+  <si>
     <t>银戒指//夫子乐谱</t>
   </si>
   <si>
@@ -2957,6 +2960,9 @@
     <t>荒淫无度</t>
   </si>
   <si>
+    <t>海蒂自慰</t>
+  </si>
+  <si>
     <t>金戒指//普通香脂</t>
   </si>
   <si>
@@ -2969,6 +2975,9 @@
     <t>男孩女孩</t>
   </si>
   <si>
+    <t>rose自慰</t>
+  </si>
+  <si>
     <t>水晶戒指//绝世香脂</t>
   </si>
   <si>
@@ -2981,10 +2990,22 @@
     <t>奸夫淫妇</t>
   </si>
   <si>
+    <t>索菲亚自慰</t>
+  </si>
+  <si>
     <t>珍珠戒指//夫子乐谱</t>
   </si>
   <si>
     <t>8//10</t>
+  </si>
+  <si>
+    <t>写真106</t>
+  </si>
+  <si>
+    <t>酒店男女</t>
+  </si>
+  <si>
+    <t>维多利亚自慰</t>
   </si>
 </sst>
 </file>
@@ -2992,10 +3013,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3029,16 +3050,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3050,9 +3071,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3069,8 +3106,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3085,37 +3159,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -3124,20 +3167,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3152,16 +3187,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3175,26 +3211,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3255,7 +3276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,7 +3306,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3285,67 +3336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,7 +3360,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,25 +3432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,19 +3444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,19 +3456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3508,8 +3529,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3519,6 +3540,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3553,17 +3589,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3582,194 +3623,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="60">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3780,7 +3801,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3805,12 +3826,12 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3881,13 +3902,13 @@
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="百分比 2" xfId="2"/>
-    <cellStyle name="普通数值" xfId="3"/>
+    <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2" xfId="3"/>
     <cellStyle name="1表头" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="普通数值" xfId="5"/>
+    <cellStyle name="百分比 2" xfId="6"/>
+    <cellStyle name="常规 6" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -4256,7 +4277,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -18126,8 +18147,8 @@
   <sheetPr/>
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -18136,9 +18157,9 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="15.8365384615385" customWidth="1"/>
     <col min="4" max="4" width="19.8365384615385" customWidth="1"/>
-    <col min="5" max="5" width="27.1634615384615" customWidth="1"/>
-    <col min="6" max="6" width="40.0576923076923" customWidth="1"/>
-    <col min="7" max="7" width="34.7788461538462" customWidth="1"/>
+    <col min="5" max="5" width="35.4807692307692" customWidth="1"/>
+    <col min="6" max="6" width="49.4134615384615" customWidth="1"/>
+    <col min="7" max="7" width="48.6442307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -18262,13 +18283,13 @@
         <v>530</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>270</v>
+        <v>531</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -18276,19 +18297,19 @@
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>248</v>
+        <v>536</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -18296,19 +18317,19 @@
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>224</v>
+        <v>541</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -18316,24 +18337,40 @@
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>256</v>
+        <v>546</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7">
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="10"/>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="564">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3006,6 +3006,42 @@
   </si>
   <si>
     <t>维多利亚自慰</t>
+  </si>
+  <si>
+    <t>写真107</t>
+  </si>
+  <si>
+    <t>红杏出墙</t>
+  </si>
+  <si>
+    <t>杰西卡自慰</t>
+  </si>
+  <si>
+    <t>写真108</t>
+  </si>
+  <si>
+    <t>淫乱男女</t>
+  </si>
+  <si>
+    <t>莉莉自慰</t>
+  </si>
+  <si>
+    <t>写真109</t>
+  </si>
+  <si>
+    <t>骚气逼人</t>
+  </si>
+  <si>
+    <t>塔琳娜自慰</t>
+  </si>
+  <si>
+    <t>写真110</t>
+  </si>
+  <si>
+    <t>红颜祸水</t>
+  </si>
+  <si>
+    <t>伊芙琳自慰</t>
   </si>
 </sst>
 </file>
@@ -4273,7 +4309,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -18148,7 +18184,7 @@
   <dimension ref="A3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -18259,7 +18295,7 @@
       <c r="C7" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>525</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -18279,7 +18315,7 @@
       <c r="C8" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>530</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -18372,21 +18408,85 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>1010</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" s="11"/>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="576">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3051,6 +3051,33 @@
   </si>
   <si>
     <t>艾米自慰</t>
+  </si>
+  <si>
+    <t>写真112</t>
+  </si>
+  <si>
+    <t>百战群乳</t>
+  </si>
+  <si>
+    <t>莫妮卡自慰</t>
+  </si>
+  <si>
+    <t>写真113</t>
+  </si>
+  <si>
+    <t>阴小湿大</t>
+  </si>
+  <si>
+    <t>伊丽莎白自慰</t>
+  </si>
+  <si>
+    <t>写真114</t>
+  </si>
+  <si>
+    <t>淫尸作乐</t>
+  </si>
+  <si>
+    <t>章亦灵自慰</t>
   </si>
 </sst>
 </file>
@@ -4326,7 +4353,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -18198,10 +18225,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:G17"/>
+  <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -18525,6 +18552,66 @@
         <v>548</v>
       </c>
     </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>1012</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="579">
   <si>
     <t>第一套为默认时装</t>
   </si>
@@ -3078,6 +3078,15 @@
   </si>
   <si>
     <t>章亦灵自慰</t>
+  </si>
+  <si>
+    <t>写真115</t>
+  </si>
+  <si>
+    <t>善解人衣</t>
+  </si>
+  <si>
+    <t>邦妮自慰</t>
   </si>
 </sst>
 </file>
@@ -18225,7 +18234,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:G20"/>
+  <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
@@ -18612,6 +18621,26 @@
         <v>548</v>
       </c>
     </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
+        <v>1015</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/exceldata/excel/all/Q-情人表.xlsx
+++ b/exceldata/excel/all/Q-情人表.xlsx
@@ -16211,7 +16211,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
